--- a/data/bundesliga_squads_hybrid.xlsx
+++ b/data/bundesliga_squads_hybrid.xlsx
@@ -511,7 +511,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>08.08.2003 (22)</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -560,7 +560,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>27.03.1986 (39)</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>03.08.1988 (37)</t>
+          <t>37</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -658,7 +658,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>01.03.2007 (18)</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -707,7 +707,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>27.10.1998 (26)</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -756,7 +756,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>15.11.1996 (28)</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -805,7 +805,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11.02.1996 (29)</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -854,7 +854,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12.05.1999 (26)</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>02.11.2000 (24)</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>22.12.1993 (31)</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>02.04.2000 (25)</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>27.05.1997 (28)</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>13.09.2000 (25)</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>03.05.2004 (21)</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>08.02.1995 (30)</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>28.06.2005 (20)</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1295,7 +1295,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>06.02.1995 (30)</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>26.02.2003 (22)</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>22.02.2008 (17)</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>13.01.1997 (28)</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>14.07.1995 (30)</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1536,11 +1536,11 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>24.09.2008 (16)</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12.12.2001 (23)</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>28.07.1993 (32)</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>20.06.2001 (24)</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>13.06.1993 (32)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>02.05.1991 (34)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>28.07.1993 (32)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>02.02.1999 (26)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1930,7 +1930,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>11.04.2000 (25)</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1979,7 +1979,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>29.01.2003 (22)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2028,7 +2028,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>17.02.2005 (20)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>10.08.2007 (18)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2122,11 +2122,11 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>20.09.1995 (30)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>17.03.2003 (22)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2224,7 +2224,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>01.07.1991 (34)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2273,7 +2273,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25.07.2002 (23)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2318,11 +2318,11 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>22.09.1994 (31)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>05.10.1998 (26)</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2420,7 +2420,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>28.06.1997 (28)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2469,7 +2469,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>28.05.2002 (23)</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2518,7 +2518,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>02.01.2006 (19)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2567,7 +2567,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>24.11.2005 (19)</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2616,7 +2616,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>14.07.1992 (33)</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16.02.2005 (20)</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2714,7 +2714,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>04.03.1997 (28)</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2763,7 +2763,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>05.07.1999 (26)</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>28.01.2004 (21)</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2861,7 +2861,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>24.01.1996 (29)</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2910,7 +2910,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>26.07.2006 (19)</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2959,7 +2959,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>06.01.2006 (19)</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3480,7 +3480,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Daniel Svensson</t>
+          <t>Ramy Bensebaini</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3490,28 +3490,28 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>12.02.2002 (23)</t>
+          <t>16.04.1995 (30)</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Algeria</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>12000000</v>
+        <v>7000000</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>€12.00m</t>
+          <t>€7.00m</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3529,7 +3529,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Ramy Bensebaini</t>
+          <t>Almugera Kabar</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3539,28 +3539,28 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>16.04.1995 (30)</t>
+          <t>06.06.2006 (19)</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>Germany, Libya</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>7000000</v>
+        <v>1000000</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>€7.00m</t>
+          <t>€1.00m</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3578,38 +3578,38 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Almugera Kabar</t>
+          <t>Yan Couto</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Left-Back</t>
+          <t>Right-Back</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>06.06.2006 (19)</t>
+          <t>03.06.2002 (23)</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Germany, Libya</t>
+          <t>Brazil, Portugal</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1000000</v>
+        <v>20000000</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>€1.00m</t>
+          <t>€20.00m</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -3627,7 +3627,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Yan Couto</t>
+          <t>Julian Ryerson</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3637,20 +3637,20 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>03.06.2002 (23)</t>
+          <t>17.11.1997 (27)</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Brazil, Portugal</t>
+          <t>Norway, United States</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -3676,17 +3676,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Julian Ryerson</t>
+          <t>Salih Özcan</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Right-Back</t>
+          <t>Defensive Midfield</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -3694,20 +3694,20 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>17.11.1997 (27)</t>
+          <t>11.01.1998 (27)</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Norway, United States</t>
+          <t>Türkiye, Germany</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>20000000</v>
+        <v>4000000</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>€20.00m</t>
+          <t>€4.00m</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3725,38 +3725,38 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Salih Özcan</t>
+          <t>Felix Nmecha</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Defensive Midfield</t>
+          <t>Central Midfield</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11.01.1998 (27)</t>
+          <t>10.10.2000 (24)</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Türkiye, Germany</t>
+          <t>Germany, England</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4000000</v>
+        <v>28000000</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>€4.00m</t>
+          <t>€28.00m</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3774,7 +3774,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Felix Nmecha</t>
+          <t>Jobe Bellingham</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3784,28 +3784,28 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10.10.2000 (24)</t>
+          <t>23.09.2005 (20)</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Germany, England</t>
+          <t>England, Ireland</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>28000000</v>
+        <v>22000000</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>€28.00m</t>
+          <t>€22.00m</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -3823,7 +3823,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Jobe Bellingham</t>
+          <t>Carney Chukwuemeka</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3833,28 +3833,28 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>23.09.2005 (19)</t>
+          <t>20.10.2003 (21)</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>England, Ireland</t>
+          <t>England, Nigeria</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>22000000</v>
+        <v>18000000</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>€22.00m</t>
+          <t>€18.00m</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -3872,7 +3872,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Carney Chukwuemeka</t>
+          <t>Marcel Sabitzer</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3882,28 +3882,28 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>20.10.2003 (21)</t>
+          <t>17.03.1994 (31)</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>England, Nigeria</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>18000000</v>
+        <v>8000000</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>€18.00m</t>
+          <t>€8.00m</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -3921,7 +3921,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Marcel Sabitzer</t>
+          <t>Pascal Groß</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3931,28 +3931,28 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>17.03.1994 (31)</t>
+          <t>15.06.1991 (34)</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>8000000</v>
+        <v>5000000</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>€8.00m</t>
+          <t>€5.00m</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -3970,38 +3970,38 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Pascal Groß</t>
+          <t>Daniel Svensson</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Central Midfield</t>
+          <t>Left Midfield</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>15.06.1991 (34)</t>
+          <t>12.02.2002 (23)</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>5000000</v>
+        <v>12000000</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>€5.00m</t>
+          <t>€12.00m</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -4380,7 +4380,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>26.02.2002 (23)</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4429,7 +4429,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>06.05.1990 (35)</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4478,7 +4478,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>10.04.1994 (31)</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4527,7 +4527,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>17.12.2002 (22)</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4576,7 +4576,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>16.05.2005 (20)</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4625,7 +4625,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>03.11.1992 (32)</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4674,7 +4674,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>03.06.1996 (29)</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4723,7 +4723,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>22.04.1998 (27)</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4772,7 +4772,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>27.03.2004 (21)</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4821,7 +4821,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>23.02.1997 (28)</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -4870,7 +4870,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>16.12.2005 (19)</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -4919,7 +4919,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>08.04.1998 (27)</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -4968,7 +4968,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>04.05.2001 (24)</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>31.01.1998 (27)</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -5066,7 +5066,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>16.02.2005 (20)</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>28.09.1997 (27)</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>09.05.2006 (19)</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5213,7 +5213,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>09.10.1990 (34)</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5262,7 +5262,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>24.01.2007 (18)</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5309,7 +5309,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>05.06.2007 (18)</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5358,7 +5358,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>01.08.1999 (26)</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5407,7 +5407,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>22.11.2007 (17)</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5456,7 +5456,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>17.04.2005 (20)</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5505,7 +5505,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>06.03.1996 (29)</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5554,7 +5554,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>08.08.2006 (19)</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5603,7 +5603,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>14.11.2006 (18)</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>20.04.2003 (22)</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5701,7 +5701,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>07.04.2005 (20)</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5750,7 +5750,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>08.02.2002 (23)</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -6873,11 +6873,11 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -7367,7 +7367,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>12.07.1995 (30)</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7416,7 +7416,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>11.04.2003 (22)</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -7461,11 +7461,11 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>22.09.1988 (36)</t>
+          <t>37</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -7514,7 +7514,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>19.01.2007 (18)</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -7561,7 +7561,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>25.05.2000 (25)</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -7610,7 +7610,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>17.07.1996 (29)</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -7659,7 +7659,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>10.01.2004 (21)</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -7708,7 +7708,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>31.07.2003 (22)</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -7757,7 +7757,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>16.06.2003 (22)</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -7806,7 +7806,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>11.07.1997 (28)</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -7855,7 +7855,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>26.10.2005 (19)</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -7904,7 +7904,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>10.02.1997 (28)</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -7953,7 +7953,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>29.03.1990 (35)</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8002,7 +8002,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>10.05.1995 (30)</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -8051,7 +8051,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>30.01.2006 (19)</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8100,7 +8100,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>27.06.2004 (21)</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8149,7 +8149,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>04.01.2005 (20)</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8198,7 +8198,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>01.01.1996 (29)</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8247,7 +8247,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>11.11.2005 (19)</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>28.11.2002 (22)</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -8345,7 +8345,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>03.06.1992 (33)</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8394,7 +8394,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>07.05.2005 (20)</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8443,7 +8443,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>16.06.1998 (27)</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8492,7 +8492,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>10.01.2002 (23)</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -8541,7 +8541,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>11.07.2000 (25)</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -8590,7 +8590,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>02.01.2003 (22)</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -8639,7 +8639,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>02.10.1993 (31)</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -8688,7 +8688,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>20.07.2000 (25)</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8737,7 +8737,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>02.06.1990 (35)</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -8786,7 +8786,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>28.11.2000 (24)</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -8835,7 +8835,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>09.02.2004 (21)</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -8884,7 +8884,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>18.05.2003 (22)</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -8933,7 +8933,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>25.08.1997 (28)</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -8982,7 +8982,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>14.05.1995 (30)</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -9031,7 +9031,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>25.03.2000 (25)</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -9080,7 +9080,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>29.01.2001 (24)</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -9129,7 +9129,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>29.01.2000 (25)</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -9178,7 +9178,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>19.04.1995 (30)</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -9227,7 +9227,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>03.02.2005 (20)</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -9276,7 +9276,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>26.05.2001 (24)</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -9325,7 +9325,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>19.01.2005 (20)</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -9374,7 +9374,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>21.06.2000 (25)</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -9423,7 +9423,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>22.08.1992 (33)</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -9472,7 +9472,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>23.02.2004 (21)</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -9521,7 +9521,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>16.02.2001 (24)</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -9570,7 +9570,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>11.08.2004 (21)</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -9619,7 +9619,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>09.01.1995 (30)</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -9668,7 +9668,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>10.06.1998 (27)</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -9699,7 +9699,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Luka Đurić</t>
+          <t>Luka Duric</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -9717,7 +9717,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>18.06.2003 (22)</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -9766,7 +9766,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>09.04.2004 (21)</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -9815,7 +9815,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>19.06.1991 (34)</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -9864,7 +9864,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>02.03.2006 (19)</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -9913,7 +9913,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>25.07.2002 (23)</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -9962,7 +9962,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>08.08.2002 (23)</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -10011,7 +10011,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>15.01.2006 (19)</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -10060,7 +10060,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>05.02.2002 (23)</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -10109,7 +10109,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>11.05.1998 (27)</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -10158,7 +10158,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>13.12.2006 (18)</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -10207,7 +10207,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>23.04.1994 (31)</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -10256,7 +10256,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>03.05.2004 (21)</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -10305,7 +10305,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>01.10.2006 (18)</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -11671,11 +11671,11 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -12075,10 +12075,12 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="G238" t="inlineStr"/>
+      <c r="G238" t="n">
+        <v>500000</v>
+      </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>€500k</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
@@ -12708,10 +12710,12 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="G251" t="inlineStr"/>
+      <c r="G251" t="n">
+        <v>500000</v>
+      </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>€500k</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
@@ -16396,7 +16400,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Rogério</t>
+          <t>Aaron Zehnter</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -16406,28 +16410,28 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D327" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>Brazil, Italy</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G327" t="n">
-        <v>2500000</v>
+        <v>6000000</v>
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>€2.50m</t>
+          <t>€6.00m</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
@@ -16445,38 +16449,38 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Saël Kumbedi</t>
+          <t>Rogério</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Right-Back</t>
+          <t>Left-Back</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D328" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>France, DR Congo</t>
+          <t>Brazil, Italy</t>
         </is>
       </c>
       <c r="G328" t="n">
-        <v>7000000</v>
+        <v>2500000</v>
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>€7.00m</t>
+          <t>€2.50m</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
@@ -16494,7 +16498,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Kilian Fischer</t>
+          <t>Saël Kumbedi</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -16504,28 +16508,28 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D329" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>France, DR Congo</t>
         </is>
       </c>
       <c r="G329" t="n">
-        <v>6000000</v>
+        <v>7000000</v>
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>€6.00m</t>
+          <t>€7.00m</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
@@ -16543,38 +16547,38 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Vini Souza</t>
+          <t>Kilian Fischer</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Defensive Midfield</t>
+          <t>Right-Back</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D330" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G330" t="n">
-        <v>15000000</v>
+        <v>6000000</v>
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>€15.00m</t>
+          <t>€6.00m</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
@@ -16592,17 +16596,17 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Mattias Svanberg</t>
+          <t>Vini Souza</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Central Midfield</t>
+          <t>Defensive Midfield</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D331" t="n">
@@ -16615,15 +16619,15 @@
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="G331" t="n">
-        <v>12000000</v>
+        <v>15000000</v>
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>€12.00m</t>
+          <t>€15.00m</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
@@ -16641,7 +16645,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Maximilian Arnold</t>
+          <t>Mattias Svanberg</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -16651,28 +16655,28 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D332" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="G332" t="n">
-        <v>5000000</v>
+        <v>12000000</v>
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>€5.00m</t>
+          <t>€12.00m</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
@@ -16690,7 +16694,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Yannick Gerhardt</t>
+          <t>Maximilian Arnold</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -16700,7 +16704,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D333" t="n">
@@ -16717,11 +16721,11 @@
         </is>
       </c>
       <c r="G333" t="n">
-        <v>2500000</v>
+        <v>5000000</v>
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>€2.50m</t>
+          <t>€5.00m</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
@@ -16739,38 +16743,38 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Kevin Paredes</t>
+          <t>Yannick Gerhardt</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Left Midfield</t>
+          <t>Central Midfield</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D334" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>United States, Dominican Republic</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G334" t="n">
-        <v>7500000</v>
+        <v>2500000</v>
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>€7.50m</t>
+          <t>€2.50m</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
@@ -16788,7 +16792,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Aaron Zehnter</t>
+          <t>Kevin Paredes</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -16798,28 +16802,28 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D335" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>United States, Dominican Republic</t>
         </is>
       </c>
       <c r="G335" t="n">
-        <v>6000000</v>
+        <v>7500000</v>
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>€6.00m</t>
+          <t>€7.50m</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
@@ -19689,11 +19693,11 @@
         </is>
       </c>
       <c r="D394" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F394" t="inlineStr">
@@ -20424,11 +20428,11 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F409" t="inlineStr">
@@ -21841,11 +21845,11 @@
         </is>
       </c>
       <c r="D438" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F438" t="inlineStr">
@@ -24928,11 +24932,11 @@
         </is>
       </c>
       <c r="D501" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F501" t="inlineStr">
@@ -25794,25 +25798,25 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Steven Skrzybski</t>
+          <t>Phil Harres</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Second Striker</t>
+          <t>Centre-Forward</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D519" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E519" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F519" t="inlineStr">
@@ -25821,11 +25825,11 @@
         </is>
       </c>
       <c r="G519" t="n">
-        <v>1000000</v>
+        <v>4000000</v>
       </c>
       <c r="H519" t="inlineStr">
         <is>
-          <t>€1.00m</t>
+          <t>€4.00m</t>
         </is>
       </c>
       <c r="I519" t="inlineStr">
@@ -25843,7 +25847,7 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Phil Harres</t>
+          <t>Steven Skrzybski</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
@@ -25853,15 +25857,15 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D520" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E520" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F520" t="inlineStr">
@@ -25870,11 +25874,11 @@
         </is>
       </c>
       <c r="G520" t="n">
-        <v>4000000</v>
+        <v>1000000</v>
       </c>
       <c r="H520" t="inlineStr">
         <is>
-          <t>€4.00m</t>
+          <t>€1.00m</t>
         </is>
       </c>
       <c r="I520" t="inlineStr">
@@ -26298,11 +26302,11 @@
         </is>
       </c>
       <c r="D529" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E529" t="inlineStr">
         <is>
-          <t>25.09.1995 (29)</t>
+          <t>25.09.1995 (30)</t>
         </is>
       </c>
       <c r="F529" t="inlineStr">
@@ -26543,11 +26547,11 @@
         </is>
       </c>
       <c r="D534" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E534" t="inlineStr">
         <is>
-          <t>20.09.2002 (22)</t>
+          <t>20.09.2002 (23)</t>
         </is>
       </c>
       <c r="F534" t="inlineStr">

--- a/data/bundesliga_squads_hybrid.xlsx
+++ b/data/bundesliga_squads_hybrid.xlsx
@@ -1734,7 +1734,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>13.06.1993 (32)</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>02.05.1991 (34)</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>28.07.1993 (32)</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>02.02.1999 (26)</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1930,7 +1930,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11.04.2000 (25)</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1979,7 +1979,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>29.01.2003 (22)</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2028,7 +2028,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>17.02.2005 (20)</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10.08.2007 (18)</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2126,7 +2126,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>20.09.1995 (30)</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>17.03.2003 (22)</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2224,7 +2224,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>01.07.1991 (34)</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2273,7 +2273,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>25.07.2002 (23)</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2322,7 +2322,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>22.09.1994 (31)</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>05.10.1998 (26)</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2420,7 +2420,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>28.06.1997 (28)</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2469,7 +2469,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>28.05.2002 (23)</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2518,7 +2518,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>02.01.2006 (19)</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2567,7 +2567,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>24.11.2005 (19)</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2616,7 +2616,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>14.07.1992 (33)</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>16.02.2005 (20)</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2714,7 +2714,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>04.03.1997 (28)</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2763,7 +2763,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>05.07.1999 (26)</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>28.01.2004 (21)</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2861,7 +2861,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>24.01.1996 (29)</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2910,7 +2910,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>26.07.2006 (19)</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2959,7 +2959,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>06.01.2006 (19)</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3008,7 +3008,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>06.12.1997 (27)</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3057,7 +3057,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>13.04.1991 (34)</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3106,7 +3106,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>04.02.1993 (32)</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3155,7 +3155,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>19.11.2003 (21)</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3204,7 +3204,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>01.12.1999 (25)</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3253,7 +3253,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>20.07.1996 (29)</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3302,7 +3302,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>03.09.1995 (30)</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>29.04.2005 (20)</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>12.01.1994 (31)</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3449,7 +3449,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>08.03.2005 (20)</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3498,7 +3498,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>16.04.1995 (30)</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3547,7 +3547,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>06.06.2006 (19)</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3596,7 +3596,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>03.06.2002 (23)</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3645,7 +3645,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>17.11.1997 (27)</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11.01.1998 (27)</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3743,7 +3743,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10.10.2000 (24)</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3792,7 +3792,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>23.09.2005 (20)</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3841,7 +3841,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>20.10.2003 (21)</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3890,7 +3890,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>17.03.1994 (31)</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3939,7 +3939,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>15.06.1991 (34)</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3988,7 +3988,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>12.02.2002 (23)</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4037,7 +4037,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>02.05.1996 (29)</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4086,7 +4086,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>05.05.2006 (19)</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>18.01.2002 (23)</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4184,7 +4184,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>20.02.2006 (19)</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4233,7 +4233,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>12.03.1996 (29)</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4282,7 +4282,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>17.10.2002 (22)</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4331,7 +4331,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>19.07.2002 (23)</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -5111,11 +5111,11 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>30.09.1996 (28)</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>02.03.1995 (30)</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -5897,7 +5897,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18.10.2007 (17)</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -5946,7 +5946,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>20.04.1999 (26)</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -5995,7 +5995,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>17.07.2006 (19)</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6044,7 +6044,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>12.02.1998 (27)</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6093,7 +6093,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>06.03.2002 (23)</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -6142,7 +6142,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>02.06.2003 (22)</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6191,7 +6191,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>18.07.2001 (24)</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6240,7 +6240,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>03.06.1999 (26)</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6289,7 +6289,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>18.03.1997 (28)</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6338,7 +6338,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>11.12.2000 (24)</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6387,7 +6387,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>22.06.2000 (25)</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6436,7 +6436,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>03.03.2002 (23)</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6485,7 +6485,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>20.03.1996 (29)</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -6534,7 +6534,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>04.04.2001 (24)</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -6583,7 +6583,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>13.10.1996 (28)</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -6632,7 +6632,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15.02.2000 (25)</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -6681,7 +6681,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>01.05.2007 (18)</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -6730,7 +6730,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25.04.2005 (20)</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -6779,7 +6779,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>22.02.2000 (25)</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6828,7 +6828,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10.05.2004 (21)</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -6877,7 +6877,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>25.09.2006 (19)</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -6926,7 +6926,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>09.01.1998 (27)</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -6975,7 +6975,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>27.11.2004 (20)</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7024,7 +7024,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26.02.2001 (24)</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -7073,7 +7073,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>06.10.1998 (26)</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -7122,7 +7122,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>08.12.2004 (20)</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7171,7 +7171,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>30.11.2006 (18)</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -7220,7 +7220,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>25.03.1998 (27)</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -7269,7 +7269,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>19.07.1996 (29)</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7318,7 +7318,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>16.06.2002 (23)</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -8737,7 +8737,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>02.06.1990 (35)</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -8786,7 +8786,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>28.11.2000 (24)</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -8835,7 +8835,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>09.02.2004 (21)</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -8884,7 +8884,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>18.05.2003 (22)</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -8933,7 +8933,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>25.08.1997 (28)</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -8982,7 +8982,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>14.05.1995 (30)</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -9031,7 +9031,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>25.03.2000 (25)</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -9080,7 +9080,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>29.01.2001 (24)</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -9129,7 +9129,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>29.01.2000 (25)</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -9178,7 +9178,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>19.04.1995 (30)</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -9227,7 +9227,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>03.02.2005 (20)</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -9276,7 +9276,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26.05.2001 (24)</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -9325,7 +9325,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19.01.2005 (20)</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -9374,7 +9374,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21.06.2000 (25)</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -9423,7 +9423,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>22.08.1992 (33)</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -9472,7 +9472,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23.02.2004 (21)</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -9521,7 +9521,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>16.02.2001 (24)</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -9570,7 +9570,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11.08.2004 (21)</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -9619,7 +9619,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>09.01.1995 (30)</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -9668,7 +9668,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>10.06.1998 (27)</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -9717,7 +9717,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>18.06.2003 (22)</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -9766,7 +9766,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>09.04.2004 (21)</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -9815,7 +9815,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>19.06.1991 (34)</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -9864,7 +9864,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>02.03.2006 (19)</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -9913,7 +9913,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25.07.2002 (23)</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -9962,7 +9962,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>08.08.2002 (23)</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -10011,7 +10011,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>15.01.2006 (19)</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -10060,7 +10060,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>05.02.2002 (23)</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -10109,7 +10109,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>11.05.1998 (27)</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -10158,7 +10158,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>13.12.2006 (18)</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -10207,7 +10207,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>23.04.1994 (31)</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -10256,7 +10256,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>03.05.2004 (21)</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -10305,7 +10305,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>01.10.2006 (18)</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -12996,7 +12996,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>13.04.2002 (23)</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
@@ -13045,7 +13045,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>16.04.2004 (21)</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
@@ -13094,7 +13094,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>18.08.1990 (35)</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
@@ -13143,7 +13143,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>14.05.2007 (18)</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>16.03.1998 (27)</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
@@ -13241,7 +13241,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>04.02.1998 (27)</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
@@ -13290,7 +13290,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>14.04.1995 (30)</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
@@ -13339,7 +13339,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>17.01.1998 (27)</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
@@ -13388,7 +13388,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>31.05.2001 (24)</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
@@ -13437,7 +13437,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>23.05.2007 (18)</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
@@ -13486,7 +13486,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>09.09.2007 (18)</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
@@ -13531,11 +13531,11 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27.09.1999 (26)</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
@@ -13584,7 +13584,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>06.04.2000 (25)</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
@@ -13633,7 +13633,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>28.06.2000 (25)</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
@@ -13682,7 +13682,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21.04.1994 (31)</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
@@ -13731,7 +13731,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>07.12.1999 (25)</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
@@ -13780,7 +13780,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>19.02.1999 (26)</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
@@ -13829,7 +13829,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>04.05.2002 (23)</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
@@ -13878,7 +13878,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>08.01.2007 (18)</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
@@ -13925,7 +13925,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>08.11.1996 (28)</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
@@ -13974,7 +13974,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>19.12.1993 (31)</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
@@ -14023,7 +14023,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27.01.2000 (25)</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
@@ -14072,7 +14072,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>18.08.1998 (27)</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
@@ -14121,7 +14121,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>25.06.2007 (18)</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
@@ -14170,7 +14170,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22.08.2004 (21)</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
@@ -14219,7 +14219,7 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>16.01.2004 (21)</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
@@ -14268,7 +14268,7 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>06.07.1998 (27)</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
@@ -14317,7 +14317,7 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>15.11.2000 (24)</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
@@ -14366,7 +14366,7 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23.12.2000 (24)</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
@@ -14415,7 +14415,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25.03.2004 (21)</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
@@ -14464,7 +14464,7 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>22.02.2006 (19)</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
@@ -17247,11 +17247,11 @@
         </is>
       </c>
       <c r="D344" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F344" t="inlineStr">
@@ -18770,7 +18770,7 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>04.08.1992 (33)</t>
         </is>
       </c>
       <c r="F375" t="inlineStr">
@@ -18819,7 +18819,7 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>18.12.1998 (26)</t>
         </is>
       </c>
       <c r="F376" t="inlineStr">
@@ -18868,7 +18868,7 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>16.01.1994 (31)</t>
         </is>
       </c>
       <c r="F377" t="inlineStr">
@@ -18917,7 +18917,7 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>23.01.1999 (26)</t>
         </is>
       </c>
       <c r="F378" t="inlineStr">
@@ -18966,7 +18966,7 @@
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>30.06.1998 (27)</t>
         </is>
       </c>
       <c r="F379" t="inlineStr">
@@ -19015,7 +19015,7 @@
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20.12.2003 (21)</t>
         </is>
       </c>
       <c r="F380" t="inlineStr">
@@ -19064,7 +19064,7 @@
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>09.04.1999 (26)</t>
         </is>
       </c>
       <c r="F381" t="inlineStr">
@@ -19113,7 +19113,7 @@
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18.07.2006 (19)</t>
         </is>
       </c>
       <c r="F382" t="inlineStr">
@@ -19160,7 +19160,7 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>29.10.2004 (20)</t>
         </is>
       </c>
       <c r="F383" t="inlineStr">
@@ -19209,7 +19209,7 @@
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>04.02.1999 (26)</t>
         </is>
       </c>
       <c r="F384" t="inlineStr">
@@ -19258,7 +19258,7 @@
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>07.03.2006 (19)</t>
         </is>
       </c>
       <c r="F385" t="inlineStr">
@@ -19305,7 +19305,7 @@
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>16.08.1995 (30)</t>
         </is>
       </c>
       <c r="F386" t="inlineStr">
@@ -19354,7 +19354,7 @@
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>24.02.1987 (38)</t>
         </is>
       </c>
       <c r="F387" t="inlineStr">
@@ -19403,7 +19403,7 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>02.08.2004 (21)</t>
         </is>
       </c>
       <c r="F388" t="inlineStr">
@@ -19452,7 +19452,7 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>27.01.1994 (31)</t>
         </is>
       </c>
       <c r="F389" t="inlineStr">
@@ -19501,7 +19501,7 @@
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>19.05.1998 (27)</t>
         </is>
       </c>
       <c r="F390" t="inlineStr">
@@ -19550,7 +19550,7 @@
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>13.04.1999 (26)</t>
         </is>
       </c>
       <c r="F391" t="inlineStr">
@@ -19599,7 +19599,7 @@
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>02.04.1994 (31)</t>
         </is>
       </c>
       <c r="F392" t="inlineStr">
@@ -19648,7 +19648,7 @@
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>20.05.1996 (29)</t>
         </is>
       </c>
       <c r="F393" t="inlineStr">
@@ -19697,7 +19697,7 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>20.09.1999 (26)</t>
         </is>
       </c>
       <c r="F394" t="inlineStr">
@@ -19742,11 +19742,11 @@
         </is>
       </c>
       <c r="D395" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>28.09.2004 (21)</t>
         </is>
       </c>
       <c r="F395" t="inlineStr">
@@ -19795,7 +19795,7 @@
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>26.10.2004 (20)</t>
         </is>
       </c>
       <c r="F396" t="inlineStr">
@@ -19844,7 +19844,7 @@
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>08.11.2004 (20)</t>
         </is>
       </c>
       <c r="F397" t="inlineStr">
@@ -19893,7 +19893,7 @@
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>03.04.2000 (25)</t>
         </is>
       </c>
       <c r="F398" t="inlineStr">
@@ -19942,7 +19942,7 @@
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>28.02.2002 (23)</t>
         </is>
       </c>
       <c r="F399" t="inlineStr">
@@ -19991,7 +19991,7 @@
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>07.04.1997 (28)</t>
         </is>
       </c>
       <c r="F400" t="inlineStr">
@@ -20040,7 +20040,7 @@
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>07.09.1996 (29)</t>
         </is>
       </c>
       <c r="F401" t="inlineStr">
@@ -20089,7 +20089,7 @@
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>06.03.2007 (18)</t>
         </is>
       </c>
       <c r="F402" t="inlineStr">
@@ -20138,7 +20138,7 @@
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>12.05.1993 (32)</t>
         </is>
       </c>
       <c r="F403" t="inlineStr">
@@ -20187,7 +20187,7 @@
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>14.04.1999 (26)</t>
         </is>
       </c>
       <c r="F404" t="inlineStr">
@@ -20236,7 +20236,7 @@
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>06.05.2005 (20)</t>
         </is>
       </c>
       <c r="F405" t="inlineStr">
@@ -20285,7 +20285,7 @@
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>22.11.1998 (26)</t>
         </is>
       </c>
       <c r="F406" t="inlineStr">
@@ -20334,7 +20334,7 @@
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13.09.2004 (21)</t>
         </is>
       </c>
       <c r="F407" t="inlineStr">
@@ -20383,7 +20383,7 @@
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24.01.2003 (22)</t>
         </is>
       </c>
       <c r="F408" t="inlineStr">
@@ -20432,7 +20432,7 @@
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>23.09.1991 (34)</t>
         </is>
       </c>
       <c r="F409" t="inlineStr">
@@ -20481,7 +20481,7 @@
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>23.04.1998 (27)</t>
         </is>
       </c>
       <c r="F410" t="inlineStr">
@@ -20530,7 +20530,7 @@
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>23.01.1997 (28)</t>
         </is>
       </c>
       <c r="F411" t="inlineStr">
@@ -20579,7 +20579,7 @@
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>21.08.1995 (30)</t>
         </is>
       </c>
       <c r="F412" t="inlineStr">
@@ -20628,7 +20628,7 @@
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>01.10.2007 (17)</t>
         </is>
       </c>
       <c r="F413" t="inlineStr">
@@ -20677,7 +20677,7 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>29.05.1998 (27)</t>
         </is>
       </c>
       <c r="F414" t="inlineStr">
@@ -20726,7 +20726,7 @@
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>23.06.2007 (18)</t>
         </is>
       </c>
       <c r="F415" t="inlineStr">
@@ -20775,7 +20775,7 @@
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>27.10.1997 (27)</t>
         </is>
       </c>
       <c r="F416" t="inlineStr">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>16.06.2006 (19)</t>
         </is>
       </c>
       <c r="F417" t="inlineStr">
@@ -20873,7 +20873,7 @@
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>06.09.1995 (30)</t>
         </is>
       </c>
       <c r="F418" t="inlineStr">
@@ -20922,7 +20922,7 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>16.02.2006 (19)</t>
         </is>
       </c>
       <c r="F419" t="inlineStr">
@@ -20971,7 +20971,7 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28.04.1998 (27)</t>
         </is>
       </c>
       <c r="F420" t="inlineStr">
@@ -21020,7 +21020,7 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>28.10.2004 (20)</t>
         </is>
       </c>
       <c r="F421" t="inlineStr">
@@ -21069,7 +21069,7 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>26.03.1997 (28)</t>
         </is>
       </c>
       <c r="F422" t="inlineStr">
@@ -21118,7 +21118,7 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>01.07.1999 (26)</t>
         </is>
       </c>
       <c r="F423" t="inlineStr">
@@ -21167,7 +21167,7 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>29.04.2007 (18)</t>
         </is>
       </c>
       <c r="F424" t="inlineStr">
@@ -21216,7 +21216,7 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21.04.2006 (19)</t>
         </is>
       </c>
       <c r="F425" t="inlineStr">
@@ -21265,7 +21265,7 @@
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>25.03.1995 (30)</t>
         </is>
       </c>
       <c r="F426" t="inlineStr">
@@ -21310,11 +21310,11 @@
         </is>
       </c>
       <c r="D427" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>28.09.2007 (18)</t>
         </is>
       </c>
       <c r="F427" t="inlineStr">
@@ -21361,7 +21361,7 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>28.03.2006 (19)</t>
         </is>
       </c>
       <c r="F428" t="inlineStr">
@@ -21408,7 +21408,7 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>27.11.1995 (29)</t>
         </is>
       </c>
       <c r="F429" t="inlineStr">
@@ -21457,7 +21457,7 @@
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>06.07.2000 (25)</t>
         </is>
       </c>
       <c r="F430" t="inlineStr">
@@ -21506,7 +21506,7 @@
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>30.03.1993 (32)</t>
         </is>
       </c>
       <c r="F431" t="inlineStr">
@@ -21555,7 +21555,7 @@
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>30.08.2002 (23)</t>
         </is>
       </c>
       <c r="F432" t="inlineStr">
@@ -25420,11 +25420,11 @@
         </is>
       </c>
       <c r="D511" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E511" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F511" t="inlineStr">
@@ -25963,7 +25963,7 @@
       </c>
       <c r="E522" t="inlineStr">
         <is>
-          <t>02.12.1995 (29)</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F522" t="inlineStr">
@@ -26012,7 +26012,7 @@
       </c>
       <c r="E523" t="inlineStr">
         <is>
-          <t>09.12.2000 (24)</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F523" t="inlineStr">
@@ -26061,7 +26061,7 @@
       </c>
       <c r="E524" t="inlineStr">
         <is>
-          <t>16.06.2002 (23)</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F524" t="inlineStr">
@@ -26110,7 +26110,7 @@
       </c>
       <c r="E525" t="inlineStr">
         <is>
-          <t>08.01.1997 (28)</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F525" t="inlineStr">
@@ -26159,7 +26159,7 @@
       </c>
       <c r="E526" t="inlineStr">
         <is>
-          <t>18.03.2001 (24)</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F526" t="inlineStr">
@@ -26208,7 +26208,7 @@
       </c>
       <c r="E527" t="inlineStr">
         <is>
-          <t>15.04.1994 (31)</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F527" t="inlineStr">
@@ -26257,7 +26257,7 @@
       </c>
       <c r="E528" t="inlineStr">
         <is>
-          <t>16.05.1993 (32)</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F528" t="inlineStr">
@@ -26306,7 +26306,7 @@
       </c>
       <c r="E529" t="inlineStr">
         <is>
-          <t>25.09.1995 (30)</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F529" t="inlineStr">
@@ -26355,7 +26355,7 @@
       </c>
       <c r="E530" t="inlineStr">
         <is>
-          <t>28.12.2004 (20)</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F530" t="inlineStr">
@@ -26404,7 +26404,7 @@
       </c>
       <c r="E531" t="inlineStr">
         <is>
-          <t>07.05.1998 (27)</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F531" t="inlineStr">
@@ -26453,7 +26453,7 @@
       </c>
       <c r="E532" t="inlineStr">
         <is>
-          <t>17.05.2002 (23)</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F532" t="inlineStr">
@@ -26502,7 +26502,7 @@
       </c>
       <c r="E533" t="inlineStr">
         <is>
-          <t>12.09.1996 (29)</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F533" t="inlineStr">
@@ -26551,7 +26551,7 @@
       </c>
       <c r="E534" t="inlineStr">
         <is>
-          <t>20.09.2002 (23)</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F534" t="inlineStr">
@@ -26600,7 +26600,7 @@
       </c>
       <c r="E535" t="inlineStr">
         <is>
-          <t>10.04.2003 (22)</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F535" t="inlineStr">
@@ -26649,7 +26649,7 @@
       </c>
       <c r="E536" t="inlineStr">
         <is>
-          <t>06.07.2000 (25)</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F536" t="inlineStr">
@@ -26698,7 +26698,7 @@
       </c>
       <c r="E537" t="inlineStr">
         <is>
-          <t>07.01.2007 (18)</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F537" t="inlineStr">
@@ -26747,7 +26747,7 @@
       </c>
       <c r="E538" t="inlineStr">
         <is>
-          <t>16.02.2002 (23)</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F538" t="inlineStr">
@@ -26796,7 +26796,7 @@
       </c>
       <c r="E539" t="inlineStr">
         <is>
-          <t>05.11.1999 (25)</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F539" t="inlineStr">
@@ -26845,7 +26845,7 @@
       </c>
       <c r="E540" t="inlineStr">
         <is>
-          <t>07.03.1993 (32)</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F540" t="inlineStr">
@@ -26894,7 +26894,7 @@
       </c>
       <c r="E541" t="inlineStr">
         <is>
-          <t>14.10.2001 (23)</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F541" t="inlineStr">
@@ -26943,7 +26943,7 @@
       </c>
       <c r="E542" t="inlineStr">
         <is>
-          <t>12.09.2007 (18)</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F542" t="inlineStr">
@@ -26992,7 +26992,7 @@
       </c>
       <c r="E543" t="inlineStr">
         <is>
-          <t>05.04.1997 (28)</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F543" t="inlineStr">
@@ -27041,7 +27041,7 @@
       </c>
       <c r="E544" t="inlineStr">
         <is>
-          <t>30.11.1996 (28)</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F544" t="inlineStr">
@@ -27090,7 +27090,7 @@
       </c>
       <c r="E545" t="inlineStr">
         <is>
-          <t>22.06.2004 (21)</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F545" t="inlineStr">
@@ -27139,7 +27139,7 @@
       </c>
       <c r="E546" t="inlineStr">
         <is>
-          <t>11.09.1997 (28)</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F546" t="inlineStr">
@@ -27188,7 +27188,7 @@
       </c>
       <c r="E547" t="inlineStr">
         <is>
-          <t>05.03.1999 (26)</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F547" t="inlineStr">
@@ -27237,7 +27237,7 @@
       </c>
       <c r="E548" t="inlineStr">
         <is>
-          <t>11.07.2002 (23)</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F548" t="inlineStr">
@@ -27286,7 +27286,7 @@
       </c>
       <c r="E549" t="inlineStr">
         <is>
-          <t>08.11.2002 (22)</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F549" t="inlineStr">
@@ -27335,7 +27335,7 @@
       </c>
       <c r="E550" t="inlineStr">
         <is>
-          <t>05.01.2004 (21)</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F550" t="inlineStr">

--- a/data/bundesliga_squads_hybrid.xlsx
+++ b/data/bundesliga_squads_hybrid.xlsx
@@ -1375,38 +1375,38 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Lennart Karl</t>
+          <t>Luis Díaz</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Attacking Midfield</t>
+          <t>Left Winger</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1500000</v>
+        <v>70000000</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>€1.50m</t>
+          <t>€70.00m</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1424,7 +1424,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Luis Díaz</t>
+          <t>Serge Gnabry</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1434,28 +1434,28 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Germany, Cote d'Ivoire</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>70000000</v>
+        <v>22000000</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>€70.00m</t>
+          <t>€22.00m</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1473,7 +1473,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Serge Gnabry</t>
+          <t>Wisdom Mike</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1483,28 +1483,28 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Germany, Cote d'Ivoire</t>
+          <t>Germany, Nigeria</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>22000000</v>
+        <v>1500000</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>€22.00m</t>
+          <t>€1.50m</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1522,36 +1522,38 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Wisdom Mike</t>
+          <t>Michael Olise</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Left Winger</t>
+          <t>Right Winger</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Germany, Nigeria</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr"/>
+          <t>France, England</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>100000000</v>
+      </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>€100.00m</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1569,7 +1571,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Michael Olise</t>
+          <t>Lennart Karl</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1579,28 +1581,28 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>17</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="D24" t="n">
-        <v>23</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>France, England</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>100000000</v>
+        <v>1500000</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>€100.00m</t>
+          <t>€1.50m</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -4380,7 +4382,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>26/02/2002 (23)</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4429,7 +4431,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>06/05/1990 (35)</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4478,7 +4480,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>10/04/1994 (31)</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4527,7 +4529,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>17/12/2002 (22)</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4576,7 +4578,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16/05/2005 (20)</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4625,7 +4627,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>03/11/1992 (32)</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4674,7 +4676,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>03/06/1996 (29)</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4723,7 +4725,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>22/04/1998 (27)</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4772,7 +4774,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>27/03/2004 (21)</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4821,7 +4823,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>23/02/1997 (28)</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -4870,7 +4872,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>16/12/2005 (19)</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -4919,7 +4921,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>08/04/1998 (27)</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -4968,7 +4970,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>04/05/2001 (24)</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5017,7 +5019,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>31/01/1998 (27)</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -5066,7 +5068,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16/02/2005 (20)</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -5115,7 +5117,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>28/09/1997 (28)</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5164,7 +5166,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>09/05/2006 (19)</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5213,7 +5215,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>09/10/1990 (34)</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5262,7 +5264,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>24/01/2007 (18)</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5309,7 +5311,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>05/06/2007 (18)</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5358,7 +5360,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>01/08/1999 (26)</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5407,7 +5409,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>22/11/2007 (17)</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5456,7 +5458,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>17/04/2005 (20)</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5505,7 +5507,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>06/03/1996 (29)</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5554,7 +5556,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>08/08/2006 (19)</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5603,7 +5605,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>14/11/2006 (18)</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5652,7 +5654,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>20/04/2003 (22)</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5701,7 +5703,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>07/04/2005 (20)</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5750,7 +5752,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>08/02/2002 (23)</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5795,11 +5797,11 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>30.09.1996 (28)</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -5848,7 +5850,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>02.03.1995 (30)</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -5897,7 +5899,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>18.10.2007 (17)</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -5946,7 +5948,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>20.04.1999 (26)</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -5995,7 +5997,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>17.07.2006 (19)</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6044,7 +6046,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>12.02.1998 (27)</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6093,7 +6095,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>06.03.2002 (23)</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -6142,7 +6144,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>02.06.2003 (22)</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6191,7 +6193,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>18.07.2001 (24)</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6240,7 +6242,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>03.06.1999 (26)</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6289,7 +6291,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>18.03.1997 (28)</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6338,7 +6340,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>11.12.2000 (24)</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6387,7 +6389,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>22.06.2000 (25)</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6436,7 +6438,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>03.03.2002 (23)</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6485,7 +6487,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>20.03.1996 (29)</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -6534,7 +6536,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>04.04.2001 (24)</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -6583,7 +6585,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>13.10.1996 (28)</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -6632,7 +6634,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>15.02.2000 (25)</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -6681,7 +6683,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>01.05.2007 (18)</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -6730,7 +6732,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>25.04.2005 (20)</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -6779,7 +6781,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>22.02.2000 (25)</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6828,7 +6830,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>10.05.2004 (21)</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -6877,7 +6879,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>25.09.2006 (19)</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -6926,7 +6928,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>09.01.1998 (27)</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -6975,7 +6977,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>27.11.2004 (20)</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7024,7 +7026,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>26.02.2001 (24)</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -7073,7 +7075,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>06.10.1998 (26)</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -7122,7 +7124,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>08.12.2004 (20)</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7171,7 +7173,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>30.11.2006 (18)</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -7220,7 +7222,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>25.03.1998 (27)</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -7269,7 +7271,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>19.07.1996 (29)</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7318,7 +7320,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>16.06.2002 (23)</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -8737,7 +8739,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>02.06.1990 (35)</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -8786,7 +8788,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>28.11.2000 (24)</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -8835,7 +8837,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>09.02.2004 (21)</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -8884,12 +8886,12 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>18.05.2003 (22)</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Switzerland, Kosovo</t>
+          <t>Kosovo, Switzerland</t>
         </is>
       </c>
       <c r="G173" t="n">
@@ -8933,7 +8935,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>25.08.1997 (28)</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -8982,7 +8984,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>14.05.1995 (30)</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -9031,7 +9033,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>25.03.2000 (25)</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -9080,7 +9082,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>29.01.2001 (24)</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -9129,7 +9131,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>29.01.2000 (25)</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -9178,7 +9180,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>19.04.1995 (30)</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -9227,7 +9229,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>03.02.2005 (20)</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -9276,7 +9278,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>26.05.2001 (24)</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -9325,7 +9327,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>19.01.2005 (20)</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -9374,7 +9376,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>21.06.2000 (25)</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -9423,7 +9425,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>22.08.1992 (33)</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -9472,7 +9474,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>23.02.2004 (21)</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -9521,7 +9523,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>16.02.2001 (24)</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -9570,7 +9572,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>11.08.2004 (21)</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -9619,7 +9621,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>09.01.1995 (30)</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -9668,7 +9670,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>10.06.1998 (27)</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -9717,7 +9719,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>18.06.2003 (22)</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -9766,7 +9768,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>09.04.2004 (21)</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -9815,7 +9817,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>19.06.1991 (34)</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -9864,7 +9866,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>02.03.2006 (19)</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -9913,7 +9915,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>25.07.2002 (23)</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -9962,7 +9964,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>08.08.2002 (23)</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -10011,7 +10013,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>15.01.2006 (19)</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -10060,7 +10062,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>05.02.2002 (23)</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -10109,7 +10111,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>11.05.1998 (27)</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -10158,7 +10160,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>13.12.2006 (18)</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -10207,7 +10209,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>23.04.1994 (31)</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -10256,7 +10258,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>03.05.2004 (21)</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -10301,11 +10303,11 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>01.10.2006 (18)</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -12996,7 +12998,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>13.04.2002 (23)</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
@@ -13045,7 +13047,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>16.04.2004 (21)</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
@@ -13094,7 +13096,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>18.08.1990 (35)</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
@@ -13143,7 +13145,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>14.05.2007 (18)</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
@@ -13192,7 +13194,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>16.03.1998 (27)</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
@@ -13241,7 +13243,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>04.02.1998 (27)</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
@@ -13290,7 +13292,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>14.04.1995 (30)</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
@@ -13339,7 +13341,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>17.01.1998 (27)</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
@@ -13388,7 +13390,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>31.05.2001 (24)</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
@@ -13437,7 +13439,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>23.05.2007 (18)</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
@@ -13486,7 +13488,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>09.09.2007 (18)</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
@@ -13535,7 +13537,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>27.09.1999 (26)</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
@@ -13584,7 +13586,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>06.04.2000 (25)</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
@@ -13633,7 +13635,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>28.06.2000 (25)</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
@@ -13682,7 +13684,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>21.04.1994 (31)</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
@@ -13731,7 +13733,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>07.12.1999 (25)</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
@@ -13780,7 +13782,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>19.02.1999 (26)</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
@@ -13829,7 +13831,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>04.05.2002 (23)</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
@@ -13878,7 +13880,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>08.01.2007 (18)</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
@@ -13925,7 +13927,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>08.11.1996 (28)</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
@@ -13974,7 +13976,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>19.12.1993 (31)</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
@@ -14023,7 +14025,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>27.01.2000 (25)</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
@@ -14072,7 +14074,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>18.08.1998 (27)</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
@@ -14121,7 +14123,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>25.06.2007 (18)</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
@@ -14170,7 +14172,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>22.08.2004 (21)</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
@@ -14219,7 +14221,7 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>16.01.2004 (21)</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
@@ -14268,7 +14270,7 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>06.07.1998 (27)</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
@@ -14317,7 +14319,7 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>15.11.2000 (24)</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
@@ -14366,7 +14368,7 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>23.12.2000 (24)</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
@@ -14415,7 +14417,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>25.03.2004 (21)</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
@@ -14464,7 +14466,7 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>22.02.2006 (19)</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
@@ -14511,7 +14513,7 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>21/10/1997 (27)</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
@@ -14560,7 +14562,7 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>10/01/1994 (31)</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
@@ -14609,7 +14611,7 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>07/04/2006 (19)</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
@@ -14658,7 +14660,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>22/03/1988 (37)</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
@@ -14703,11 +14705,11 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>30/09/1996 (29)</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
@@ -14756,7 +14758,7 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>06/10/1996 (28)</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
@@ -14805,7 +14807,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>13/12/1995 (29)</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
@@ -14854,7 +14856,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>05/06/2005 (20)</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
@@ -14903,7 +14905,7 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>16/03/2004 (21)</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
@@ -14952,7 +14954,7 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>15/05/2003 (22)</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
@@ -15001,7 +15003,7 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>31/12/2002 (22)</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
@@ -15050,7 +15052,7 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>07/02/2001 (24)</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
@@ -15099,7 +15101,7 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>05/01/2007 (18)</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
@@ -15148,7 +15150,7 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>29/05/2002 (23)</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
@@ -15197,7 +15199,7 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>29/07/2003 (22)</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
@@ -15246,7 +15248,7 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>21/02/1998 (27)</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
@@ -15295,7 +15297,7 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>16/03/1997 (28)</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
@@ -15344,7 +15346,7 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>06/12/2003 (21)</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
@@ -15393,7 +15395,7 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>13/11/2002 (22)</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
@@ -15442,7 +15444,7 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>27/08/1993 (32)</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
@@ -15491,7 +15493,7 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>31/12/2008 (16)</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
@@ -15538,7 +15540,7 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>27/08/1998 (27)</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
@@ -15587,7 +15589,7 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>11/08/1996 (29)</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
@@ -15636,7 +15638,7 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>14/03/2000 (25)</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
@@ -15685,7 +15687,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21/01/2006 (19)</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
@@ -15734,7 +15736,7 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31/08/1995 (30)</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
@@ -15779,11 +15781,11 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>30/09/1999 (26)</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
@@ -15832,7 +15834,7 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>20/06/1994 (31)</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
@@ -15881,7 +15883,7 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>20/07/2003 (22)</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
@@ -17349,7 +17351,7 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>27/03/1998 (27)</t>
         </is>
       </c>
       <c r="F346" t="inlineStr">
@@ -17398,7 +17400,7 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10/10/1999 (25)</t>
         </is>
       </c>
       <c r="F347" t="inlineStr">
@@ -17447,7 +17449,7 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>13/03/2001 (24)</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
@@ -17496,7 +17498,7 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>15/05/2002 (23)</t>
         </is>
       </c>
       <c r="F349" t="inlineStr">
@@ -17545,7 +17547,7 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>24/06/1998 (27)</t>
         </is>
       </c>
       <c r="F350" t="inlineStr">
@@ -17594,7 +17596,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>28/04/1997 (28)</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
@@ -17643,7 +17645,7 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>01/12/2006 (18)</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
@@ -17692,7 +17694,7 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>09/02/2000 (25)</t>
         </is>
       </c>
       <c r="F353" t="inlineStr">
@@ -17741,7 +17743,7 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>10/07/1991 (34)</t>
         </is>
       </c>
       <c r="F354" t="inlineStr">
@@ -17790,7 +17792,7 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>16/01/2007 (18)</t>
         </is>
       </c>
       <c r="F355" t="inlineStr">
@@ -17839,7 +17841,7 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>17/10/1995 (29)</t>
         </is>
       </c>
       <c r="F356" t="inlineStr">
@@ -17888,7 +17890,7 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>01/09/1996 (29)</t>
         </is>
       </c>
       <c r="F357" t="inlineStr">
@@ -17937,7 +17939,7 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>31/07/2007 (18)</t>
         </is>
       </c>
       <c r="F358" t="inlineStr">
@@ -17986,7 +17988,7 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>27/05/1995 (30)</t>
         </is>
       </c>
       <c r="F359" t="inlineStr">
@@ -18035,7 +18037,7 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>14/05/1997 (28)</t>
         </is>
       </c>
       <c r="F360" t="inlineStr">
@@ -18084,7 +18086,7 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>21/01/1998 (27)</t>
         </is>
       </c>
       <c r="F361" t="inlineStr">
@@ -18133,7 +18135,7 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>07/04/2004 (21)</t>
         </is>
       </c>
       <c r="F362" t="inlineStr">
@@ -18182,7 +18184,7 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>07/07/2001 (24)</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
@@ -18231,7 +18233,7 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>08/01/1999 (26)</t>
         </is>
       </c>
       <c r="F364" t="inlineStr">
@@ -18280,7 +18282,7 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>01/11/1997 (27)</t>
         </is>
       </c>
       <c r="F365" t="inlineStr">
@@ -18329,7 +18331,7 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>17/01/2004 (21)</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
@@ -18378,7 +18380,7 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>06/06/1998 (27)</t>
         </is>
       </c>
       <c r="F367" t="inlineStr">
@@ -18427,7 +18429,7 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>16/02/2002 (23)</t>
         </is>
       </c>
       <c r="F368" t="inlineStr">
@@ -18476,7 +18478,7 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>17/07/2005 (20)</t>
         </is>
       </c>
       <c r="F369" t="inlineStr">
@@ -18525,7 +18527,7 @@
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10/04/2004 (21)</t>
         </is>
       </c>
       <c r="F370" t="inlineStr">
@@ -18574,7 +18576,7 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27/12/1999 (25)</t>
         </is>
       </c>
       <c r="F371" t="inlineStr">
@@ -18623,7 +18625,7 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21/03/2005 (20)</t>
         </is>
       </c>
       <c r="F372" t="inlineStr">
@@ -18672,7 +18674,7 @@
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>09/07/1997 (28)</t>
         </is>
       </c>
       <c r="F373" t="inlineStr">
@@ -18721,7 +18723,7 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>23/01/1998 (27)</t>
         </is>
       </c>
       <c r="F374" t="inlineStr">
@@ -18770,7 +18772,7 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>04.08.1992 (33)</t>
+          <t>04/08/1992 (33)</t>
         </is>
       </c>
       <c r="F375" t="inlineStr">
@@ -18819,7 +18821,7 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>18.12.1998 (26)</t>
+          <t>18/12/1998 (26)</t>
         </is>
       </c>
       <c r="F376" t="inlineStr">
@@ -18868,7 +18870,7 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>16.01.1994 (31)</t>
+          <t>16/01/1994 (31)</t>
         </is>
       </c>
       <c r="F377" t="inlineStr">
@@ -18917,7 +18919,7 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>23.01.1999 (26)</t>
+          <t>23/01/1999 (26)</t>
         </is>
       </c>
       <c r="F378" t="inlineStr">
@@ -18966,7 +18968,7 @@
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>30.06.1998 (27)</t>
+          <t>30/06/1998 (27)</t>
         </is>
       </c>
       <c r="F379" t="inlineStr">
@@ -19015,7 +19017,7 @@
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>20.12.2003 (21)</t>
+          <t>20/12/2003 (21)</t>
         </is>
       </c>
       <c r="F380" t="inlineStr">
@@ -19064,7 +19066,7 @@
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>09.04.1999 (26)</t>
+          <t>09/04/1999 (26)</t>
         </is>
       </c>
       <c r="F381" t="inlineStr">
@@ -19113,7 +19115,7 @@
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>18.07.2006 (19)</t>
+          <t>18/07/2006 (19)</t>
         </is>
       </c>
       <c r="F382" t="inlineStr">
@@ -19160,7 +19162,7 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>29.10.2004 (20)</t>
+          <t>29/10/2004 (20)</t>
         </is>
       </c>
       <c r="F383" t="inlineStr">
@@ -19209,7 +19211,7 @@
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>04.02.1999 (26)</t>
+          <t>04/02/1999 (26)</t>
         </is>
       </c>
       <c r="F384" t="inlineStr">
@@ -19258,7 +19260,7 @@
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>07.03.2006 (19)</t>
+          <t>07/03/2006 (19)</t>
         </is>
       </c>
       <c r="F385" t="inlineStr">
@@ -19305,7 +19307,7 @@
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>16.08.1995 (30)</t>
+          <t>16/08/1995 (30)</t>
         </is>
       </c>
       <c r="F386" t="inlineStr">
@@ -19354,7 +19356,7 @@
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>24.02.1987 (38)</t>
+          <t>24/02/1987 (38)</t>
         </is>
       </c>
       <c r="F387" t="inlineStr">
@@ -19403,7 +19405,7 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>02.08.2004 (21)</t>
+          <t>02/08/2004 (21)</t>
         </is>
       </c>
       <c r="F388" t="inlineStr">
@@ -19452,7 +19454,7 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>27.01.1994 (31)</t>
+          <t>27/01/1994 (31)</t>
         </is>
       </c>
       <c r="F389" t="inlineStr">
@@ -19501,7 +19503,7 @@
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>19.05.1998 (27)</t>
+          <t>19/05/1998 (27)</t>
         </is>
       </c>
       <c r="F390" t="inlineStr">
@@ -19550,7 +19552,7 @@
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>13.04.1999 (26)</t>
+          <t>13/04/1999 (26)</t>
         </is>
       </c>
       <c r="F391" t="inlineStr">
@@ -19599,7 +19601,7 @@
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>02.04.1994 (31)</t>
+          <t>02/04/1994 (31)</t>
         </is>
       </c>
       <c r="F392" t="inlineStr">
@@ -19648,7 +19650,7 @@
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>20.05.1996 (29)</t>
+          <t>20/05/1996 (29)</t>
         </is>
       </c>
       <c r="F393" t="inlineStr">
@@ -19697,7 +19699,7 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>20.09.1999 (26)</t>
+          <t>20/09/1999 (26)</t>
         </is>
       </c>
       <c r="F394" t="inlineStr">
@@ -19746,7 +19748,7 @@
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>28.09.2004 (21)</t>
+          <t>28/09/2004 (21)</t>
         </is>
       </c>
       <c r="F395" t="inlineStr">
@@ -19795,7 +19797,7 @@
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>26.10.2004 (20)</t>
+          <t>26/10/2004 (20)</t>
         </is>
       </c>
       <c r="F396" t="inlineStr">
@@ -19844,7 +19846,7 @@
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>08.11.2004 (20)</t>
+          <t>08/11/2004 (20)</t>
         </is>
       </c>
       <c r="F397" t="inlineStr">
@@ -19893,7 +19895,7 @@
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>03.04.2000 (25)</t>
+          <t>03/04/2000 (25)</t>
         </is>
       </c>
       <c r="F398" t="inlineStr">
@@ -19942,7 +19944,7 @@
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>28.02.2002 (23)</t>
+          <t>28/02/2002 (23)</t>
         </is>
       </c>
       <c r="F399" t="inlineStr">
@@ -19991,7 +19993,7 @@
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>07.04.1997 (28)</t>
+          <t>07/04/1997 (28)</t>
         </is>
       </c>
       <c r="F400" t="inlineStr">
@@ -20040,7 +20042,7 @@
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>07.09.1996 (29)</t>
+          <t>07/09/1996 (29)</t>
         </is>
       </c>
       <c r="F401" t="inlineStr">
@@ -20089,7 +20091,7 @@
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>06.03.2007 (18)</t>
+          <t>06/03/2007 (18)</t>
         </is>
       </c>
       <c r="F402" t="inlineStr">
@@ -20138,7 +20140,7 @@
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>12.05.1993 (32)</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F403" t="inlineStr">
@@ -20187,7 +20189,7 @@
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>14.04.1999 (26)</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F404" t="inlineStr">
@@ -20236,7 +20238,7 @@
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>06.05.2005 (20)</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F405" t="inlineStr">
@@ -20285,7 +20287,7 @@
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>22.11.1998 (26)</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F406" t="inlineStr">
@@ -20334,7 +20336,7 @@
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>13.09.2004 (21)</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F407" t="inlineStr">
@@ -20383,7 +20385,7 @@
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>24.01.2003 (22)</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F408" t="inlineStr">
@@ -20432,7 +20434,7 @@
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>23.09.1991 (34)</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F409" t="inlineStr">
@@ -20481,7 +20483,7 @@
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>23.04.1998 (27)</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F410" t="inlineStr">
@@ -20530,7 +20532,7 @@
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>23.01.1997 (28)</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F411" t="inlineStr">
@@ -20579,7 +20581,7 @@
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>21.08.1995 (30)</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F412" t="inlineStr">
@@ -20624,11 +20626,11 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>01.10.2007 (17)</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F413" t="inlineStr">
@@ -20677,7 +20679,7 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>29.05.1998 (27)</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F414" t="inlineStr">
@@ -20726,7 +20728,7 @@
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>23.06.2007 (18)</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F415" t="inlineStr">
@@ -20775,7 +20777,7 @@
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>27.10.1997 (27)</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F416" t="inlineStr">
@@ -20824,7 +20826,7 @@
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>16.06.2006 (19)</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F417" t="inlineStr">
@@ -20873,7 +20875,7 @@
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>06.09.1995 (30)</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F418" t="inlineStr">
@@ -20922,7 +20924,7 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>16.02.2006 (19)</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F419" t="inlineStr">
@@ -20971,7 +20973,7 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>28.04.1998 (27)</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F420" t="inlineStr">
@@ -21020,7 +21022,7 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>28.10.2004 (20)</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F421" t="inlineStr">
@@ -21069,7 +21071,7 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>26.03.1997 (28)</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F422" t="inlineStr">
@@ -21118,7 +21120,7 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>01.07.1999 (26)</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F423" t="inlineStr">
@@ -21167,7 +21169,7 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>29.04.2007 (18)</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F424" t="inlineStr">
@@ -21216,7 +21218,7 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>21.04.2006 (19)</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F425" t="inlineStr">
@@ -21265,7 +21267,7 @@
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>25.03.1995 (30)</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F426" t="inlineStr">
@@ -21314,7 +21316,7 @@
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>28.09.2007 (18)</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F427" t="inlineStr">
@@ -21361,7 +21363,7 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>28.03.2006 (19)</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F428" t="inlineStr">
@@ -21408,7 +21410,7 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>27.11.1995 (29)</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F429" t="inlineStr">
@@ -21457,7 +21459,7 @@
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>06.07.2000 (25)</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F430" t="inlineStr">
@@ -21506,7 +21508,7 @@
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>30.03.1993 (32)</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F431" t="inlineStr">
@@ -21555,7 +21557,7 @@
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>30.08.2002 (23)</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F432" t="inlineStr">
@@ -21604,7 +21606,7 @@
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>25/04/1995 (30)</t>
         </is>
       </c>
       <c r="F433" t="inlineStr">
@@ -21653,7 +21655,7 @@
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>12/02/1989 (36)</t>
         </is>
       </c>
       <c r="F434" t="inlineStr">
@@ -21702,7 +21704,7 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>28/05/1997 (28)</t>
         </is>
       </c>
       <c r="F435" t="inlineStr">
@@ -21751,7 +21753,7 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>07/07/2004 (21)</t>
         </is>
       </c>
       <c r="F436" t="inlineStr">
@@ -21800,7 +21802,7 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>20/07/1996 (29)</t>
         </is>
       </c>
       <c r="F437" t="inlineStr">
@@ -21849,7 +21851,7 @@
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>23/09/1998 (27)</t>
         </is>
       </c>
       <c r="F438" t="inlineStr">
@@ -21898,7 +21900,7 @@
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>06/10/2000 (24)</t>
         </is>
       </c>
       <c r="F439" t="inlineStr">
@@ -21947,7 +21949,7 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>15/08/1993 (32)</t>
         </is>
       </c>
       <c r="F440" t="inlineStr">
@@ -21996,7 +21998,7 @@
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>01/09/1999 (26)</t>
         </is>
       </c>
       <c r="F441" t="inlineStr">
@@ -22045,7 +22047,7 @@
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>24/04/2005 (20)</t>
         </is>
       </c>
       <c r="F442" t="inlineStr">
@@ -22094,7 +22096,7 @@
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>14/05/2002 (23)</t>
         </is>
       </c>
       <c r="F443" t="inlineStr">
@@ -22143,7 +22145,7 @@
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>11/03/2000 (25)</t>
         </is>
       </c>
       <c r="F444" t="inlineStr">
@@ -22192,7 +22194,7 @@
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27/01/2000 (25)</t>
         </is>
       </c>
       <c r="F445" t="inlineStr">
@@ -22241,7 +22243,7 @@
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>29/04/2002 (23)</t>
         </is>
       </c>
       <c r="F446" t="inlineStr">
@@ -22290,7 +22292,7 @@
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>15/01/2006 (19)</t>
         </is>
       </c>
       <c r="F447" t="inlineStr">
@@ -22339,7 +22341,7 @@
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23/03/2003 (22)</t>
         </is>
       </c>
       <c r="F448" t="inlineStr">
@@ -22388,7 +22390,7 @@
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22/06/2001 (24)</t>
         </is>
       </c>
       <c r="F449" t="inlineStr">
@@ -22437,7 +22439,7 @@
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>03/07/2001 (24)</t>
         </is>
       </c>
       <c r="F450" t="inlineStr">
@@ -22482,11 +22484,11 @@
         </is>
       </c>
       <c r="D451" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>29/09/2004 (21)</t>
         </is>
       </c>
       <c r="F451" t="inlineStr">
@@ -22535,7 +22537,7 @@
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>17/05/1997 (28)</t>
         </is>
       </c>
       <c r="F452" t="inlineStr">
@@ -22584,7 +22586,7 @@
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>24/10/1992 (32)</t>
         </is>
       </c>
       <c r="F453" t="inlineStr">
@@ -22633,7 +22635,7 @@
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>05/06/2002 (23)</t>
         </is>
       </c>
       <c r="F454" t="inlineStr">
@@ -22682,7 +22684,7 @@
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>23/06/1999 (26)</t>
         </is>
       </c>
       <c r="F455" t="inlineStr">
@@ -22731,7 +22733,7 @@
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>26/08/2006 (19)</t>
         </is>
       </c>
       <c r="F456" t="inlineStr">
@@ -22780,7 +22782,7 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>29/03/1993 (32)</t>
         </is>
       </c>
       <c r="F457" t="inlineStr">
@@ -22829,7 +22831,7 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>26/05/2002 (23)</t>
         </is>
       </c>
       <c r="F458" t="inlineStr">
@@ -22878,7 +22880,7 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28/07/1998 (27)</t>
         </is>
       </c>
       <c r="F459" t="inlineStr">
@@ -22927,7 +22929,7 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>19/05/1996 (29)</t>
         </is>
       </c>
       <c r="F460" t="inlineStr">
@@ -22976,7 +22978,7 @@
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>02/04/2005 (20)</t>
         </is>
       </c>
       <c r="F461" t="inlineStr">
@@ -23025,7 +23027,7 @@
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>28/10/1994 (30)</t>
         </is>
       </c>
       <c r="F462" t="inlineStr">
@@ -23074,7 +23076,7 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>27/07/2001 (24)</t>
         </is>
       </c>
       <c r="F463" t="inlineStr">
@@ -23123,7 +23125,7 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>12/01/1991 (34)</t>
         </is>
       </c>
       <c r="F464" t="inlineStr">
@@ -23172,7 +23174,7 @@
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>17/01/1997 (28)</t>
         </is>
       </c>
       <c r="F465" t="inlineStr">
@@ -23221,7 +23223,7 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>31/01/1994 (31)</t>
         </is>
       </c>
       <c r="F466" t="inlineStr">
@@ -23270,7 +23272,7 @@
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>18/05/1998 (27)</t>
         </is>
       </c>
       <c r="F467" t="inlineStr">
@@ -23319,7 +23321,7 @@
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>13/07/1993 (32)</t>
         </is>
       </c>
       <c r="F468" t="inlineStr">
@@ -23368,7 +23370,7 @@
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>24/08/1991 (34)</t>
         </is>
       </c>
       <c r="F469" t="inlineStr">
@@ -23417,7 +23419,7 @@
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30/12/2005 (19)</t>
         </is>
       </c>
       <c r="F470" t="inlineStr">
@@ -23466,7 +23468,7 @@
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>26/01/2006 (19)</t>
         </is>
       </c>
       <c r="F471" t="inlineStr">
@@ -23515,7 +23517,7 @@
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>29/01/1994 (31)</t>
         </is>
       </c>
       <c r="F472" t="inlineStr">
@@ -23564,7 +23566,7 @@
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>08/05/2004 (21)</t>
         </is>
       </c>
       <c r="F473" t="inlineStr">
@@ -23613,7 +23615,7 @@
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>01/07/1997 (28)</t>
         </is>
       </c>
       <c r="F474" t="inlineStr">
@@ -23662,7 +23664,7 @@
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24/01/2003 (22)</t>
         </is>
       </c>
       <c r="F475" t="inlineStr">
@@ -23711,7 +23713,7 @@
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>05/03/1993 (32)</t>
         </is>
       </c>
       <c r="F476" t="inlineStr">
@@ -23760,7 +23762,7 @@
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>30/12/2000 (24)</t>
         </is>
       </c>
       <c r="F477" t="inlineStr">
@@ -23809,7 +23811,7 @@
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>08/10/1999 (25)</t>
         </is>
       </c>
       <c r="F478" t="inlineStr">
@@ -23858,7 +23860,7 @@
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>30/07/2001 (24)</t>
         </is>
       </c>
       <c r="F479" t="inlineStr">
@@ -23907,7 +23909,7 @@
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>17/02/2001 (24)</t>
         </is>
       </c>
       <c r="F480" t="inlineStr">
@@ -23956,7 +23958,7 @@
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>27/10/1996 (28)</t>
         </is>
       </c>
       <c r="F481" t="inlineStr">
@@ -24005,7 +24007,7 @@
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>01/02/2005 (20)</t>
         </is>
       </c>
       <c r="F482" t="inlineStr">
@@ -24054,7 +24056,7 @@
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>10/10/2002 (22)</t>
         </is>
       </c>
       <c r="F483" t="inlineStr">
@@ -24103,7 +24105,7 @@
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>10/08/1992 (33)</t>
         </is>
       </c>
       <c r="F484" t="inlineStr">
@@ -24152,7 +24154,7 @@
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>17/06/1998 (27)</t>
         </is>
       </c>
       <c r="F485" t="inlineStr">
@@ -24201,7 +24203,7 @@
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>17/02/2003 (22)</t>
         </is>
       </c>
       <c r="F486" t="inlineStr">
@@ -24250,7 +24252,7 @@
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>17/05/2001 (24)</t>
         </is>
       </c>
       <c r="F487" t="inlineStr">
@@ -24299,7 +24301,7 @@
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>17/03/2005 (20)</t>
         </is>
       </c>
       <c r="F488" t="inlineStr">
@@ -24348,7 +24350,7 @@
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>01/03/2003 (22)</t>
         </is>
       </c>
       <c r="F489" t="inlineStr">
@@ -24397,7 +24399,7 @@
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>29/04/2003 (22)</t>
         </is>
       </c>
       <c r="F490" t="inlineStr">
@@ -27384,7 +27386,7 @@
       </c>
       <c r="E551" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10/07/2000 (25)</t>
         </is>
       </c>
       <c r="F551" t="inlineStr">
@@ -27433,7 +27435,7 @@
       </c>
       <c r="E552" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>13/11/1992 (32)</t>
         </is>
       </c>
       <c r="F552" t="inlineStr">
@@ -27482,7 +27484,7 @@
       </c>
       <c r="E553" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23/03/2005 (20)</t>
         </is>
       </c>
       <c r="F553" t="inlineStr">
@@ -27531,7 +27533,7 @@
       </c>
       <c r="E554" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>13/10/2007 (17)</t>
         </is>
       </c>
       <c r="F554" t="inlineStr">
@@ -27578,7 +27580,7 @@
       </c>
       <c r="E555" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>24/02/2007 (18)</t>
         </is>
       </c>
       <c r="F555" t="inlineStr">
@@ -27627,7 +27629,7 @@
       </c>
       <c r="E556" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>07/08/1997 (28)</t>
         </is>
       </c>
       <c r="F556" t="inlineStr">
@@ -27676,7 +27678,7 @@
       </c>
       <c r="E557" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>06/04/1997 (28)</t>
         </is>
       </c>
       <c r="F557" t="inlineStr">
@@ -27725,7 +27727,7 @@
       </c>
       <c r="E558" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23/04/2000 (25)</t>
         </is>
       </c>
       <c r="F558" t="inlineStr">
@@ -27774,7 +27776,7 @@
       </c>
       <c r="E559" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>04/02/2005 (20)</t>
         </is>
       </c>
       <c r="F559" t="inlineStr">
@@ -27823,7 +27825,7 @@
       </c>
       <c r="E560" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>11/08/1997 (28)</t>
         </is>
       </c>
       <c r="F560" t="inlineStr">
@@ -27872,7 +27874,7 @@
       </c>
       <c r="E561" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>24/03/1998 (27)</t>
         </is>
       </c>
       <c r="F561" t="inlineStr">
@@ -27921,7 +27923,7 @@
       </c>
       <c r="E562" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>13/04/2001 (24)</t>
         </is>
       </c>
       <c r="F562" t="inlineStr">
@@ -27970,7 +27972,7 @@
       </c>
       <c r="E563" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>14/02/2001 (24)</t>
         </is>
       </c>
       <c r="F563" t="inlineStr">
@@ -28019,7 +28021,7 @@
       </c>
       <c r="E564" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25/02/2004 (21)</t>
         </is>
       </c>
       <c r="F564" t="inlineStr">
@@ -28068,7 +28070,7 @@
       </c>
       <c r="E565" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>25/10/1997 (27)</t>
         </is>
       </c>
       <c r="F565" t="inlineStr">
@@ -28099,7 +28101,7 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Jonas Meffert</t>
+          <t>Nicolai Remberg</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
@@ -28109,15 +28111,15 @@
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D566" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E566" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>19/06/2000 (25)</t>
         </is>
       </c>
       <c r="F566" t="inlineStr">
@@ -28126,11 +28128,11 @@
         </is>
       </c>
       <c r="G566" t="n">
-        <v>1000000</v>
+        <v>3000000</v>
       </c>
       <c r="H566" t="inlineStr">
         <is>
-          <t>€1.00m</t>
+          <t>€3.00m</t>
         </is>
       </c>
       <c r="I566" t="inlineStr">
@@ -28148,38 +28150,38 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>Albert Sambi Lokonga</t>
+          <t>Jonas Meffert</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>Central Midfield</t>
+          <t>Defensive Midfield</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D567" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E567" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>04/09/1994 (31)</t>
         </is>
       </c>
       <c r="F567" t="inlineStr">
         <is>
-          <t>Belgium, DR Congo</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G567" t="n">
-        <v>8000000</v>
+        <v>1000000</v>
       </c>
       <c r="H567" t="inlineStr">
         <is>
-          <t>€8.00m</t>
+          <t>€1.00m</t>
         </is>
       </c>
       <c r="I567" t="inlineStr">
@@ -28197,7 +28199,7 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>Nicolás Capaldo</t>
+          <t>Albert Sambi Lokonga</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
@@ -28207,28 +28209,28 @@
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D568" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E568" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>22/10/1999 (25)</t>
         </is>
       </c>
       <c r="F568" t="inlineStr">
         <is>
-          <t>Argentina, Italy</t>
+          <t>Belgium, DR Congo</t>
         </is>
       </c>
       <c r="G568" t="n">
-        <v>5000000</v>
+        <v>8000000</v>
       </c>
       <c r="H568" t="inlineStr">
         <is>
-          <t>€5.00m</t>
+          <t>€8.00m</t>
         </is>
       </c>
       <c r="I568" t="inlineStr">
@@ -28246,7 +28248,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Nicolai Remberg</t>
+          <t>Nicolás Capaldo</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
@@ -28256,28 +28258,28 @@
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D569" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E569" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>14/09/1998 (27)</t>
         </is>
       </c>
       <c r="F569" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Argentina, Italy</t>
         </is>
       </c>
       <c r="G569" t="n">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
       <c r="H569" t="inlineStr">
         <is>
-          <t>€3.00m</t>
+          <t>€5.00m</t>
         </is>
       </c>
       <c r="I569" t="inlineStr">
@@ -28313,7 +28315,7 @@
       </c>
       <c r="E570" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>30/05/2000 (25)</t>
         </is>
       </c>
       <c r="F570" t="inlineStr">
@@ -28362,7 +28364,7 @@
       </c>
       <c r="E571" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25/04/2001 (24)</t>
         </is>
       </c>
       <c r="F571" t="inlineStr">
@@ -28411,7 +28413,7 @@
       </c>
       <c r="E572" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>12/08/1995 (30)</t>
         </is>
       </c>
       <c r="F572" t="inlineStr">
@@ -28460,7 +28462,7 @@
       </c>
       <c r="E573" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>20/01/2007 (18)</t>
         </is>
       </c>
       <c r="F573" t="inlineStr">
@@ -28509,7 +28511,7 @@
       </c>
       <c r="E574" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>20/07/2005 (20)</t>
         </is>
       </c>
       <c r="F574" t="inlineStr">
@@ -28558,7 +28560,7 @@
       </c>
       <c r="E575" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23/10/2000 (24)</t>
         </is>
       </c>
       <c r="F575" t="inlineStr">
@@ -28607,7 +28609,7 @@
       </c>
       <c r="E576" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>29/11/1998 (26)</t>
         </is>
       </c>
       <c r="F576" t="inlineStr">
@@ -28656,7 +28658,7 @@
       </c>
       <c r="E577" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>06/06/1998 (27)</t>
         </is>
       </c>
       <c r="F577" t="inlineStr">
@@ -28705,7 +28707,7 @@
       </c>
       <c r="E578" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>13/09/2001 (24)</t>
         </is>
       </c>
       <c r="F578" t="inlineStr">
@@ -28754,7 +28756,7 @@
       </c>
       <c r="E579" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>15/06/1994 (31)</t>
         </is>
       </c>
       <c r="F579" t="inlineStr">
@@ -28803,7 +28805,7 @@
       </c>
       <c r="E580" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>08/01/1994 (31)</t>
         </is>
       </c>
       <c r="F580" t="inlineStr">

--- a/data/bundesliga_squads_hybrid.xlsx
+++ b/data/bundesliga_squads_hybrid.xlsx
@@ -1736,7 +1736,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>13/06/1993 (32)</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>02/05/1991 (34)</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1834,7 +1834,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>28/07/1993 (32)</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1883,7 +1883,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>29/01/2003 (22)</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1932,7 +1932,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>02/02/1999 (26)</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1981,7 +1981,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11/04/2000 (25)</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2030,7 +2030,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>17/02/2005 (20)</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10/08/2007 (18)</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2128,7 +2128,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>20/09/1995 (30)</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>17/03/2003 (22)</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2226,7 +2226,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>01/07/1991 (34)</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>25/07/2002 (23)</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2324,7 +2324,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>22/09/1994 (31)</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2373,7 +2373,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>05/10/1998 (27)</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2422,7 +2422,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>28/06/1997 (28)</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2471,7 +2471,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>28/05/2002 (23)</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2520,7 +2520,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>02/01/2006 (19)</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>24/11/2005 (19)</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>14/07/1992 (33)</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>16/02/2005 (20)</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>04/03/1997 (28)</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2765,7 +2765,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>05/07/1999 (26)</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2814,7 +2814,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>28/01/2004 (21)</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2863,7 +2863,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>24/01/1996 (29)</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2912,7 +2912,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>26/07/2006 (19)</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2961,7 +2961,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>06/01/2006 (19)</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3839,11 +3839,11 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5846,11 +5846,11 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6616,7 +6616,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Yannik Keitel</t>
+          <t>Chema Andrés</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -6626,28 +6626,28 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2500000</v>
+        <v>10000000</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>€2.50m</t>
+          <t>€10.00m</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -6665,7 +6665,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Mirza Catovic</t>
+          <t>Yannik Keitel</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -6675,28 +6675,28 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Serbia, Bosnia-Herzegovina</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1200000</v>
+        <v>2500000</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>€1.20m</t>
+          <t>€2.50m</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -6714,38 +6714,38 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Chema Andrés</t>
+          <t>Mirza Catovic</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Central Midfield</t>
+          <t>Defensive Midfield</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Serbia, Bosnia-Herzegovina</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>10000000</v>
+        <v>1200000</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>€10.00m</t>
+          <t>€1.20m</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -12998,7 +12998,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>16/04/2004 (21)</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
@@ -13047,7 +13047,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>13/04/2002 (23)</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>18/08/1990 (35)</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
@@ -13145,7 +13145,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>14/05/2007 (18)</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
@@ -13194,7 +13194,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>16/03/1998 (27)</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
@@ -13243,7 +13243,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>23/05/2007 (18)</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
@@ -13292,7 +13292,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>04/02/1998 (27)</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
@@ -13341,7 +13341,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>14/04/1995 (30)</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
@@ -13390,7 +13390,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>17/01/1998 (27)</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
@@ -13439,7 +13439,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>31/05/2001 (24)</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
@@ -13488,7 +13488,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>09/09/2007 (18)</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
@@ -13537,7 +13537,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>27/09/1999 (26)</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
@@ -13586,7 +13586,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>06/04/2000 (25)</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
@@ -13635,7 +13635,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>07/12/1999 (25)</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
@@ -13684,7 +13684,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>28/06/2000 (25)</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
@@ -13733,7 +13733,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>21/04/1994 (31)</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
@@ -13782,7 +13782,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>19/02/1999 (26)</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
@@ -13831,7 +13831,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>04/05/2002 (23)</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
@@ -13880,7 +13880,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>08/01/2007 (18)</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
@@ -13927,7 +13927,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>08/11/1996 (28)</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
@@ -13976,7 +13976,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>19/12/1993 (31)</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
@@ -14025,7 +14025,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>27/01/2000 (25)</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
@@ -14074,7 +14074,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>18/08/1998 (27)</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
@@ -14123,7 +14123,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>25/06/2007 (18)</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
@@ -14172,7 +14172,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>22/08/2004 (21)</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
@@ -14221,7 +14221,7 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>16/01/2004 (21)</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
@@ -14270,7 +14270,7 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>06/07/1998 (27)</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
@@ -14319,7 +14319,7 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>15/11/2000 (24)</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
@@ -14368,7 +14368,7 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>23/12/2000 (24)</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
@@ -14417,7 +14417,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>25/03/2004 (21)</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
@@ -14466,7 +14466,7 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>22/02/2006 (19)</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
@@ -15934,7 +15934,7 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>08/01/1999 (26)</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
@@ -15983,7 +15983,7 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>12/07/1993 (32)</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
@@ -16032,7 +16032,7 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>13/11/1987 (37)</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
@@ -16081,7 +16081,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21/02/2008 (17)</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
@@ -16128,7 +16128,7 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>28/11/2003 (21)</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
@@ -16177,7 +16177,7 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>10/04/1996 (29)</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
@@ -16226,7 +16226,7 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>30/04/1999 (26)</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
@@ -16275,7 +16275,7 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23/05/2003 (22)</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
@@ -16324,7 +16324,7 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21/04/2007 (18)</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
@@ -16373,7 +16373,7 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>20/05/1997 (28)</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
@@ -16422,7 +16422,7 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>31/10/2004 (20)</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
@@ -16471,7 +16471,7 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>13/01/1998 (27)</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
@@ -16520,7 +16520,7 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>12/10/2000 (25)</t>
         </is>
       </c>
       <c r="F329" t="inlineStr">
@@ -16569,7 +16569,7 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>26/03/2005 (20)</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
@@ -16618,7 +16618,7 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>17/06/1999 (26)</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
@@ -16667,7 +16667,7 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>05/01/1999 (26)</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
@@ -16716,7 +16716,7 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>27/05/1994 (31)</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
@@ -16765,7 +16765,7 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>13/03/1994 (31)</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
@@ -16814,7 +16814,7 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>07/05/2003 (22)</t>
         </is>
       </c>
       <c r="F335" t="inlineStr">
@@ -16863,7 +16863,7 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>17/01/1998 (27)</t>
         </is>
       </c>
       <c r="F336" t="inlineStr">
@@ -16912,7 +16912,7 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>24/01/2006 (19)</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
@@ -16961,7 +16961,7 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>14/02/1992 (33)</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
@@ -17010,7 +17010,7 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>30/05/2001 (24)</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">
@@ -17059,7 +17059,7 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>29/12/1999 (25)</t>
         </is>
       </c>
       <c r="F340" t="inlineStr">
@@ -17108,7 +17108,7 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>29/02/2000 (25)</t>
         </is>
       </c>
       <c r="F341" t="inlineStr">
@@ -17157,7 +17157,7 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>09/05/2000 (25)</t>
         </is>
       </c>
       <c r="F342" t="inlineStr">
@@ -17206,7 +17206,7 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>07/02/1999 (26)</t>
         </is>
       </c>
       <c r="F343" t="inlineStr">
@@ -17255,7 +17255,7 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15/02/2005 (20)</t>
         </is>
       </c>
       <c r="F344" t="inlineStr">
@@ -17304,7 +17304,7 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>28/09/2005 (20)</t>
         </is>
       </c>
       <c r="F345" t="inlineStr">
@@ -20142,7 +20142,7 @@
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>12/05/1993 (32)</t>
         </is>
       </c>
       <c r="F403" t="inlineStr">
@@ -20191,7 +20191,7 @@
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>14/04/1999 (26)</t>
         </is>
       </c>
       <c r="F404" t="inlineStr">
@@ -20240,7 +20240,7 @@
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>06/05/2005 (20)</t>
         </is>
       </c>
       <c r="F405" t="inlineStr">
@@ -20289,7 +20289,7 @@
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13/09/2004 (21)</t>
         </is>
       </c>
       <c r="F406" t="inlineStr">
@@ -20338,7 +20338,7 @@
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>22/11/1998 (26)</t>
         </is>
       </c>
       <c r="F407" t="inlineStr">
@@ -20387,7 +20387,7 @@
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24/01/2003 (22)</t>
         </is>
       </c>
       <c r="F408" t="inlineStr">
@@ -20436,7 +20436,7 @@
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>23/04/1998 (27)</t>
         </is>
       </c>
       <c r="F409" t="inlineStr">
@@ -20485,7 +20485,7 @@
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>23/09/1991 (34)</t>
         </is>
       </c>
       <c r="F410" t="inlineStr">
@@ -20534,7 +20534,7 @@
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>23/01/1997 (28)</t>
         </is>
       </c>
       <c r="F411" t="inlineStr">
@@ -20583,7 +20583,7 @@
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>18/01/2005 (20)</t>
         </is>
       </c>
       <c r="F412" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>21/08/1995 (30)</t>
         </is>
       </c>
       <c r="F413" t="inlineStr">
@@ -20681,7 +20681,7 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>01/10/2007 (18)</t>
         </is>
       </c>
       <c r="F414" t="inlineStr">
@@ -20730,7 +20730,7 @@
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>29/05/1998 (27)</t>
         </is>
       </c>
       <c r="F415" t="inlineStr">
@@ -20779,7 +20779,7 @@
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>23/06/2007 (18)</t>
         </is>
       </c>
       <c r="F416" t="inlineStr">
@@ -20828,7 +20828,7 @@
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>27/10/1997 (27)</t>
         </is>
       </c>
       <c r="F417" t="inlineStr">
@@ -20877,7 +20877,7 @@
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>16/06/2006 (19)</t>
         </is>
       </c>
       <c r="F418" t="inlineStr">
@@ -20926,7 +20926,7 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>06/09/1995 (30)</t>
         </is>
       </c>
       <c r="F419" t="inlineStr">
@@ -20975,7 +20975,7 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>16/02/2006 (19)</t>
         </is>
       </c>
       <c r="F420" t="inlineStr">
@@ -21024,7 +21024,7 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28/04/1998 (27)</t>
         </is>
       </c>
       <c r="F421" t="inlineStr">
@@ -21073,7 +21073,7 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>28/10/2004 (20)</t>
         </is>
       </c>
       <c r="F422" t="inlineStr">
@@ -21122,7 +21122,7 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>26/03/1997 (28)</t>
         </is>
       </c>
       <c r="F423" t="inlineStr">
@@ -21171,7 +21171,7 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>01/07/1999 (26)</t>
         </is>
       </c>
       <c r="F424" t="inlineStr">
@@ -21220,7 +21220,7 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>29/04/2007 (18)</t>
         </is>
       </c>
       <c r="F425" t="inlineStr">
@@ -21269,7 +21269,7 @@
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21/04/2006 (19)</t>
         </is>
       </c>
       <c r="F426" t="inlineStr">
@@ -21318,7 +21318,7 @@
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>25/03/1995 (30)</t>
         </is>
       </c>
       <c r="F427" t="inlineStr">
@@ -21367,7 +21367,7 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>28/09/2007 (18)</t>
         </is>
       </c>
       <c r="F428" t="inlineStr">
@@ -21414,7 +21414,7 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>28/03/2006 (19)</t>
         </is>
       </c>
       <c r="F429" t="inlineStr">
@@ -21463,7 +21463,7 @@
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>06/07/2000 (25)</t>
         </is>
       </c>
       <c r="F430" t="inlineStr">
@@ -21512,7 +21512,7 @@
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>27/11/1995 (29)</t>
         </is>
       </c>
       <c r="F431" t="inlineStr">
@@ -21561,7 +21561,7 @@
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>30/03/1993 (32)</t>
         </is>
       </c>
       <c r="F432" t="inlineStr">
@@ -21610,7 +21610,7 @@
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>30/08/2002 (23)</t>
         </is>
       </c>
       <c r="F433" t="inlineStr">
@@ -23080,7 +23080,7 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>28/10/1994 (30)</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F463" t="inlineStr">
@@ -23129,7 +23129,7 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>27/07/2001 (24)</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F464" t="inlineStr">
@@ -23178,7 +23178,7 @@
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>12/01/1991 (34)</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F465" t="inlineStr">
@@ -23227,7 +23227,7 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>17/01/1997 (28)</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F466" t="inlineStr">
@@ -23276,7 +23276,7 @@
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>31/01/1994 (31)</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F467" t="inlineStr">
@@ -23325,7 +23325,7 @@
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>18/05/1998 (27)</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F468" t="inlineStr">
@@ -23374,7 +23374,7 @@
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>13/07/1993 (32)</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F469" t="inlineStr">
@@ -23423,7 +23423,7 @@
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>24/08/1991 (34)</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F470" t="inlineStr">
@@ -23472,7 +23472,7 @@
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>30/12/2005 (19)</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F471" t="inlineStr">
@@ -23521,7 +23521,7 @@
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>26/01/2006 (19)</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F472" t="inlineStr">
@@ -23570,7 +23570,7 @@
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>29/01/1994 (31)</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F473" t="inlineStr">
@@ -23619,7 +23619,7 @@
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>08/05/2004 (21)</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F474" t="inlineStr">
@@ -23668,7 +23668,7 @@
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>01/07/1997 (28)</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F475" t="inlineStr">
@@ -23717,7 +23717,7 @@
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>24/01/2003 (22)</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F476" t="inlineStr">
@@ -23766,7 +23766,7 @@
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>05/03/1993 (32)</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F477" t="inlineStr">
@@ -23815,7 +23815,7 @@
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>30/12/2000 (24)</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F478" t="inlineStr">
@@ -23864,7 +23864,7 @@
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>08/10/1999 (26)</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F479" t="inlineStr">
@@ -23913,7 +23913,7 @@
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>30/07/2001 (24)</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F480" t="inlineStr">
@@ -23962,7 +23962,7 @@
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>17/02/2001 (24)</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F481" t="inlineStr">
@@ -24011,7 +24011,7 @@
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>27/10/1996 (28)</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F482" t="inlineStr">
@@ -24060,7 +24060,7 @@
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>01/02/2005 (20)</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F483" t="inlineStr">
@@ -24109,7 +24109,7 @@
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>10/10/2002 (23)</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F484" t="inlineStr">
@@ -24158,7 +24158,7 @@
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>10/08/1992 (33)</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F485" t="inlineStr">
@@ -24207,7 +24207,7 @@
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>17/06/1998 (27)</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F486" t="inlineStr">
@@ -24256,7 +24256,7 @@
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>17/02/2003 (22)</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F487" t="inlineStr">
@@ -24305,7 +24305,7 @@
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>17/03/2005 (20)</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F488" t="inlineStr">
@@ -24354,7 +24354,7 @@
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>17/05/2001 (24)</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F489" t="inlineStr">
@@ -24403,7 +24403,7 @@
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>01/03/2003 (22)</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F490" t="inlineStr">
@@ -24452,7 +24452,7 @@
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>29/04/2003 (22)</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F491" t="inlineStr">
@@ -27439,7 +27439,7 @@
       </c>
       <c r="E552" t="inlineStr">
         <is>
-          <t>10/07/2000 (25)</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F552" t="inlineStr">
@@ -27488,7 +27488,7 @@
       </c>
       <c r="E553" t="inlineStr">
         <is>
-          <t>13/11/1992 (32)</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F553" t="inlineStr">
@@ -27537,7 +27537,7 @@
       </c>
       <c r="E554" t="inlineStr">
         <is>
-          <t>23/03/2005 (20)</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F554" t="inlineStr">
@@ -27586,7 +27586,7 @@
       </c>
       <c r="E555" t="inlineStr">
         <is>
-          <t>13/10/2007 (18)</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F555" t="inlineStr">
@@ -27633,7 +27633,7 @@
       </c>
       <c r="E556" t="inlineStr">
         <is>
-          <t>24/02/2007 (18)</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F556" t="inlineStr">
@@ -27682,7 +27682,7 @@
       </c>
       <c r="E557" t="inlineStr">
         <is>
-          <t>07/08/1997 (28)</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F557" t="inlineStr">
@@ -27731,7 +27731,7 @@
       </c>
       <c r="E558" t="inlineStr">
         <is>
-          <t>06/04/1997 (28)</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F558" t="inlineStr">
@@ -27780,7 +27780,7 @@
       </c>
       <c r="E559" t="inlineStr">
         <is>
-          <t>23/04/2000 (25)</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F559" t="inlineStr">
@@ -27829,7 +27829,7 @@
       </c>
       <c r="E560" t="inlineStr">
         <is>
-          <t>04/02/2005 (20)</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F560" t="inlineStr">
@@ -27878,7 +27878,7 @@
       </c>
       <c r="E561" t="inlineStr">
         <is>
-          <t>11/08/1997 (28)</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F561" t="inlineStr">
@@ -27927,7 +27927,7 @@
       </c>
       <c r="E562" t="inlineStr">
         <is>
-          <t>24/03/1998 (27)</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F562" t="inlineStr">
@@ -27976,7 +27976,7 @@
       </c>
       <c r="E563" t="inlineStr">
         <is>
-          <t>13/04/2001 (24)</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F563" t="inlineStr">
@@ -28025,7 +28025,7 @@
       </c>
       <c r="E564" t="inlineStr">
         <is>
-          <t>14/02/2001 (24)</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F564" t="inlineStr">
@@ -28074,7 +28074,7 @@
       </c>
       <c r="E565" t="inlineStr">
         <is>
-          <t>25/02/2004 (21)</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F565" t="inlineStr">
@@ -28123,7 +28123,7 @@
       </c>
       <c r="E566" t="inlineStr">
         <is>
-          <t>25/10/1997 (27)</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F566" t="inlineStr">
@@ -28172,7 +28172,7 @@
       </c>
       <c r="E567" t="inlineStr">
         <is>
-          <t>19/06/2000 (25)</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F567" t="inlineStr">
@@ -28221,7 +28221,7 @@
       </c>
       <c r="E568" t="inlineStr">
         <is>
-          <t>04/09/1994 (31)</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F568" t="inlineStr">
@@ -28270,7 +28270,7 @@
       </c>
       <c r="E569" t="inlineStr">
         <is>
-          <t>22/10/1999 (25)</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F569" t="inlineStr">
@@ -28319,7 +28319,7 @@
       </c>
       <c r="E570" t="inlineStr">
         <is>
-          <t>14/09/1998 (27)</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F570" t="inlineStr">
@@ -28368,7 +28368,7 @@
       </c>
       <c r="E571" t="inlineStr">
         <is>
-          <t>30/05/2000 (25)</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F571" t="inlineStr">
@@ -28417,7 +28417,7 @@
       </c>
       <c r="E572" t="inlineStr">
         <is>
-          <t>25/04/2001 (24)</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F572" t="inlineStr">
@@ -28466,7 +28466,7 @@
       </c>
       <c r="E573" t="inlineStr">
         <is>
-          <t>12/08/1995 (30)</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F573" t="inlineStr">
@@ -28515,7 +28515,7 @@
       </c>
       <c r="E574" t="inlineStr">
         <is>
-          <t>20/01/2007 (18)</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F574" t="inlineStr">
@@ -28564,7 +28564,7 @@
       </c>
       <c r="E575" t="inlineStr">
         <is>
-          <t>20/07/2005 (20)</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F575" t="inlineStr">
@@ -28613,7 +28613,7 @@
       </c>
       <c r="E576" t="inlineStr">
         <is>
-          <t>23/10/2000 (24)</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F576" t="inlineStr">
@@ -28662,7 +28662,7 @@
       </c>
       <c r="E577" t="inlineStr">
         <is>
-          <t>29/11/1998 (26)</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F577" t="inlineStr">
@@ -28711,7 +28711,7 @@
       </c>
       <c r="E578" t="inlineStr">
         <is>
-          <t>06/06/1998 (27)</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F578" t="inlineStr">
@@ -28760,7 +28760,7 @@
       </c>
       <c r="E579" t="inlineStr">
         <is>
-          <t>13/09/2001 (24)</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F579" t="inlineStr">
@@ -28809,7 +28809,7 @@
       </c>
       <c r="E580" t="inlineStr">
         <is>
-          <t>15/06/1994 (31)</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F580" t="inlineStr">
@@ -28858,7 +28858,7 @@
       </c>
       <c r="E581" t="inlineStr">
         <is>
-          <t>08/01/1994 (31)</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F581" t="inlineStr">

--- a/data/bundesliga_squads_hybrid.xlsx
+++ b/data/bundesliga_squads_hybrid.xlsx
@@ -703,11 +703,11 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1375,38 +1375,38 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Luis Díaz</t>
+          <t>Lennart Karl</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Left Winger</t>
+          <t>Attacking Midfield</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>70000000</v>
+        <v>20000000</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>€70.00m</t>
+          <t>€20.00m</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1424,7 +1424,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Serge Gnabry</t>
+          <t>Luis Díaz</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1434,28 +1434,28 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Germany, Cote d'Ivoire</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>22000000</v>
+        <v>70000000</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>€22.00m</t>
+          <t>€70.00m</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1473,7 +1473,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Wisdom Mike</t>
+          <t>Serge Gnabry</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1483,28 +1483,28 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Germany, Nigeria</t>
+          <t>Germany, Cote d'Ivoire</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3000000</v>
+        <v>22000000</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>€3.00m</t>
+          <t>€22.00m</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1522,38 +1522,38 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Michael Olise</t>
+          <t>Wisdom Mike</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Right Winger</t>
+          <t>Left Winger</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>17</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>23</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>France, England</t>
+          <t>Germany, Nigeria</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>130000000</v>
+        <v>3000000</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>€130.00m</t>
+          <t>€3.00m</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1571,7 +1571,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Lennart Karl</t>
+          <t>Michael Olise</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1581,28 +1581,28 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>France, England</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>20000000</v>
+        <v>130000000</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>€20.00m</t>
+          <t>€130.00m</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -3010,7 +3010,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>06/12/1997 (27)</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3059,7 +3059,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>13/04/1991 (34)</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3108,7 +3108,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>04/02/1993 (32)</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3157,7 +3157,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19/11/2003 (21)</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3206,7 +3206,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>01/12/1999 (25)</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3255,7 +3255,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>20/07/1996 (29)</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>03/09/1995 (30)</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3353,7 +3353,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>29/04/2005 (20)</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3384,7 +3384,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Emre Can</t>
+          <t>Ramy Bensebaini</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3394,20 +3394,20 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>16/04/1995 (30)</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Germany, Türkiye</t>
+          <t>Algeria</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -3433,7 +3433,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Filippo Mane</t>
+          <t>Emre Can</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3443,28 +3443,28 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>12/01/1994 (31)</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Italy, Senegal</t>
+          <t>Germany, Türkiye</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2500000</v>
+        <v>7000000</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>€2.50m</t>
+          <t>€7.00m</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3482,38 +3482,38 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Ramy Bensebaini</t>
+          <t>Filippo Mane</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Left-Back</t>
+          <t>Centre-Back</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>08/03/2005 (20)</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>Italy, Senegal</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>7000000</v>
+        <v>2500000</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>€7.00m</t>
+          <t>€2.50m</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3549,7 +3549,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>06/06/2006 (19)</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3580,7 +3580,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Yan Couto</t>
+          <t>Julian Ryerson</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3590,20 +3590,20 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>17/11/1997 (27)</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Brazil, Portugal</t>
+          <t>Norway, United States</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -3629,17 +3629,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Julian Ryerson</t>
+          <t>Salih Özcan</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Right-Back</t>
+          <t>Defensive Midfield</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -3647,20 +3647,20 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>11/01/1998 (27)</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Norway, United States</t>
+          <t>Türkiye, Germany</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>20000000</v>
+        <v>4000000</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>€20.00m</t>
+          <t>€4.00m</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3678,38 +3678,38 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Salih Özcan</t>
+          <t>Felix Nmecha</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Defensive Midfield</t>
+          <t>Central Midfield</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>10/10/2000 (25)</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Türkiye, Germany</t>
+          <t>Germany, England</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4000000</v>
+        <v>35000000</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>€4.00m</t>
+          <t>€35.00m</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3727,7 +3727,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Felix Nmecha</t>
+          <t>Jobe Bellingham</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3737,28 +3737,28 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23/09/2005 (20)</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Germany, England</t>
+          <t>England, Ireland</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>35000000</v>
+        <v>30000000</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>€35.00m</t>
+          <t>€30.00m</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3776,7 +3776,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Jobe Bellingham</t>
+          <t>Carney Chukwuemeka</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3786,28 +3786,28 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>20/10/2003 (22)</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>England, Ireland</t>
+          <t>England, Nigeria</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>30000000</v>
+        <v>20000000</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>€30.00m</t>
+          <t>€20.00m</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -3825,7 +3825,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Carney Chukwuemeka</t>
+          <t>Marcel Sabitzer</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3835,28 +3835,28 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>17/03/1994 (31)</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>England, Nigeria</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>20000000</v>
+        <v>8000000</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>€20.00m</t>
+          <t>€8.00m</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -3874,7 +3874,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Marcel Sabitzer</t>
+          <t>Pascal Groß</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3884,28 +3884,28 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>15/06/1991 (34)</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>8000000</v>
+        <v>5000000</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>€8.00m</t>
+          <t>€5.00m</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -3923,38 +3923,38 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Pascal Groß</t>
+          <t>Yan Couto</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Central Midfield</t>
+          <t>Right Midfield</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>03/06/2002 (23)</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Brazil, Portugal</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>5000000</v>
+        <v>20000000</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>€5.00m</t>
+          <t>€20.00m</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -3990,7 +3990,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>12/02/2002 (23)</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>02/05/1996 (29)</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4088,7 +4088,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>05/05/2006 (19)</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4137,7 +4137,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>18/01/2002 (23)</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4186,7 +4186,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20/02/2006 (19)</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4235,7 +4235,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>12/03/1996 (29)</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4284,7 +4284,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>17/10/2002 (23)</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4333,7 +4333,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>19/07/2002 (23)</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -5801,7 +5801,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30/09/1996 (29)</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -5850,7 +5850,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>18/10/2007 (18)</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -5899,7 +5899,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>02/03/1995 (30)</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -5948,7 +5948,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>20/04/1999 (26)</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -5997,7 +5997,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>17/07/2006 (19)</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6046,7 +6046,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>12/02/1998 (27)</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6095,7 +6095,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>02/06/2003 (22)</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -6144,7 +6144,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>06/03/2002 (23)</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6193,7 +6193,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>18/07/2001 (24)</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6242,7 +6242,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>03/06/1999 (26)</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6291,7 +6291,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>18/03/1997 (28)</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6340,7 +6340,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>22/06/2000 (25)</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6389,7 +6389,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>11/12/2000 (24)</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6438,7 +6438,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>03/03/2002 (23)</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6487,7 +6487,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>20/03/1996 (29)</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -6536,7 +6536,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>04/04/2001 (24)</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -6585,7 +6585,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>13/10/1996 (29)</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -6634,7 +6634,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25/04/2005 (20)</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -6683,7 +6683,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15/02/2000 (25)</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -6732,7 +6732,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>01/05/2007 (18)</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -6781,7 +6781,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>22/02/2000 (25)</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6830,7 +6830,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10/05/2004 (21)</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>25/09/2006 (19)</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -6928,7 +6928,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>09/01/1998 (27)</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -6977,7 +6977,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>27/11/2004 (20)</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7026,7 +7026,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26/02/2001 (24)</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -7075,7 +7075,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>08/12/2004 (20)</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -7124,7 +7124,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>30/11/2006 (18)</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7173,7 +7173,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>06/10/1998 (27)</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -7222,7 +7222,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>25/03/1998 (27)</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -7271,7 +7271,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>19/07/1996 (29)</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7320,7 +7320,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>16/06/2002 (23)</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -7853,11 +7853,11 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>26/10/2005 (19)</t>
+          <t>26/10/2005 (20)</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -10354,7 +10354,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25/05/2002 (23)</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -10403,7 +10403,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>13/11/1997 (27)</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -10452,7 +10452,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>15/04/1994 (31)</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -10501,7 +10501,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>11/07/1996 (29)</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -10550,7 +10550,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>10/02/2003 (22)</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -10599,7 +10599,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>19/01/1994 (31)</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>03/11/1991 (33)</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -10697,7 +10697,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>17/12/2005 (19)</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -10746,7 +10746,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>03/08/2001 (24)</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -10795,7 +10795,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>28/02/1993 (32)</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -10844,7 +10844,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>03/12/2000 (24)</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -10893,7 +10893,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>30/08/1992 (33)</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -10942,7 +10942,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>01/02/2000 (25)</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -10991,7 +10991,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>09/03/1990 (35)</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -11040,7 +11040,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>14/10/2005 (20)</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -11089,7 +11089,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>08/12/1996 (28)</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -11134,11 +11134,11 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25/10/2001 (24)</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -11187,7 +11187,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>08/03/1996 (29)</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -11236,7 +11236,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>07/04/1993 (32)</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -11285,7 +11285,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>10/11/2002 (22)</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -11334,7 +11334,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>20/06/2005 (20)</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -11383,7 +11383,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>13/12/2001 (23)</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -11432,7 +11432,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>04/01/1999 (26)</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -11481,7 +11481,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>01/03/1994 (31)</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -11530,7 +11530,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>31/03/2003 (22)</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -11579,7 +11579,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>06/06/2001 (24)</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -11628,7 +11628,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>10/07/1994 (31)</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -14509,11 +14509,11 @@
         </is>
       </c>
       <c r="D288" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
@@ -15916,43 +15916,43 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Kamil Grabara</t>
+          <t>Jan Urbich</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Goalkeeper</t>
+          <t>Centre-Forward</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D317" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>08/01/1999 (26)</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G317" t="n">
-        <v>14000000</v>
+        <v>125000</v>
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>€14.00m</t>
+          <t>€125k</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>vfl wolfsburg</t>
+          <t>borussia monchengladbach</t>
         </is>
       </c>
       <c r="J317" t="inlineStr"/>
@@ -15965,7 +15965,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Marius Müller</t>
+          <t>Kamil Grabara</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -15975,28 +15975,28 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D318" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>12/07/1993 (32)</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="G318" t="n">
-        <v>1500000</v>
+        <v>14000000</v>
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>€1.50m</t>
+          <t>€14.00m</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
@@ -16014,7 +16014,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Pavao Pervan</t>
+          <t>Marius Müller</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -16024,28 +16024,28 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D319" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>13/11/1987 (37)</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G319" t="n">
-        <v>300000</v>
+        <v>1500000</v>
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>€300k</t>
+          <t>€1.50m</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
@@ -16063,7 +16063,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Jakub Zielinski</t>
+          <t>Pavao Pervan</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -16073,26 +16073,28 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D320" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>21/02/2008 (17)</t>
+          <t>37</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>Poland</t>
-        </is>
-      </c>
-      <c r="G320" t="inlineStr"/>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="G320" t="n">
+        <v>300000</v>
+      </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>€300k</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
@@ -16110,38 +16112,36 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Konstantinos Koulierakis</t>
+          <t>Jakub Zielinski</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Centre-Back</t>
+          <t>Goalkeeper</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D321" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>28/11/2003 (21)</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>Greece</t>
-        </is>
-      </c>
-      <c r="G321" t="n">
-        <v>25000000</v>
-      </c>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr"/>
       <c r="H321" t="inlineStr">
         <is>
-          <t>€25.00m</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
@@ -16159,7 +16159,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Denis Vavro</t>
+          <t>Konstantinos Koulierakis</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -16169,28 +16169,28 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D322" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>10/04/1996 (29)</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="G322" t="n">
-        <v>7000000</v>
+        <v>25000000</v>
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>€7.00m</t>
+          <t>€25.00m</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
@@ -16208,7 +16208,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Moritz Jenz</t>
+          <t>Denis Vavro</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -16218,28 +16218,28 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D323" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>30/04/1999 (26)</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>Germany, Nigeria</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="G323" t="n">
-        <v>5000000</v>
+        <v>7000000</v>
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>€5.00m</t>
+          <t>€7.00m</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
@@ -16257,7 +16257,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Jenson Seelt</t>
+          <t>Moritz Jenz</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -16267,28 +16267,28 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D324" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>23/05/2003 (22)</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>Netherlands, Indonesia</t>
+          <t>Germany, Nigeria</t>
         </is>
       </c>
       <c r="G324" t="n">
-        <v>2000000</v>
+        <v>5000000</v>
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>€2.00m</t>
+          <t>€5.00m</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -16306,7 +16306,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Mathys Angély</t>
+          <t>Jenson Seelt</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -16316,28 +16316,28 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D325" t="n">
+        <v>22</v>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
           <t>22</t>
         </is>
       </c>
-      <c r="D325" t="n">
-        <v>18</v>
-      </c>
-      <c r="E325" t="inlineStr">
-        <is>
-          <t>21/04/2007 (18)</t>
-        </is>
-      </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>France, Martinique</t>
+          <t>Netherlands, Indonesia</t>
         </is>
       </c>
       <c r="G325" t="n">
-        <v>600000</v>
+        <v>2000000</v>
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>€600k</t>
+          <t>€2.00m</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
@@ -16355,38 +16355,38 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Joakim Mæhle</t>
+          <t>Mathys Angély</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Left-Back</t>
+          <t>Centre-Back</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D326" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>20/05/1997 (28)</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>France, Martinique</t>
         </is>
       </c>
       <c r="G326" t="n">
-        <v>12000000</v>
+        <v>600000</v>
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>€12.00m</t>
+          <t>€600k</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
@@ -16404,7 +16404,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Aaron Zehnter</t>
+          <t>Joakim Mæhle</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -16414,28 +16414,28 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D327" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>31/10/2004 (20)</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="G327" t="n">
-        <v>6000000</v>
+        <v>12000000</v>
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>€6.00m</t>
+          <t>€12.00m</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
@@ -16453,7 +16453,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Rogério</t>
+          <t>Aaron Zehnter</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -16463,28 +16463,28 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D328" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>13/01/1998 (27)</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>Brazil, Italy</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G328" t="n">
-        <v>2500000</v>
+        <v>6000000</v>
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>€2.50m</t>
+          <t>€6.00m</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
@@ -16502,38 +16502,38 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Kilian Fischer</t>
+          <t>Rogério</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Right-Back</t>
+          <t>Left-Back</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D329" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>12/10/2000 (25)</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Brazil, Italy</t>
         </is>
       </c>
       <c r="G329" t="n">
-        <v>7500000</v>
+        <v>2500000</v>
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>€7.50m</t>
+          <t>€2.50m</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
@@ -16551,7 +16551,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Saël Kumbedi</t>
+          <t>Kilian Fischer</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -16561,28 +16561,28 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D330" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>26/03/2005 (20)</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>France, DR Congo</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G330" t="n">
-        <v>7000000</v>
+        <v>7500000</v>
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>€7.00m</t>
+          <t>€7.50m</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
@@ -16600,38 +16600,38 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Vini Souza</t>
+          <t>Saël Kumbedi</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Defensive Midfield</t>
+          <t>Right-Back</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D331" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>17/06/1999 (26)</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>France, DR Congo</t>
         </is>
       </c>
       <c r="G331" t="n">
-        <v>15000000</v>
+        <v>7000000</v>
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>€15.00m</t>
+          <t>€7.00m</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
@@ -16649,17 +16649,17 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Mattias Svanberg</t>
+          <t>Vini Souza</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Central Midfield</t>
+          <t>Defensive Midfield</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D332" t="n">
@@ -16667,20 +16667,20 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>05/01/1999 (26)</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="G332" t="n">
-        <v>12000000</v>
+        <v>15000000</v>
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>€12.00m</t>
+          <t>€15.00m</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
@@ -16698,7 +16698,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Maximilian Arnold</t>
+          <t>Mattias Svanberg</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -16708,28 +16708,28 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D333" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>27/05/1994 (31)</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="G333" t="n">
-        <v>5000000</v>
+        <v>12000000</v>
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>€5.00m</t>
+          <t>€12.00m</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
@@ -16747,7 +16747,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Yannick Gerhardt</t>
+          <t>Maximilian Arnold</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -16757,7 +16757,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D334" t="n">
@@ -16765,7 +16765,7 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>13/03/1994 (31)</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
@@ -16774,11 +16774,11 @@
         </is>
       </c>
       <c r="G334" t="n">
-        <v>2500000</v>
+        <v>5000000</v>
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>€2.50m</t>
+          <t>€5.00m</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
@@ -16796,38 +16796,38 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Kevin Paredes</t>
+          <t>Yannick Gerhardt</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Left Midfield</t>
+          <t>Central Midfield</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D335" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>07/05/2003 (22)</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>United States, Dominican Republic</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G335" t="n">
-        <v>5000000</v>
+        <v>2500000</v>
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>€5.00m</t>
+          <t>€2.50m</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
@@ -16845,38 +16845,38 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Lovro Majer</t>
+          <t>Kevin Paredes</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Attacking Midfield</t>
+          <t>Left Midfield</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D336" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>17/01/1998 (27)</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>United States, Dominican Republic</t>
         </is>
       </c>
       <c r="G336" t="n">
-        <v>17000000</v>
+        <v>5000000</v>
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>€17.00m</t>
+          <t>€5.00m</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
@@ -16894,7 +16894,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Bence Dárdai</t>
+          <t>Lovro Majer</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -16904,28 +16904,28 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D337" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>24/01/2006 (19)</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>Hungary, Germany</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="G337" t="n">
-        <v>9000000</v>
+        <v>17000000</v>
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>€9.00m</t>
+          <t>€17.00m</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
@@ -16943,7 +16943,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Christian Eriksen</t>
+          <t>Bence Dárdai</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -16953,28 +16953,28 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D338" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>14/02/1992 (33)</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Hungary, Germany</t>
         </is>
       </c>
       <c r="G338" t="n">
-        <v>4000000</v>
+        <v>9000000</v>
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>€4.00m</t>
+          <t>€9.00m</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
@@ -16992,38 +16992,38 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Patrick Wimmer</t>
+          <t>Christian Eriksen</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Right Winger</t>
+          <t>Attacking Midfield</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D339" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>30/05/2001 (24)</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="G339" t="n">
-        <v>15000000</v>
+        <v>4000000</v>
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>€15.00m</t>
+          <t>€4.00m</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
@@ -17041,7 +17041,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Andreas Skov Olsen</t>
+          <t>Patrick Wimmer</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -17051,28 +17051,28 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D340" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>29/12/1999 (25)</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="G340" t="n">
-        <v>14000000</v>
+        <v>15000000</v>
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>€14.00m</t>
+          <t>€15.00m</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
@@ -17090,7 +17090,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Jesper Lindstrøm</t>
+          <t>Andreas Skov Olsen</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -17100,7 +17100,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D341" t="n">
@@ -17108,7 +17108,7 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>29/02/2000 (25)</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F341" t="inlineStr">
@@ -17117,11 +17117,11 @@
         </is>
       </c>
       <c r="G341" t="n">
-        <v>12000000</v>
+        <v>14000000</v>
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>€12.00m</t>
+          <t>€14.00m</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
@@ -17139,17 +17139,17 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Mohamed Amoura</t>
+          <t>Jesper Lindstrøm</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Centre-Forward</t>
+          <t>Right Winger</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D342" t="n">
@@ -17157,20 +17157,20 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>09/05/2000 (25)</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="G342" t="n">
-        <v>32000000</v>
+        <v>12000000</v>
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>€32.00m</t>
+          <t>€12.00m</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
@@ -17188,7 +17188,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Jonas Wind</t>
+          <t>Mohamed Amoura</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -17198,28 +17198,28 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D343" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>07/02/1999 (26)</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Algeria</t>
         </is>
       </c>
       <c r="G343" t="n">
-        <v>8000000</v>
+        <v>32000000</v>
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>€8.00m</t>
+          <t>€32.00m</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
@@ -17237,7 +17237,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Dzenan Pejcinovic</t>
+          <t>Jonas Wind</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -17247,28 +17247,28 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D344" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>15/02/2005 (20)</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>Germany, Montenegro</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="G344" t="n">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>€6.00m</t>
+          <t>€8.00m</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
@@ -17286,7 +17286,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Adam Daghim</t>
+          <t>Dzenan Pejcinovic</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -17296,7 +17296,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D345" t="n">
@@ -17304,20 +17304,20 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>28/09/2005 (20)</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Germany, Montenegro</t>
         </is>
       </c>
       <c r="G345" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>€5.00m</t>
+          <t>€6.00m</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
@@ -17335,43 +17335,43 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Finn Dahmen</t>
+          <t>Adam Daghim</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Goalkeeper</t>
+          <t>Centre-Forward</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D346" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>Germany, England</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="G346" t="n">
-        <v>12000000</v>
+        <v>5000000</v>
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>€12.00m</t>
+          <t>€5.00m</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>fc augsburg</t>
+          <t>vfl wolfsburg</t>
         </is>
       </c>
       <c r="J346" t="inlineStr"/>
@@ -17384,7 +17384,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Nediljko Labrovic</t>
+          <t>Finn Dahmen</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -17394,28 +17394,28 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D347" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27/03/1998 (27)</t>
         </is>
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Germany, England</t>
         </is>
       </c>
       <c r="G347" t="n">
-        <v>2500000</v>
+        <v>12000000</v>
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>€2.50m</t>
+          <t>€12.00m</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
@@ -17433,7 +17433,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Daniel Klein</t>
+          <t>Nediljko Labrovic</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -17443,28 +17443,28 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D348" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>10/10/1999 (26)</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="G348" t="n">
-        <v>150000</v>
+        <v>2500000</v>
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>€150k</t>
+          <t>€2.50m</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
@@ -17482,38 +17482,38 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Chrislain Matsima</t>
+          <t>Daniel Klein</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Centre-Back</t>
+          <t>Goalkeeper</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D349" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>13/03/2001 (24)</t>
         </is>
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>France, Congo</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G349" t="n">
-        <v>22000000</v>
+        <v>150000</v>
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>€22.00m</t>
+          <t>€150k</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
@@ -17531,7 +17531,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Noahkai Banks</t>
+          <t>Chrislain Matsima</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -17541,28 +17541,28 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D350" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>15/05/2002 (23)</t>
         </is>
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>United States, Germany</t>
+          <t>France, Congo</t>
         </is>
       </c>
       <c r="G350" t="n">
-        <v>10000000</v>
+        <v>22000000</v>
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>€10.00m</t>
+          <t>€22.00m</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
@@ -17580,7 +17580,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Cédric Zesiger</t>
+          <t>Noahkai Banks</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -17590,28 +17590,28 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D351" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>01/12/2006 (18)</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>United States, Germany</t>
         </is>
       </c>
       <c r="G351" t="n">
-        <v>7000000</v>
+        <v>10000000</v>
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>€7.00m</t>
+          <t>€10.00m</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
@@ -17629,7 +17629,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Keven Schlotterbeck</t>
+          <t>Cédric Zesiger</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -17639,28 +17639,28 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D352" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>24/06/1998 (27)</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="G352" t="n">
-        <v>6000000</v>
+        <v>7000000</v>
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>€6.00m</t>
+          <t>€7.00m</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
@@ -17678,7 +17678,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Jeffrey Gouweleeuw</t>
+          <t>Keven Schlotterbeck</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -17688,28 +17688,28 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D353" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>28/04/1997 (28)</t>
         </is>
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G353" t="n">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>€1.50m</t>
+          <t>€6.00m</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
@@ -17727,7 +17727,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Maximilian Bauer</t>
+          <t>Jeffrey Gouweleeuw</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -17737,20 +17737,20 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D354" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10/07/1991 (34)</t>
         </is>
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="G354" t="n">
@@ -17776,7 +17776,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Felix Meiser</t>
+          <t>Maximilian Bauer</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -17786,15 +17786,15 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D355" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>09/02/2000 (25)</t>
         </is>
       </c>
       <c r="F355" t="inlineStr">
@@ -17803,11 +17803,11 @@
         </is>
       </c>
       <c r="G355" t="n">
-        <v>150000</v>
+        <v>1500000</v>
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>€150k</t>
+          <t>€1.50m</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
@@ -17825,38 +17825,38 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Dimitrios Giannoulis</t>
+          <t>Felix Meiser</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Left-Back</t>
+          <t>Centre-Back</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D356" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>16/01/2007 (18)</t>
         </is>
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G356" t="n">
-        <v>3000000</v>
+        <v>150000</v>
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>€3.00m</t>
+          <t>€150k</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
@@ -17874,7 +17874,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Mads Pedersen</t>
+          <t>Dimitrios Giannoulis</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -17884,28 +17884,28 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D357" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>17/10/1995 (30)</t>
         </is>
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="G357" t="n">
-        <v>2000000</v>
+        <v>3000000</v>
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>€2.00m</t>
+          <t>€3.00m</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
@@ -17923,7 +17923,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Oliver Sorg</t>
+          <t>Mads Pedersen</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -17933,28 +17933,28 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D358" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>01/09/1996 (29)</t>
         </is>
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="G358" t="n">
-        <v>400000</v>
+        <v>2000000</v>
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>€400k</t>
+          <t>€2.00m</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
@@ -17972,38 +17972,38 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Marius Wolf</t>
+          <t>Oliver Sorg</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Right-Back</t>
+          <t>Left-Back</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D359" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31/07/2007 (18)</t>
         </is>
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="G359" t="n">
-        <v>3000000</v>
+        <v>400000</v>
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>€3.00m</t>
+          <t>€400k</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
@@ -18021,38 +18021,38 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Kristijan Jakic</t>
+          <t>Marius Wolf</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Defensive Midfield</t>
+          <t>Right-Back</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D360" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>27/05/1995 (30)</t>
         </is>
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G360" t="n">
-        <v>6500000</v>
+        <v>3000000</v>
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>€6.50m</t>
+          <t>€3.00m</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
@@ -18070,7 +18070,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Robin Fellhauer</t>
+          <t>Kristijan Jakic</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -18080,28 +18080,28 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D361" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>14/05/1997 (28)</t>
         </is>
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="G361" t="n">
-        <v>2500000</v>
+        <v>6500000</v>
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>€2.50m</t>
+          <t>€6.50m</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
@@ -18119,7 +18119,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Mahmut Kücüksahin</t>
+          <t>Robin Fellhauer</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -18129,28 +18129,28 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D362" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>21/01/1998 (27)</t>
         </is>
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>Türkiye, Germany</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G362" t="n">
-        <v>175000</v>
+        <v>2500000</v>
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>€175k</t>
+          <t>€2.50m</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
@@ -18168,38 +18168,38 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Han-Noah Massengo</t>
+          <t>Mahmut Kücüksahin</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Central Midfield</t>
+          <t>Defensive Midfield</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D363" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>07/04/2004 (21)</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>France, Congo</t>
+          <t>Türkiye, Germany</t>
         </is>
       </c>
       <c r="G363" t="n">
-        <v>5000000</v>
+        <v>175000</v>
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>€5.00m</t>
+          <t>€175k</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
@@ -18217,7 +18217,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Elvis Rexhbecaj</t>
+          <t>Han-Noah Massengo</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -18227,28 +18227,28 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D364" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>07/07/2001 (24)</t>
         </is>
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>Kosovo, Germany</t>
+          <t>France, Congo</t>
         </is>
       </c>
       <c r="G364" t="n">
-        <v>3500000</v>
+        <v>5000000</v>
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>€3.50m</t>
+          <t>€5.00m</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
@@ -18266,7 +18266,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Arne Maier</t>
+          <t>Elvis Rexhbecaj</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -18276,28 +18276,28 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D365" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>01/11/1997 (27)</t>
         </is>
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Kosovo, Germany</t>
         </is>
       </c>
       <c r="G365" t="n">
-        <v>3000000</v>
+        <v>3500000</v>
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>€3.00m</t>
+          <t>€3.50m</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
@@ -18315,25 +18315,25 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Anton Kade</t>
+          <t>Arne Maier</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Right Midfield</t>
+          <t>Central Midfield</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D366" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>08/01/1999 (26)</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
@@ -18342,11 +18342,11 @@
         </is>
       </c>
       <c r="G366" t="n">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>€5.00m</t>
+          <t>€3.00m</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
@@ -18364,38 +18364,38 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Alexis Claude-Maurice</t>
+          <t>Anton Kade</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Attacking Midfield</t>
+          <t>Right Midfield</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D367" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>17/01/2004 (21)</t>
         </is>
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>France, Guadeloupe</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G367" t="n">
-        <v>15000000</v>
+        <v>5000000</v>
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>€15.00m</t>
+          <t>€5.00m</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
@@ -18413,7 +18413,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Mert Kömür</t>
+          <t>Alexis Claude-Maurice</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -18423,28 +18423,28 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D368" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>06/06/1998 (27)</t>
         </is>
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>Germany, Türkiye</t>
+          <t>France, Guadeloupe</t>
         </is>
       </c>
       <c r="G368" t="n">
-        <v>12000000</v>
+        <v>15000000</v>
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>€12.00m</t>
+          <t>€15.00m</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
@@ -18462,7 +18462,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Fabian Rieder</t>
+          <t>Mert Kömür</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -18472,28 +18472,28 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D369" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>17/07/2005 (20)</t>
         </is>
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Germany, Türkiye</t>
         </is>
       </c>
       <c r="G369" t="n">
-        <v>6000000</v>
+        <v>12000000</v>
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>€6.00m</t>
+          <t>€12.00m</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
@@ -18511,38 +18511,38 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Ismaël Gharbi</t>
+          <t>Fabian Rieder</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Left Winger</t>
+          <t>Attacking Midfield</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D370" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>16/02/2002 (23)</t>
         </is>
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>Tunisia, Spain</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="G370" t="n">
-        <v>7500000</v>
+        <v>6000000</v>
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>€7.50m</t>
+          <t>€6.00m</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
@@ -18560,7 +18560,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Elias Saad</t>
+          <t>Ismaël Gharbi</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -18570,28 +18570,28 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D371" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10/04/2004 (21)</t>
         </is>
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>Tunisia, Germany</t>
+          <t>Tunisia, Spain</t>
         </is>
       </c>
       <c r="G371" t="n">
-        <v>4000000</v>
+        <v>7500000</v>
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>€4.00m</t>
+          <t>€7.50m</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
@@ -18609,7 +18609,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Aiman Dardari</t>
+          <t>Elias Saad</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -18619,28 +18619,28 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D372" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>27/12/1999 (25)</t>
         </is>
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>Luxembourg, Morocco</t>
+          <t>Tunisia, Germany</t>
         </is>
       </c>
       <c r="G372" t="n">
-        <v>500000</v>
+        <v>4000000</v>
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>€500k</t>
+          <t>€4.00m</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
@@ -18658,38 +18658,38 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Phillip Tietz</t>
+          <t>Aiman Dardari</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Centre-Forward</t>
+          <t>Left Winger</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D373" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>21/03/2005 (20)</t>
         </is>
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Luxembourg, Morocco</t>
         </is>
       </c>
       <c r="G373" t="n">
-        <v>5000000</v>
+        <v>500000</v>
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>€5.00m</t>
+          <t>€500k</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
@@ -18707,7 +18707,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Samuel Essende</t>
+          <t>Phillip Tietz</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -18717,28 +18717,28 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D374" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>09/07/1997 (28)</t>
         </is>
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>DR Congo, France</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G374" t="n">
-        <v>4500000</v>
+        <v>5000000</v>
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>€4.50m</t>
+          <t>€5.00m</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
@@ -18756,43 +18756,43 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Frederik Rönnow</t>
+          <t>Samuel Essende</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Goalkeeper</t>
+          <t>Centre-Forward</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D375" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>23/01/1998 (27)</t>
         </is>
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>DR Congo, France</t>
         </is>
       </c>
       <c r="G375" t="n">
-        <v>3000000</v>
+        <v>4500000</v>
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>€3.00m</t>
+          <t>€4.50m</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>1. fc union berlin</t>
+          <t>fc augsburg</t>
         </is>
       </c>
       <c r="J375" t="inlineStr"/>
@@ -18805,7 +18805,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Matheo Raab</t>
+          <t>Frederik Rönnow</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -18815,28 +18815,28 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D376" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="G376" t="n">
-        <v>600000</v>
+        <v>3000000</v>
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>€600k</t>
+          <t>€3.00m</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
@@ -18854,7 +18854,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Carl Klaus</t>
+          <t>Matheo Raab</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -18864,15 +18864,15 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D377" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F377" t="inlineStr">
@@ -18881,11 +18881,11 @@
         </is>
       </c>
       <c r="G377" t="n">
-        <v>350000</v>
+        <v>600000</v>
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>€350k</t>
+          <t>€600k</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
@@ -18903,38 +18903,38 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Leopold Querfeld</t>
+          <t>Carl Klaus</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Centre-Back</t>
+          <t>Goalkeeper</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D378" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G378" t="n">
-        <v>15000000</v>
+        <v>350000</v>
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>€15.00m</t>
+          <t>€350k</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
@@ -18952,7 +18952,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Danilho Doekhi</t>
+          <t>Leopold Querfeld</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -18962,28 +18962,28 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D379" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>Netherlands, Suriname</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="G379" t="n">
-        <v>13000000</v>
+        <v>15000000</v>
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>€13.00m</t>
+          <t>€15.00m</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
@@ -19001,7 +19001,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Diogo Leite</t>
+          <t>Danilho Doekhi</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -19011,28 +19011,28 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D380" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Netherlands, Suriname</t>
         </is>
       </c>
       <c r="G380" t="n">
-        <v>12000000</v>
+        <v>13000000</v>
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>€12.00m</t>
+          <t>€13.00m</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
@@ -19050,7 +19050,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Stanley Nsoki</t>
+          <t>Diogo Leite</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -19060,7 +19060,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D381" t="n">
@@ -19073,15 +19073,15 @@
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>France, DR Congo</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="G381" t="n">
-        <v>2500000</v>
+        <v>12000000</v>
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>€2.50m</t>
+          <t>€12.00m</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
@@ -19099,7 +19099,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Oluwaseun Ogbemudia</t>
+          <t>Stanley Nsoki</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -19109,26 +19109,28 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D382" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>Germany, Nigeria</t>
-        </is>
-      </c>
-      <c r="G382" t="inlineStr"/>
+          <t>France, DR Congo</t>
+        </is>
+      </c>
+      <c r="G382" t="n">
+        <v>2500000</v>
+      </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>€2.50m</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
@@ -19146,38 +19148,36 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Tom Rothe</t>
+          <t>Oluwaseun Ogbemudia</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Left-Back</t>
+          <t>Centre-Back</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D383" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="G383" t="n">
-        <v>10000000</v>
-      </c>
+          <t>Germany, Nigeria</t>
+        </is>
+      </c>
+      <c r="G383" t="inlineStr"/>
       <c r="H383" t="inlineStr">
         <is>
-          <t>€10.00m</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
@@ -19195,7 +19195,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Derrick Köhn</t>
+          <t>Tom Rothe</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -19205,28 +19205,28 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D384" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>Ghana, Germany</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G384" t="n">
-        <v>5000000</v>
+        <v>10000000</v>
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>€5.00m</t>
+          <t>€10.00m</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
@@ -19244,7 +19244,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Andrik Markgraf</t>
+          <t>Derrick Köhn</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -19254,26 +19254,28 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D385" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="G385" t="inlineStr"/>
+          <t>Ghana, Germany</t>
+        </is>
+      </c>
+      <c r="G385" t="n">
+        <v>5000000</v>
+      </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>€5.00m</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
@@ -19291,38 +19293,36 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Josip Juranovic</t>
+          <t>Andrik Markgraf</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Right-Back</t>
+          <t>Left-Back</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D386" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="G386" t="n">
-        <v>3000000</v>
-      </c>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="G386" t="inlineStr"/>
       <c r="H386" t="inlineStr">
         <is>
-          <t>€3.00m</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
@@ -19340,7 +19340,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Christopher Trimmel</t>
+          <t>Josip Juranovic</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -19350,28 +19350,28 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D387" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="G387" t="n">
-        <v>600000</v>
+        <v>3000000</v>
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>€600k</t>
+          <t>€3.00m</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
@@ -19389,38 +19389,38 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Aljoscha Kemlein</t>
+          <t>Christopher Trimmel</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Defensive Midfield</t>
+          <t>Right-Back</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D388" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>38</t>
         </is>
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="G388" t="n">
-        <v>7000000</v>
+        <v>600000</v>
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>€7.00m</t>
+          <t>€600k</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -19438,7 +19438,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Rani Khedira</t>
+          <t>Aljoscha Kemlein</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -19448,28 +19448,28 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D389" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>Germany, Tunisia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G389" t="n">
-        <v>2500000</v>
+        <v>7000000</v>
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>€2.50m</t>
+          <t>€7.00m</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
@@ -19487,38 +19487,38 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>András Schäfer</t>
+          <t>Rani Khedira</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Central Midfield</t>
+          <t>Defensive Midfield</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D390" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Germany, Tunisia</t>
         </is>
       </c>
       <c r="G390" t="n">
-        <v>5000000</v>
+        <v>2500000</v>
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>€5.00m</t>
+          <t>€2.50m</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
@@ -19536,7 +19536,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Alex Král</t>
+          <t>András Schäfer</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -19546,20 +19546,20 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D391" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="G391" t="n">
@@ -19585,7 +19585,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Janik Haberer</t>
+          <t>Alex Král</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -19595,28 +19595,28 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D392" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="G392" t="n">
-        <v>2500000</v>
+        <v>5000000</v>
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>€2.50m</t>
+          <t>€5.00m</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
@@ -19634,38 +19634,38 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Robert Skov</t>
+          <t>Janik Haberer</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Left Midfield</t>
+          <t>Central Midfield</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D393" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G393" t="n">
-        <v>4000000</v>
+        <v>2500000</v>
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>€4.00m</t>
+          <t>€2.50m</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
@@ -19683,30 +19683,30 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Woo-yeong Jeong</t>
+          <t>Robert Skov</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Attacking Midfield</t>
+          <t>Left Midfield</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D394" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>Korea, South</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="G394" t="n">
@@ -19732,30 +19732,30 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Livan Burcu</t>
+          <t>Woo-yeong Jeong</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Left Winger</t>
+          <t>Attacking Midfield</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D395" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>Türkiye, Germany</t>
+          <t>Korea, South</t>
         </is>
       </c>
       <c r="G395" t="n">
@@ -19781,7 +19781,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>David Preu</t>
+          <t>Livan Burcu</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -19791,28 +19791,28 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D396" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Türkiye, Germany</t>
         </is>
       </c>
       <c r="G396" t="n">
-        <v>400000</v>
+        <v>4000000</v>
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>€400k</t>
+          <t>€4.00m</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
@@ -19830,38 +19830,38 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Ilyas Ansah</t>
+          <t>David Preu</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Centre-Forward</t>
+          <t>Left Winger</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D397" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>Germany, Ghana</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G397" t="n">
-        <v>10000000</v>
+        <v>400000</v>
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>€10.00m</t>
+          <t>€400k</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
@@ -19879,7 +19879,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Andrej Ilic</t>
+          <t>Ilyas Ansah</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -19889,28 +19889,28 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D398" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Germany, Ghana</t>
         </is>
       </c>
       <c r="G398" t="n">
-        <v>6000000</v>
+        <v>10000000</v>
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>€6.00m</t>
+          <t>€10.00m</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
@@ -19928,7 +19928,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Oliver Burke</t>
+          <t>Andrej Ilic</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -19938,28 +19938,28 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D399" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="G399" t="n">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>€4.00m</t>
+          <t>€6.00m</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
@@ -19977,7 +19977,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Marin Ljubicic</t>
+          <t>Oliver Burke</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -19987,28 +19987,28 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D400" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="G400" t="n">
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>€3.00m</t>
+          <t>€4.00m</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
@@ -20026,7 +20026,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Tim Skarke</t>
+          <t>Marin Ljubicic</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -20036,28 +20036,28 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D401" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="G401" t="n">
-        <v>2000000</v>
+        <v>3000000</v>
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>€2.00m</t>
+          <t>€3.00m</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
@@ -20075,7 +20075,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Dmytro Bogdanov</t>
+          <t>Tim Skarke</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -20085,28 +20085,28 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D402" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G402" t="n">
-        <v>250000</v>
+        <v>2000000</v>
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>€250k</t>
+          <t>€2.00m</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
@@ -20124,43 +20124,43 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Timo Horn</t>
+          <t>Dmytro Bogdanov</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Goalkeeper</t>
+          <t>Centre-Forward</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D403" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>12/05/1993 (32)</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="G403" t="n">
-        <v>800000</v>
+        <v>250000</v>
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>€800k</t>
+          <t>€250k</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>vfl bochum</t>
+          <t>1. fc union berlin</t>
         </is>
       </c>
       <c r="J403" t="inlineStr"/>
@@ -20173,7 +20173,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Niclas Thiede</t>
+          <t>Timo Horn</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -20183,15 +20183,15 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D404" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>14/04/1999 (26)</t>
+          <t>12/05/1993 (32)</t>
         </is>
       </c>
       <c r="F404" t="inlineStr">
@@ -20200,11 +20200,11 @@
         </is>
       </c>
       <c r="G404" t="n">
-        <v>350000</v>
+        <v>800000</v>
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>€350k</t>
+          <t>€800k</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
@@ -20222,7 +20222,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Hugo Rölleke</t>
+          <t>Niclas Thiede</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -20232,15 +20232,15 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D405" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>06/05/2005 (20)</t>
+          <t>14/04/1999 (26)</t>
         </is>
       </c>
       <c r="F405" t="inlineStr">
@@ -20249,11 +20249,11 @@
         </is>
       </c>
       <c r="G405" t="n">
-        <v>50000</v>
+        <v>350000</v>
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>€50k</t>
+          <t>€350k</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
@@ -20271,25 +20271,25 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Leandro Morgalla</t>
+          <t>Hugo Rölleke</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Centre-Back</t>
+          <t>Goalkeeper</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D406" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>13/09/2004 (21)</t>
+          <t>06/05/2005 (20)</t>
         </is>
       </c>
       <c r="F406" t="inlineStr">
@@ -20298,11 +20298,11 @@
         </is>
       </c>
       <c r="G406" t="n">
-        <v>2500000</v>
+        <v>50000</v>
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>€2.50m</t>
+          <t>€50k</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
@@ -20320,7 +20320,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Erhan Masovic</t>
+          <t>Leandro Morgalla</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -20330,28 +20330,28 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D407" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>22/11/1998 (26)</t>
+          <t>13/09/2004 (21)</t>
         </is>
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G407" t="n">
-        <v>2000000</v>
+        <v>2500000</v>
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>€2.00m</t>
+          <t>€2.50m</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
@@ -20369,7 +20369,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Colin Kleine-Bekel</t>
+          <t>Erhan Masovic</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -20379,28 +20379,28 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D408" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>24/01/2003 (22)</t>
+          <t>22/11/1998 (26)</t>
         </is>
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="G408" t="n">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>€1.00m</t>
+          <t>€2.00m</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
@@ -20418,7 +20418,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Philipp Strompf</t>
+          <t>Colin Kleine-Bekel</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -20428,15 +20428,15 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D409" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>23/04/1998 (27)</t>
+          <t>24/01/2003 (22)</t>
         </is>
       </c>
       <c r="F409" t="inlineStr">
@@ -20445,11 +20445,11 @@
         </is>
       </c>
       <c r="G409" t="n">
-        <v>800000</v>
+        <v>1000000</v>
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>€800k</t>
+          <t>€1.00m</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
@@ -20467,7 +20467,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Kevin Vogt</t>
+          <t>Philipp Strompf</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -20477,15 +20477,15 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D410" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>23/09/1991 (34)</t>
+          <t>23/04/1998 (27)</t>
         </is>
       </c>
       <c r="F410" t="inlineStr">
@@ -20494,11 +20494,11 @@
         </is>
       </c>
       <c r="G410" t="n">
-        <v>700000</v>
+        <v>800000</v>
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>€700k</t>
+          <t>€800k</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
@@ -20516,7 +20516,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Noah Loosli</t>
+          <t>Kevin Vogt</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -20526,28 +20526,28 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D411" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>23/01/1997 (28)</t>
+          <t>23/09/1991 (34)</t>
         </is>
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G411" t="n">
-        <v>600000</v>
+        <v>700000</v>
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>€600k</t>
+          <t>€700k</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
@@ -20565,7 +20565,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Daniel Hülsenbusch</t>
+          <t>Noah Loosli</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -20575,28 +20575,28 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D412" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>18/01/2005 (20)</t>
+          <t>23/01/1997 (28)</t>
         </is>
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="G412" t="n">
-        <v>50000</v>
+        <v>600000</v>
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>€50k</t>
+          <t>€600k</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
@@ -20614,25 +20614,25 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Maximilian Wittek</t>
+          <t>Daniel Hülsenbusch</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Left-Back</t>
+          <t>Centre-Back</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D413" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>21/08/1995 (30)</t>
+          <t>18/01/2005 (20)</t>
         </is>
       </c>
       <c r="F413" t="inlineStr">
@@ -20641,11 +20641,11 @@
         </is>
       </c>
       <c r="G413" t="n">
-        <v>1500000</v>
+        <v>50000</v>
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>€1.50m</t>
+          <t>€50k</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
@@ -20663,7 +20663,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Darnell Keumo</t>
+          <t>Maximilian Wittek</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -20673,28 +20673,28 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D414" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>01/10/2007 (18)</t>
+          <t>21/08/1995 (30)</t>
         </is>
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>Germany, Cameroon</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G414" t="n">
-        <v>300000</v>
+        <v>1500000</v>
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>€300k</t>
+          <t>€1.50m</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
@@ -20712,38 +20712,38 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Felix Passlack</t>
+          <t>Darnell Keumo</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Right-Back</t>
+          <t>Left-Back</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D415" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>29/05/1998 (27)</t>
+          <t>01/10/2007 (18)</t>
         </is>
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Germany, Cameroon</t>
         </is>
       </c>
       <c r="G415" t="n">
-        <v>1500000</v>
+        <v>300000</v>
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>€1.50m</t>
+          <t>€300k</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
@@ -20761,7 +20761,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Kacper Koscierski</t>
+          <t>Felix Passlack</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -20771,28 +20771,28 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D416" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>23/06/2007 (18)</t>
+          <t>29/05/1998 (27)</t>
         </is>
       </c>
       <c r="F416" t="inlineStr">
         <is>
-          <t>Germany, Poland</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G416" t="n">
-        <v>500000</v>
+        <v>1500000</v>
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>€500k</t>
+          <t>€1.50m</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
@@ -20810,38 +20810,38 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Ibrahima Sissoko</t>
+          <t>Kacper Koscierski</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Defensive Midfield</t>
+          <t>Right-Back</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D417" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>27/10/1997 (27)</t>
+          <t>23/06/2007 (18)</t>
         </is>
       </c>
       <c r="F417" t="inlineStr">
         <is>
-          <t>Mali, France</t>
+          <t>Germany, Poland</t>
         </is>
       </c>
       <c r="G417" t="n">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>€4.00m</t>
+          <t>€500k</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
@@ -20859,7 +20859,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Cajetan Lenz</t>
+          <t>Ibrahima Sissoko</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -20869,28 +20869,28 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D418" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>16/06/2006 (19)</t>
+          <t>27/10/1997 (28)</t>
         </is>
       </c>
       <c r="F418" t="inlineStr">
         <is>
-          <t>Germany, Switzerland</t>
+          <t>Mali, France</t>
         </is>
       </c>
       <c r="G418" t="n">
-        <v>1500000</v>
+        <v>4000000</v>
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>€1.50m</t>
+          <t>€4.00m</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
@@ -20908,38 +20908,38 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Matus Bero</t>
+          <t>Cajetan Lenz</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Central Midfield</t>
+          <t>Defensive Midfield</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D419" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>06/09/1995 (30)</t>
+          <t>16/06/2006 (19)</t>
         </is>
       </c>
       <c r="F419" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Germany, Switzerland</t>
         </is>
       </c>
       <c r="G419" t="n">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>€3.00m</t>
+          <t>€1.50m</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
@@ -20957,7 +20957,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Kjell Wätjen</t>
+          <t>Matus Bero</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -20967,28 +20967,28 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D420" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>16/02/2006 (19)</t>
+          <t>06/09/1995 (30)</t>
         </is>
       </c>
       <c r="F420" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="G420" t="n">
-        <v>2500000</v>
+        <v>3000000</v>
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>€2.50m</t>
+          <t>€3.00m</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
@@ -21006,7 +21006,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Moritz-Broni Kwarteng</t>
+          <t>Kjell Wätjen</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -21016,28 +21016,28 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D421" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>28/04/1998 (27)</t>
+          <t>16/02/2006 (19)</t>
         </is>
       </c>
       <c r="F421" t="inlineStr">
         <is>
-          <t>Germany, Ghana</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G421" t="n">
-        <v>1000000</v>
+        <v>2500000</v>
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>€1.00m</t>
+          <t>€2.50m</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
@@ -21055,7 +21055,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Mats Pannewig</t>
+          <t>Moritz-Broni Kwarteng</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -21065,20 +21065,20 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D422" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>28/10/2004 (20)</t>
+          <t>28/04/1998 (27)</t>
         </is>
       </c>
       <c r="F422" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Germany, Ghana</t>
         </is>
       </c>
       <c r="G422" t="n">
@@ -21104,38 +21104,38 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Koji Miyoshi</t>
+          <t>Mats Pannewig</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Right Midfield</t>
+          <t>Central Midfield</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D423" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>26/03/1997 (28)</t>
+          <t>28/10/2004 (21)</t>
         </is>
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G423" t="n">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>€1.50m</t>
+          <t>€1.00m</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
@@ -21153,38 +21153,38 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Romario Rösch</t>
+          <t>Koji Miyoshi</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Left Midfield</t>
+          <t>Right Midfield</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D424" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>01/07/1999 (26)</t>
+          <t>26/03/1997 (28)</t>
         </is>
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="G424" t="n">
-        <v>450000</v>
+        <v>1500000</v>
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>€450k</t>
+          <t>€1.50m</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
@@ -21202,38 +21202,38 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Francis Onyeka</t>
+          <t>Romario Rösch</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Attacking Midfield</t>
+          <t>Left Midfield</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D425" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>29/04/2007 (18)</t>
+          <t>01/07/1999 (26)</t>
         </is>
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>Germany, Nigeria</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G425" t="n">
-        <v>1000000</v>
+        <v>450000</v>
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>€1.00m</t>
+          <t>€450k</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
@@ -21251,7 +21251,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Lirim Jashari</t>
+          <t>Francis Onyeka</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -21261,28 +21261,28 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D426" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>21/04/2006 (19)</t>
+          <t>29/04/2007 (18)</t>
         </is>
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>Kosovo, Germany</t>
+          <t>Germany, Nigeria</t>
         </is>
       </c>
       <c r="G426" t="n">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>€100k</t>
+          <t>€1.00m</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
@@ -21300,38 +21300,38 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Gerrit Holtmann</t>
+          <t>Lirim Jashari</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Left Winger</t>
+          <t>Attacking Midfield</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D427" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>25/03/1995 (30)</t>
+          <t>21/04/2006 (19)</t>
         </is>
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>Philippines, Germany</t>
+          <t>Kosovo, Germany</t>
         </is>
       </c>
       <c r="G427" t="n">
-        <v>700000</v>
+        <v>100000</v>
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>€700k</t>
+          <t>€100k</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
@@ -21349,7 +21349,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Alessandro Crimaldi</t>
+          <t>Gerrit Holtmann</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -21359,26 +21359,28 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D428" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>28/09/2007 (18)</t>
+          <t>25/03/1995 (30)</t>
         </is>
       </c>
       <c r="F428" t="inlineStr">
         <is>
-          <t>Italy, Germany</t>
-        </is>
-      </c>
-      <c r="G428" t="inlineStr"/>
+          <t>Philippines, Germany</t>
+        </is>
+      </c>
+      <c r="G428" t="n">
+        <v>700000</v>
+      </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>€700k</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
@@ -21659,7 +21661,7 @@
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>25/04/1995 (30)</t>
         </is>
       </c>
       <c r="F434" t="inlineStr">
@@ -21708,7 +21710,7 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>12/02/1989 (36)</t>
         </is>
       </c>
       <c r="F435" t="inlineStr">
@@ -21757,7 +21759,7 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>28/05/1997 (28)</t>
         </is>
       </c>
       <c r="F436" t="inlineStr">
@@ -21806,7 +21808,7 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>07/07/2004 (21)</t>
         </is>
       </c>
       <c r="F437" t="inlineStr">
@@ -21855,7 +21857,7 @@
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>23/09/1998 (27)</t>
         </is>
       </c>
       <c r="F438" t="inlineStr">
@@ -21904,7 +21906,7 @@
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>20/07/1996 (29)</t>
         </is>
       </c>
       <c r="F439" t="inlineStr">
@@ -21953,7 +21955,7 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>06/10/2000 (25)</t>
         </is>
       </c>
       <c r="F440" t="inlineStr">
@@ -22002,7 +22004,7 @@
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>15/08/1993 (32)</t>
         </is>
       </c>
       <c r="F441" t="inlineStr">
@@ -22051,7 +22053,7 @@
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>24/04/2005 (20)</t>
         </is>
       </c>
       <c r="F442" t="inlineStr">
@@ -22100,7 +22102,7 @@
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>01/09/1999 (26)</t>
         </is>
       </c>
       <c r="F443" t="inlineStr">
@@ -22149,7 +22151,7 @@
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>14/05/2002 (23)</t>
         </is>
       </c>
       <c r="F444" t="inlineStr">
@@ -22198,7 +22200,7 @@
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27/01/2000 (25)</t>
         </is>
       </c>
       <c r="F445" t="inlineStr">
@@ -22247,7 +22249,7 @@
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>11/03/2000 (25)</t>
         </is>
       </c>
       <c r="F446" t="inlineStr">
@@ -22296,7 +22298,7 @@
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>29/04/2002 (23)</t>
         </is>
       </c>
       <c r="F447" t="inlineStr">
@@ -22345,7 +22347,7 @@
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>15/01/2006 (19)</t>
         </is>
       </c>
       <c r="F448" t="inlineStr">
@@ -22394,7 +22396,7 @@
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23/03/2003 (22)</t>
         </is>
       </c>
       <c r="F449" t="inlineStr">
@@ -22443,7 +22445,7 @@
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22/06/2001 (24)</t>
         </is>
       </c>
       <c r="F450" t="inlineStr">
@@ -22492,7 +22494,7 @@
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>03/07/2001 (24)</t>
         </is>
       </c>
       <c r="F451" t="inlineStr">
@@ -22541,7 +22543,7 @@
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>29/09/2004 (21)</t>
         </is>
       </c>
       <c r="F452" t="inlineStr">
@@ -22590,7 +22592,7 @@
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>17/05/1997 (28)</t>
         </is>
       </c>
       <c r="F453" t="inlineStr">
@@ -22635,11 +22637,11 @@
         </is>
       </c>
       <c r="D454" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>24/10/1992 (33)</t>
         </is>
       </c>
       <c r="F454" t="inlineStr">
@@ -22688,7 +22690,7 @@
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>26/08/2006 (19)</t>
         </is>
       </c>
       <c r="F455" t="inlineStr">
@@ -22737,7 +22739,7 @@
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>05/06/2002 (23)</t>
         </is>
       </c>
       <c r="F456" t="inlineStr">
@@ -22786,7 +22788,7 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>23/06/1999 (26)</t>
         </is>
       </c>
       <c r="F457" t="inlineStr">
@@ -22835,7 +22837,7 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>29/03/1993 (32)</t>
         </is>
       </c>
       <c r="F458" t="inlineStr">
@@ -22884,7 +22886,7 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>26/05/2002 (23)</t>
         </is>
       </c>
       <c r="F459" t="inlineStr">
@@ -22933,7 +22935,7 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28/07/1998 (27)</t>
         </is>
       </c>
       <c r="F460" t="inlineStr">
@@ -22982,7 +22984,7 @@
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>19/05/1996 (29)</t>
         </is>
       </c>
       <c r="F461" t="inlineStr">
@@ -23031,7 +23033,7 @@
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>02/04/2005 (20)</t>
         </is>
       </c>
       <c r="F462" t="inlineStr">
@@ -23076,11 +23078,11 @@
         </is>
       </c>
       <c r="D463" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F463" t="inlineStr">
@@ -24007,11 +24009,11 @@
         </is>
       </c>
       <c r="D482" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F482" t="inlineStr">
@@ -27439,7 +27441,7 @@
       </c>
       <c r="E552" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10/07/2000 (25)</t>
         </is>
       </c>
       <c r="F552" t="inlineStr">
@@ -27488,7 +27490,7 @@
       </c>
       <c r="E553" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>13/11/1992 (32)</t>
         </is>
       </c>
       <c r="F553" t="inlineStr">
@@ -27537,7 +27539,7 @@
       </c>
       <c r="E554" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23/03/2005 (20)</t>
         </is>
       </c>
       <c r="F554" t="inlineStr">
@@ -27586,7 +27588,7 @@
       </c>
       <c r="E555" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>13/10/2007 (18)</t>
         </is>
       </c>
       <c r="F555" t="inlineStr">
@@ -27633,7 +27635,7 @@
       </c>
       <c r="E556" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>24/02/2007 (18)</t>
         </is>
       </c>
       <c r="F556" t="inlineStr">
@@ -27682,7 +27684,7 @@
       </c>
       <c r="E557" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>07/08/1997 (28)</t>
         </is>
       </c>
       <c r="F557" t="inlineStr">
@@ -27731,7 +27733,7 @@
       </c>
       <c r="E558" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>06/04/1997 (28)</t>
         </is>
       </c>
       <c r="F558" t="inlineStr">
@@ -27780,7 +27782,7 @@
       </c>
       <c r="E559" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23/04/2000 (25)</t>
         </is>
       </c>
       <c r="F559" t="inlineStr">
@@ -27829,7 +27831,7 @@
       </c>
       <c r="E560" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>04/02/2005 (20)</t>
         </is>
       </c>
       <c r="F560" t="inlineStr">
@@ -27878,7 +27880,7 @@
       </c>
       <c r="E561" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>11/08/1997 (28)</t>
         </is>
       </c>
       <c r="F561" t="inlineStr">
@@ -27927,7 +27929,7 @@
       </c>
       <c r="E562" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>24/03/1998 (27)</t>
         </is>
       </c>
       <c r="F562" t="inlineStr">
@@ -27976,7 +27978,7 @@
       </c>
       <c r="E563" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>13/04/2001 (24)</t>
         </is>
       </c>
       <c r="F563" t="inlineStr">
@@ -28025,7 +28027,7 @@
       </c>
       <c r="E564" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>14/02/2001 (24)</t>
         </is>
       </c>
       <c r="F564" t="inlineStr">
@@ -28074,7 +28076,7 @@
       </c>
       <c r="E565" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25/02/2004 (21)</t>
         </is>
       </c>
       <c r="F565" t="inlineStr">
@@ -28119,11 +28121,11 @@
         </is>
       </c>
       <c r="D566" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E566" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>25/10/1997 (28)</t>
         </is>
       </c>
       <c r="F566" t="inlineStr">
@@ -28172,7 +28174,7 @@
       </c>
       <c r="E567" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>19/06/2000 (25)</t>
         </is>
       </c>
       <c r="F567" t="inlineStr">
@@ -28221,7 +28223,7 @@
       </c>
       <c r="E568" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>04/09/1994 (31)</t>
         </is>
       </c>
       <c r="F568" t="inlineStr">
@@ -28266,11 +28268,11 @@
         </is>
       </c>
       <c r="D569" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E569" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>22/10/1999 (26)</t>
         </is>
       </c>
       <c r="F569" t="inlineStr">
@@ -28319,7 +28321,7 @@
       </c>
       <c r="E570" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>14/09/1998 (27)</t>
         </is>
       </c>
       <c r="F570" t="inlineStr">
@@ -28368,7 +28370,7 @@
       </c>
       <c r="E571" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>30/05/2000 (25)</t>
         </is>
       </c>
       <c r="F571" t="inlineStr">
@@ -28417,7 +28419,7 @@
       </c>
       <c r="E572" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25/04/2001 (24)</t>
         </is>
       </c>
       <c r="F572" t="inlineStr">
@@ -28466,7 +28468,7 @@
       </c>
       <c r="E573" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>12/08/1995 (30)</t>
         </is>
       </c>
       <c r="F573" t="inlineStr">
@@ -28515,7 +28517,7 @@
       </c>
       <c r="E574" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>20/01/2007 (18)</t>
         </is>
       </c>
       <c r="F574" t="inlineStr">
@@ -28564,7 +28566,7 @@
       </c>
       <c r="E575" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>20/07/2005 (20)</t>
         </is>
       </c>
       <c r="F575" t="inlineStr">
@@ -28609,11 +28611,11 @@
         </is>
       </c>
       <c r="D576" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E576" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23/10/2000 (25)</t>
         </is>
       </c>
       <c r="F576" t="inlineStr">
@@ -28662,7 +28664,7 @@
       </c>
       <c r="E577" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>29/11/1998 (26)</t>
         </is>
       </c>
       <c r="F577" t="inlineStr">
@@ -28711,7 +28713,7 @@
       </c>
       <c r="E578" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>06/06/1998 (27)</t>
         </is>
       </c>
       <c r="F578" t="inlineStr">
@@ -28760,7 +28762,7 @@
       </c>
       <c r="E579" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>13/09/2001 (24)</t>
         </is>
       </c>
       <c r="F579" t="inlineStr">
@@ -28809,7 +28811,7 @@
       </c>
       <c r="E580" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>15/06/1994 (31)</t>
         </is>
       </c>
       <c r="F580" t="inlineStr">
@@ -28858,7 +28860,7 @@
       </c>
       <c r="E581" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>08/01/1994 (31)</t>
         </is>
       </c>
       <c r="F581" t="inlineStr">

--- a/data/bundesliga_squads_hybrid.xlsx
+++ b/data/bundesliga_squads_hybrid.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K581"/>
+  <dimension ref="A1:K582"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,7 +511,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>08/08/2003 (22)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -560,7 +560,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>27/03/1986 (39)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>03/08/1988 (37)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -658,7 +658,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>01/03/2007 (18)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -707,7 +707,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>27/10/1998 (27)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -756,7 +756,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>15/11/1996 (28)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -805,7 +805,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>11/02/1996 (29)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -854,7 +854,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>12/05/1999 (26)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -899,11 +899,11 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>02/11/2000 (25)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>22/12/1993 (31)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>02/04/2000 (25)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>27/05/1997 (28)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>13/09/2000 (25)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>03/05/2004 (21)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>08/02/1995 (30)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>28/06/2005 (20)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1295,7 +1295,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>06/02/1995 (30)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>26/02/2003 (22)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>22/02/2008 (17)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>13/01/1997 (28)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1473,7 +1473,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Serge Gnabry</t>
+          <t>Wisdom Mike</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1483,28 +1483,28 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>24/09/2008 (17)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Germany, Cote d'Ivoire</t>
+          <t>Germany, Nigeria</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>22000000</v>
+        <v>3000000</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>€22.00m</t>
+          <t>€3.00m</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1522,38 +1522,38 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Wisdom Mike</t>
+          <t>Michael Olise</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Left Winger</t>
+          <t>Right Winger</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>12/12/2001 (23)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Germany, Nigeria</t>
+          <t>France, England</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3000000</v>
+        <v>130000000</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>€3.00m</t>
+          <t>€130.00m</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1571,38 +1571,38 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Michael Olise</t>
+          <t>Serge Gnabry</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Right Winger</t>
+          <t>Second Striker</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>14/07/1995 (30)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>France, England</t>
+          <t>Germany, Cote d'Ivoire</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>130000000</v>
+        <v>22000000</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>€130.00m</t>
+          <t>€22.00m</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>28/07/1993 (32)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>20/06/2001 (24)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -3010,7 +3010,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>06/12/1997 (27)</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3059,7 +3059,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>13/04/1991 (34)</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3108,7 +3108,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>04/02/1993 (32)</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3157,7 +3157,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>19/11/2003 (21)</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3206,7 +3206,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>01/12/1999 (25)</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3255,7 +3255,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>20/07/1996 (29)</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>03/09/1995 (30)</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3353,7 +3353,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>29/04/2005 (20)</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3402,7 +3402,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>16/04/1995 (30)</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>12/01/1994 (31)</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3500,7 +3500,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>08/03/2005 (20)</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3549,7 +3549,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>06/06/2006 (19)</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3598,7 +3598,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>17/11/1997 (27)</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3647,7 +3647,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11/01/1998 (27)</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3696,7 +3696,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10/10/2000 (25)</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3745,7 +3745,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>23/09/2005 (20)</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3794,7 +3794,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>20/10/2003 (22)</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3843,7 +3843,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>17/03/1994 (31)</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3892,7 +3892,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>15/06/1991 (34)</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3941,7 +3941,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>03/06/2002 (23)</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3990,7 +3990,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>12/02/2002 (23)</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>02/05/1996 (29)</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4088,7 +4088,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>05/05/2006 (19)</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4137,7 +4137,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>18/01/2002 (23)</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4186,7 +4186,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>20/02/2006 (19)</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4235,7 +4235,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>12/03/1996 (29)</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4284,7 +4284,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>17/10/2002 (23)</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4333,7 +4333,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>19/07/2002 (23)</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4382,7 +4382,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>26/02/2002 (23)</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>06/05/1990 (35)</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4480,7 +4480,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>10/04/1994 (31)</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4529,7 +4529,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>17/12/2002 (22)</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4578,7 +4578,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16/05/2005 (20)</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4623,11 +4623,11 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>03/11/1992 (33)</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4676,7 +4676,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>03/06/1996 (29)</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4725,7 +4725,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>22/04/1998 (27)</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4774,7 +4774,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>27/03/2004 (21)</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4823,7 +4823,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>08/04/1998 (27)</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -4872,7 +4872,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>23/02/1997 (28)</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>16/12/2005 (19)</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -4970,7 +4970,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16/02/2005 (20)</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5019,7 +5019,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>04/05/2001 (24)</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -5068,7 +5068,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>31/01/1998 (27)</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -5117,7 +5117,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>09/05/2006 (19)</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5166,7 +5166,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>28/09/1997 (28)</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5215,7 +5215,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>09/10/1990 (35)</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5264,7 +5264,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>24/01/2007 (18)</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5311,7 +5311,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>05/06/2007 (18)</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5360,7 +5360,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>01/08/1999 (26)</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5409,7 +5409,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>22/11/2007 (17)</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5458,7 +5458,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>17/04/2005 (20)</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5503,11 +5503,11 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>14/11/2006 (19)</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>06/03/1996 (29)</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5605,7 +5605,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>08/08/2006 (19)</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5654,7 +5654,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>20/04/2003 (22)</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5703,7 +5703,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>07/04/2005 (20)</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>08/02/2002 (23)</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5801,7 +5801,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>30/09/1996 (29)</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -5850,7 +5850,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>18/10/2007 (18)</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -5899,7 +5899,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>02/03/1995 (30)</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -5948,7 +5948,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>20/04/1999 (26)</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -5997,7 +5997,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>17/07/2006 (19)</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6046,7 +6046,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>12/02/1998 (27)</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6095,7 +6095,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>02/06/2003 (22)</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -6144,7 +6144,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>06/03/2002 (23)</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6193,7 +6193,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>18/07/2001 (24)</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6242,7 +6242,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>03/06/1999 (26)</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6291,7 +6291,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>18/03/1997 (28)</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6340,7 +6340,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>22/06/2000 (25)</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6389,7 +6389,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>11/12/2000 (24)</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6438,7 +6438,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>03/03/2002 (23)</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6487,7 +6487,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>20/03/1996 (29)</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -6536,7 +6536,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>04/04/2001 (24)</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -6585,7 +6585,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>13/10/1996 (29)</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -6634,7 +6634,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>25/04/2005 (20)</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -6683,7 +6683,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>15/02/2000 (25)</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -6732,7 +6732,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>01/05/2007 (18)</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -6781,7 +6781,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>22/02/2000 (25)</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6830,7 +6830,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>10/05/2004 (21)</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>25/09/2006 (19)</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -6928,7 +6928,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>09/01/1998 (27)</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -6977,7 +6977,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>27/11/2004 (20)</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7026,7 +7026,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>26/02/2001 (24)</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -7075,7 +7075,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>08/12/2004 (20)</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -7124,7 +7124,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>30/11/2006 (18)</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7173,7 +7173,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>06/10/1998 (27)</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -7222,7 +7222,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>25/03/1998 (27)</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -7271,12 +7271,12 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>19/07/1996 (29)</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Germany, Türkiye</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G140" t="n">
@@ -7320,7 +7320,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>16/06/2002 (23)</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -7369,7 +7369,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>11/04/2003 (22)</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7418,7 +7418,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>12/07/1995 (30)</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -7467,7 +7467,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>22/09/1988 (37)</t>
+          <t>37</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -7516,7 +7516,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>19/01/2007 (18)</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -7563,7 +7563,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>25/05/2000 (25)</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -7612,7 +7612,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>17/07/1996 (29)</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>10/01/2004 (21)</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -7710,7 +7710,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>31/07/2003 (22)</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -7759,7 +7759,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>16/06/2003 (22)</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -7808,7 +7808,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>11/07/1997 (28)</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -7857,7 +7857,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>26/10/2005 (20)</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -7906,7 +7906,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>10/02/1997 (28)</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -7955,7 +7955,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>29/03/1990 (35)</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>10/05/1995 (30)</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -8053,7 +8053,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>30/01/2006 (19)</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8102,7 +8102,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>27/06/2004 (21)</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8151,7 +8151,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>04/01/2005 (20)</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>01/01/1996 (29)</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8245,11 +8245,11 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>11/11/2005 (19)</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -8298,7 +8298,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>28/11/2002 (22)</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -8347,7 +8347,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>03/06/1992 (33)</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8396,7 +8396,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>07/05/2005 (20)</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8445,7 +8445,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>16/06/1998 (27)</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8494,7 +8494,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>10/01/2002 (23)</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -8543,7 +8543,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>11/07/2000 (25)</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -8592,7 +8592,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>02/01/2003 (22)</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -8641,7 +8641,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>02/10/1993 (32)</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -8690,7 +8690,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>20/07/2000 (25)</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8739,7 +8739,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>02/06/1990 (35)</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -8788,7 +8788,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>28/11/2000 (24)</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -8837,7 +8837,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>09/02/2004 (21)</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -8886,7 +8886,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>18/05/2003 (22)</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -8935,7 +8935,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>25/08/1997 (28)</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -8984,7 +8984,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>14/05/1995 (30)</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -9033,7 +9033,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>29/01/2000 (25)</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -9082,7 +9082,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>25/03/2000 (25)</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -9131,7 +9131,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>29/01/2001 (24)</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -9180,7 +9180,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>19/04/1995 (30)</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -9229,7 +9229,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>03/02/2005 (20)</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -9278,7 +9278,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26/05/2001 (24)</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -9327,7 +9327,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19/01/2005 (20)</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -9376,7 +9376,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21/06/2000 (25)</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -9425,7 +9425,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>22/08/1992 (33)</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -9474,7 +9474,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23/02/2004 (21)</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -9523,7 +9523,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>16/02/2001 (24)</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -9572,7 +9572,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11/08/2004 (21)</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -9621,7 +9621,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>09/01/1995 (30)</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -9670,7 +9670,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>10/06/1998 (27)</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -9719,7 +9719,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>18/06/2003 (22)</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -9768,7 +9768,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>09/04/2004 (21)</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>19/06/1991 (34)</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -9866,7 +9866,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>02/03/2006 (19)</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -9915,7 +9915,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25/07/2002 (23)</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -9964,7 +9964,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>08/08/2002 (23)</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -10013,7 +10013,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>05/02/2002 (23)</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -10062,7 +10062,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>15/01/2006 (19)</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -10111,7 +10111,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>11/05/1998 (27)</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -10160,7 +10160,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>13/12/2006 (18)</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -10209,7 +10209,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>23/04/1994 (31)</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -10258,7 +10258,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>03/05/2004 (21)</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -10307,7 +10307,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>01/10/2006 (19)</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -10354,7 +10354,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>25/05/2002 (23)</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -10399,11 +10399,11 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>13/11/1997 (27)</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -10452,7 +10452,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>15/04/1994 (31)</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -10501,7 +10501,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>11/07/1996 (29)</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -10550,7 +10550,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>10/02/2003 (22)</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -10599,7 +10599,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>19/01/1994 (31)</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -10644,11 +10644,11 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>03/11/1991 (33)</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -10697,7 +10697,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>17/12/2005 (19)</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -10746,7 +10746,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>03/08/2001 (24)</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -10795,7 +10795,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>28/02/1993 (32)</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -10844,7 +10844,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>03/12/2000 (24)</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -10893,7 +10893,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>30/08/1992 (33)</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -10942,7 +10942,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>01/02/2000 (25)</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -10991,7 +10991,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>09/03/1990 (35)</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -11040,7 +11040,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>14/10/2005 (20)</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -11089,7 +11089,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>08/12/1996 (28)</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -11138,7 +11138,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>25/10/2001 (24)</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -11187,7 +11187,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>08/03/1996 (29)</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -11236,7 +11236,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>07/04/1993 (32)</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -11281,11 +11281,11 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>10/11/2002 (22)</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -11334,7 +11334,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>20/06/2005 (20)</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -11383,7 +11383,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>13/12/2001 (23)</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -11432,7 +11432,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>04/01/1999 (26)</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -11481,7 +11481,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>01/03/1994 (31)</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -11530,7 +11530,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>31/03/2003 (22)</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -11579,7 +11579,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>06/06/2001 (24)</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -11628,7 +11628,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>10/07/1994 (31)</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -11918,11 +11918,11 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -12998,7 +12998,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>16/04/2004 (21)</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
@@ -13047,7 +13047,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>13/04/2002 (23)</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>18/08/1990 (35)</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
@@ -13145,7 +13145,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>14/05/2007 (18)</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
@@ -13194,7 +13194,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>16/03/1998 (27)</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
@@ -13243,7 +13243,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>23/05/2007 (18)</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
@@ -13292,7 +13292,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>04/02/1998 (27)</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
@@ -13341,7 +13341,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>14/04/1995 (30)</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
@@ -13390,7 +13390,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>17/01/1998 (27)</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
@@ -13439,7 +13439,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>31/05/2001 (24)</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
@@ -13488,7 +13488,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>09/09/2007 (18)</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
@@ -13537,7 +13537,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27/09/1999 (26)</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
@@ -13586,7 +13586,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>06/04/2000 (25)</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
@@ -13635,7 +13635,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>07/12/1999 (25)</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
@@ -13684,7 +13684,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>28/06/2000 (25)</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
@@ -13733,7 +13733,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21/04/1994 (31)</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
@@ -13782,7 +13782,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>19/02/1999 (26)</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
@@ -13831,7 +13831,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>04/05/2002 (23)</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
@@ -13880,7 +13880,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>08/01/2007 (18)</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
@@ -13923,11 +13923,11 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>08/11/1996 (29)</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
@@ -13976,7 +13976,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>19/12/1993 (31)</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
@@ -14025,7 +14025,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27/01/2000 (25)</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
@@ -14074,7 +14074,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>18/08/1998 (27)</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
@@ -14123,7 +14123,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>25/06/2007 (18)</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
@@ -14172,7 +14172,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22/08/2004 (21)</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
@@ -14221,7 +14221,7 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>16/01/2004 (21)</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
@@ -14270,7 +14270,7 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>06/07/1998 (27)</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
@@ -14319,7 +14319,7 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>15/11/2000 (24)</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
@@ -14368,7 +14368,7 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23/12/2000 (24)</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
@@ -14417,7 +14417,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25/03/2004 (21)</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
@@ -14466,7 +14466,7 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>22/02/2006 (19)</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
@@ -15391,11 +15391,11 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
@@ -16077,11 +16077,11 @@
         </is>
       </c>
       <c r="D320" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>38</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
@@ -16404,7 +16404,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Joakim Mæhle</t>
+          <t>Joakim Maehle</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -16467,11 +16467,11 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
@@ -18280,11 +18280,11 @@
         </is>
       </c>
       <c r="D365" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>01/11/1997 (27)</t>
+          <t>01/11/1997 (28)</t>
         </is>
       </c>
       <c r="F365" t="inlineStr">
@@ -18823,7 +18823,7 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>04/08/1992 (33)</t>
         </is>
       </c>
       <c r="F376" t="inlineStr">
@@ -18872,7 +18872,7 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>18/12/1998 (26)</t>
         </is>
       </c>
       <c r="F377" t="inlineStr">
@@ -18921,7 +18921,7 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>16/01/1994 (31)</t>
         </is>
       </c>
       <c r="F378" t="inlineStr">
@@ -18970,7 +18970,7 @@
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20/12/2003 (21)</t>
         </is>
       </c>
       <c r="F379" t="inlineStr">
@@ -19019,7 +19019,7 @@
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>30/06/1998 (27)</t>
         </is>
       </c>
       <c r="F380" t="inlineStr">
@@ -19068,7 +19068,7 @@
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>23/01/1999 (26)</t>
         </is>
       </c>
       <c r="F381" t="inlineStr">
@@ -19117,7 +19117,7 @@
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>09/04/1999 (26)</t>
         </is>
       </c>
       <c r="F382" t="inlineStr">
@@ -19166,7 +19166,7 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18/07/2006 (19)</t>
         </is>
       </c>
       <c r="F383" t="inlineStr">
@@ -19209,11 +19209,11 @@
         </is>
       </c>
       <c r="D384" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>29/10/2004 (21)</t>
         </is>
       </c>
       <c r="F384" t="inlineStr">
@@ -19262,7 +19262,7 @@
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>04/02/1999 (26)</t>
         </is>
       </c>
       <c r="F385" t="inlineStr">
@@ -19311,7 +19311,7 @@
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>07/03/2006 (19)</t>
         </is>
       </c>
       <c r="F386" t="inlineStr">
@@ -19358,7 +19358,7 @@
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>16/08/1995 (30)</t>
         </is>
       </c>
       <c r="F387" t="inlineStr">
@@ -19407,7 +19407,7 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>24/02/1987 (38)</t>
         </is>
       </c>
       <c r="F388" t="inlineStr">
@@ -19456,7 +19456,7 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>02/08/2004 (21)</t>
         </is>
       </c>
       <c r="F389" t="inlineStr">
@@ -19505,7 +19505,7 @@
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>27/01/1994 (31)</t>
         </is>
       </c>
       <c r="F390" t="inlineStr">
@@ -19554,7 +19554,7 @@
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>13/04/1999 (26)</t>
         </is>
       </c>
       <c r="F391" t="inlineStr">
@@ -19603,7 +19603,7 @@
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>19/05/1998 (27)</t>
         </is>
       </c>
       <c r="F392" t="inlineStr">
@@ -19652,7 +19652,7 @@
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>02/04/1994 (31)</t>
         </is>
       </c>
       <c r="F393" t="inlineStr">
@@ -19701,7 +19701,7 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>20/05/1996 (29)</t>
         </is>
       </c>
       <c r="F394" t="inlineStr">
@@ -19750,7 +19750,7 @@
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>20/09/1999 (26)</t>
         </is>
       </c>
       <c r="F395" t="inlineStr">
@@ -19799,7 +19799,7 @@
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>28/09/2004 (21)</t>
         </is>
       </c>
       <c r="F396" t="inlineStr">
@@ -19848,7 +19848,7 @@
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>26/10/2004 (21)</t>
         </is>
       </c>
       <c r="F397" t="inlineStr">
@@ -19893,11 +19893,11 @@
         </is>
       </c>
       <c r="D398" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>08/11/2004 (21)</t>
         </is>
       </c>
       <c r="F398" t="inlineStr">
@@ -19946,7 +19946,7 @@
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>03/04/2000 (25)</t>
         </is>
       </c>
       <c r="F399" t="inlineStr">
@@ -19995,7 +19995,7 @@
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>07/04/1997 (28)</t>
         </is>
       </c>
       <c r="F400" t="inlineStr">
@@ -20044,7 +20044,7 @@
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>28/02/2002 (23)</t>
         </is>
       </c>
       <c r="F401" t="inlineStr">
@@ -20093,7 +20093,7 @@
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>07/09/1996 (29)</t>
         </is>
       </c>
       <c r="F402" t="inlineStr">
@@ -20142,7 +20142,7 @@
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>06/03/2007 (18)</t>
         </is>
       </c>
       <c r="F403" t="inlineStr">
@@ -23505,7 +23505,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Maxim Dal</t>
+          <t>Kacper Potulski</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -23515,28 +23515,28 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D472" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F472" t="inlineStr">
         <is>
-          <t>Germany, Türkiye</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="G472" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>€150k</t>
+          <t>€200k</t>
         </is>
       </c>
       <c r="I472" t="inlineStr">
@@ -23554,38 +23554,38 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Phillipp Mwene</t>
+          <t>Maxim Dal</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Left-Back</t>
+          <t>Centre-Back</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D473" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F473" t="inlineStr">
         <is>
-          <t>Austria, Kenya</t>
+          <t>Germany, Türkiye</t>
         </is>
       </c>
       <c r="G473" t="n">
-        <v>1800000</v>
+        <v>150000</v>
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>€1.80m</t>
+          <t>€150k</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
@@ -23603,7 +23603,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Kasey Bos</t>
+          <t>Phillipp Mwene</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -23613,28 +23613,28 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D474" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F474" t="inlineStr">
         <is>
-          <t>Australia, Netherlands</t>
+          <t>Austria, Kenya</t>
         </is>
       </c>
       <c r="G474" t="n">
-        <v>450000</v>
+        <v>1800000</v>
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>€450k</t>
+          <t>€1.80m</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
@@ -23652,38 +23652,38 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Anthony Caci</t>
+          <t>Kasey Bos</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Right-Back</t>
+          <t>Left-Back</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D475" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F475" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Australia, Netherlands</t>
         </is>
       </c>
       <c r="G475" t="n">
-        <v>12000000</v>
+        <v>450000</v>
       </c>
       <c r="H475" t="inlineStr">
         <is>
-          <t>€12.00m</t>
+          <t>€450k</t>
         </is>
       </c>
       <c r="I475" t="inlineStr">
@@ -23701,7 +23701,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Nikolas Veratschnig</t>
+          <t>Anthony Caci</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -23711,28 +23711,28 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D476" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F476" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>France</t>
         </is>
       </c>
       <c r="G476" t="n">
-        <v>1500000</v>
+        <v>12000000</v>
       </c>
       <c r="H476" t="inlineStr">
         <is>
-          <t>€1.50m</t>
+          <t>€12.00m</t>
         </is>
       </c>
       <c r="I476" t="inlineStr">
@@ -23750,7 +23750,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Silvan Widmer</t>
+          <t>Nikolas Veratschnig</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -23760,28 +23760,28 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D477" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F477" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="G477" t="n">
-        <v>1200000</v>
+        <v>1500000</v>
       </c>
       <c r="H477" t="inlineStr">
         <is>
-          <t>€1.20m</t>
+          <t>€1.50m</t>
         </is>
       </c>
       <c r="I477" t="inlineStr">
@@ -23799,38 +23799,38 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Kaishu Sano</t>
+          <t>Silvan Widmer</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Defensive Midfield</t>
+          <t>Right-Back</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D478" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F478" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="G478" t="n">
-        <v>25000000</v>
+        <v>1200000</v>
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>€25.00m</t>
+          <t>€1.20m</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
@@ -23848,7 +23848,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Lennard Maloney</t>
+          <t>Kaishu Sano</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -23858,28 +23858,28 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D479" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t>United States, Germany</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="G479" t="n">
-        <v>3500000</v>
+        <v>25000000</v>
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>€3.50m</t>
+          <t>€25.00m</t>
         </is>
       </c>
       <c r="I479" t="inlineStr">
@@ -23897,7 +23897,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>Sota Kawasaki</t>
+          <t>Lennard Maloney</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -23907,28 +23907,28 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D480" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F480" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>United States, Germany</t>
         </is>
       </c>
       <c r="G480" t="n">
-        <v>1200000</v>
+        <v>3500000</v>
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>€1.20m</t>
+          <t>€3.50m</t>
         </is>
       </c>
       <c r="I480" t="inlineStr">
@@ -23946,7 +23946,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Niklas Tauer</t>
+          <t>Sota Kawasaki</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
@@ -23956,7 +23956,7 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D481" t="n">
@@ -23969,15 +23969,15 @@
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="G481" t="n">
-        <v>500000</v>
+        <v>1200000</v>
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>€500k</t>
+          <t>€1.20m</t>
         </is>
       </c>
       <c r="I481" t="inlineStr">
@@ -23995,25 +23995,25 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>Nadiem Amiri</t>
+          <t>Niklas Tauer</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Central Midfield</t>
+          <t>Defensive Midfield</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D482" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F482" t="inlineStr">
@@ -24022,11 +24022,11 @@
         </is>
       </c>
       <c r="G482" t="n">
-        <v>20000000</v>
+        <v>500000</v>
       </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t>€20.00m</t>
+          <t>€500k</t>
         </is>
       </c>
       <c r="I482" t="inlineStr">
@@ -24044,7 +24044,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>Daniel Gleiber</t>
+          <t>Nadiem Amiri</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -24054,15 +24054,15 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D483" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F483" t="inlineStr">
@@ -24071,11 +24071,11 @@
         </is>
       </c>
       <c r="G483" t="n">
-        <v>225000</v>
+        <v>20000000</v>
       </c>
       <c r="H483" t="inlineStr">
         <is>
-          <t>€225k</t>
+          <t>€20.00m</t>
         </is>
       </c>
       <c r="I483" t="inlineStr">
@@ -24093,38 +24093,38 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Paul Nebel</t>
+          <t>Daniel Gleiber</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Attacking Midfield</t>
+          <t>Central Midfield</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D484" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F484" t="inlineStr">
         <is>
-          <t>Germany, Ireland</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G484" t="n">
-        <v>24000000</v>
+        <v>225000</v>
       </c>
       <c r="H484" t="inlineStr">
         <is>
-          <t>€24.00m</t>
+          <t>€225k</t>
         </is>
       </c>
       <c r="I484" t="inlineStr">
@@ -24142,7 +24142,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>Jae-sung Lee</t>
+          <t>Paul Nebel</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -24152,28 +24152,28 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D485" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F485" t="inlineStr">
         <is>
-          <t>Korea, South</t>
+          <t>Germany, Ireland</t>
         </is>
       </c>
       <c r="G485" t="n">
-        <v>2500000</v>
+        <v>24000000</v>
       </c>
       <c r="H485" t="inlineStr">
         <is>
-          <t>€2.50m</t>
+          <t>€24.00m</t>
         </is>
       </c>
       <c r="I485" t="inlineStr">
@@ -24191,38 +24191,38 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Arnaud Nordin</t>
+          <t>Jae-sung Lee</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Right Winger</t>
+          <t>Attacking Midfield</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D486" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>France, Martinique</t>
+          <t>Korea, South</t>
         </is>
       </c>
       <c r="G486" t="n">
-        <v>5000000</v>
+        <v>2500000</v>
       </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>€5.00m</t>
+          <t>€2.50m</t>
         </is>
       </c>
       <c r="I486" t="inlineStr">
@@ -24240,38 +24240,38 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Armindo Sieb</t>
+          <t>Arnaud Nordin</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Second Striker</t>
+          <t>Right Winger</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D487" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t>Germany, Mozambique</t>
+          <t>France, Martinique</t>
         </is>
       </c>
       <c r="G487" t="n">
-        <v>4000000</v>
+        <v>5000000</v>
       </c>
       <c r="H487" t="inlineStr">
         <is>
-          <t>€4.00m</t>
+          <t>€5.00m</t>
         </is>
       </c>
       <c r="I487" t="inlineStr">
@@ -24289,38 +24289,38 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Nelson Weiper</t>
+          <t>Armindo Sieb</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Centre-Forward</t>
+          <t>Second Striker</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D488" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>Germany, Albania</t>
+          <t>Germany, Mozambique</t>
         </is>
       </c>
       <c r="G488" t="n">
-        <v>15000000</v>
+        <v>4000000</v>
       </c>
       <c r="H488" t="inlineStr">
         <is>
-          <t>€15.00m</t>
+          <t>€4.00m</t>
         </is>
       </c>
       <c r="I488" t="inlineStr">
@@ -24338,7 +24338,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Benedict Hollerbach</t>
+          <t>Nelson Weiper</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
@@ -24348,28 +24348,28 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D489" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Germany, Albania</t>
         </is>
       </c>
       <c r="G489" t="n">
-        <v>12000000</v>
+        <v>15000000</v>
       </c>
       <c r="H489" t="inlineStr">
         <is>
-          <t>€12.00m</t>
+          <t>€15.00m</t>
         </is>
       </c>
       <c r="I489" t="inlineStr">
@@ -24387,7 +24387,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>William Bøving</t>
+          <t>Benedict Hollerbach</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
@@ -24397,28 +24397,28 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D490" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F490" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G490" t="n">
-        <v>8000000</v>
+        <v>12000000</v>
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>€8.00m</t>
+          <t>€12.00m</t>
         </is>
       </c>
       <c r="I490" t="inlineStr">
@@ -24436,7 +24436,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Ben Bobzien</t>
+          <t>William Bøving</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
@@ -24446,7 +24446,7 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D491" t="n">
@@ -24459,15 +24459,15 @@
       </c>
       <c r="F491" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="G491" t="n">
-        <v>1200000</v>
+        <v>8000000</v>
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>€1.20m</t>
+          <t>€8.00m</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
@@ -24485,25 +24485,25 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>Jonas Krumrey</t>
+          <t>Ben Bobzien</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Goalkeeper</t>
+          <t>Centre-Forward</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D492" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F492" t="inlineStr">
@@ -24512,16 +24512,16 @@
         </is>
       </c>
       <c r="G492" t="n">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>€800k</t>
+          <t>€1.20m</t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>holstein kiel</t>
+          <t>1. fsv mainz 05</t>
         </is>
       </c>
       <c r="J492" t="inlineStr"/>
@@ -24534,7 +24534,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>Timon Weiner</t>
+          <t>Jonas Krumrey</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
@@ -24544,15 +24544,15 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D493" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F493" t="inlineStr">
@@ -24561,11 +24561,11 @@
         </is>
       </c>
       <c r="G493" t="n">
-        <v>500000</v>
+        <v>800000</v>
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>€500k</t>
+          <t>€800k</t>
         </is>
       </c>
       <c r="I493" t="inlineStr">
@@ -24583,7 +24583,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Marcel Engelhardt</t>
+          <t>Timon Weiner</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
@@ -24593,15 +24593,15 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D494" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F494" t="inlineStr">
@@ -24610,11 +24610,11 @@
         </is>
       </c>
       <c r="G494" t="n">
-        <v>175000</v>
+        <v>500000</v>
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>€175k</t>
+          <t>€500k</t>
         </is>
       </c>
       <c r="I494" t="inlineStr">
@@ -24632,7 +24632,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>Lio Rothenhagen</t>
+          <t>Marcel Engelhardt</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
@@ -24642,15 +24642,15 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D495" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F495" t="inlineStr">
@@ -24659,11 +24659,11 @@
         </is>
       </c>
       <c r="G495" t="n">
-        <v>100000</v>
+        <v>175000</v>
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>€100k</t>
+          <t>€175k</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
@@ -24681,7 +24681,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Tyler Doğan</t>
+          <t>Lio Rothenhagen</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
@@ -24691,7 +24691,7 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D496" t="n">
@@ -24704,15 +24704,15 @@
       </c>
       <c r="F496" t="inlineStr">
         <is>
-          <t>Türkiye, Germany</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G496" t="n">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>€75k</t>
+          <t>€100k</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
@@ -24730,38 +24730,38 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>David Zec</t>
+          <t>Tyler Doğan</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Centre-Back</t>
+          <t>Goalkeeper</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D497" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F497" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Türkiye, Germany</t>
         </is>
       </c>
       <c r="G497" t="n">
-        <v>2500000</v>
+        <v>75000</v>
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>€2.50m</t>
+          <t>€75k</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
@@ -24779,7 +24779,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>Marko Ivezic</t>
+          <t>David Zec</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
@@ -24789,28 +24789,28 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D498" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F498" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="G498" t="n">
-        <v>2000000</v>
+        <v>2500000</v>
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>€2.00m</t>
+          <t>€2.50m</t>
         </is>
       </c>
       <c r="I498" t="inlineStr">
@@ -24828,7 +24828,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Frederik Roslyng</t>
+          <t>Marko Ivezic</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
@@ -24838,28 +24838,28 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D499" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F499" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="G499" t="n">
-        <v>1200000</v>
+        <v>2000000</v>
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>€1.20m</t>
+          <t>€2.00m</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
@@ -24877,7 +24877,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>Marco Komenda</t>
+          <t>Frederik Roslyng</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
@@ -24887,28 +24887,28 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D500" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F500" t="inlineStr">
         <is>
-          <t>Germany, Croatia</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="G500" t="n">
-        <v>800000</v>
+        <v>1200000</v>
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>€800k</t>
+          <t>€1.20m</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
@@ -24926,7 +24926,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Ivan Nekic</t>
+          <t>Marco Komenda</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
@@ -24936,20 +24936,20 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D501" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F501" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Germany, Croatia</t>
         </is>
       </c>
       <c r="G501" t="n">
@@ -24975,7 +24975,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Patrick Erras</t>
+          <t>Ivan Nekic</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
@@ -24985,28 +24985,28 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D502" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E502" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F502" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="G502" t="n">
-        <v>600000</v>
+        <v>800000</v>
       </c>
       <c r="H502" t="inlineStr">
         <is>
-          <t>€600k</t>
+          <t>€800k</t>
         </is>
       </c>
       <c r="I502" t="inlineStr">
@@ -25024,7 +25024,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>Mladen Cvjetinovic</t>
+          <t>Patrick Erras</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
@@ -25034,20 +25034,20 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D503" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E503" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F503" t="inlineStr">
         <is>
-          <t>Bosnia-Herzegovina, Germany</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G503" t="n">
@@ -25073,7 +25073,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Carl Johansson</t>
+          <t>Mladen Cvjetinovic</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
@@ -25083,28 +25083,28 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D504" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E504" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F504" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Bosnia-Herzegovina, Germany</t>
         </is>
       </c>
       <c r="G504" t="n">
-        <v>500000</v>
+        <v>600000</v>
       </c>
       <c r="H504" t="inlineStr">
         <is>
-          <t>€500k</t>
+          <t>€600k</t>
         </is>
       </c>
       <c r="I504" t="inlineStr">
@@ -25122,38 +25122,38 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>John Tolkin</t>
+          <t>Carl Johansson</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Left-Back</t>
+          <t>Centre-Back</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D505" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E505" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F505" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="G505" t="n">
-        <v>2500000</v>
+        <v>500000</v>
       </c>
       <c r="H505" t="inlineStr">
         <is>
-          <t>€2.50m</t>
+          <t>€500k</t>
         </is>
       </c>
       <c r="I505" t="inlineStr">
@@ -25171,7 +25171,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Leon Parduzi</t>
+          <t>John Tolkin</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
@@ -25181,26 +25181,28 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D506" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E506" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F506" t="inlineStr">
         <is>
-          <t>Kosovo, Germany</t>
-        </is>
-      </c>
-      <c r="G506" t="inlineStr"/>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="G506" t="n">
+        <v>2500000</v>
+      </c>
       <c r="H506" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>€2.50m</t>
         </is>
       </c>
       <c r="I506" t="inlineStr">
@@ -25218,38 +25220,36 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Lasse Rosenboom</t>
+          <t>Leon Parduzi</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>Right-Back</t>
+          <t>Left-Back</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D507" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E507" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F507" t="inlineStr">
         <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="G507" t="n">
-        <v>1200000</v>
-      </c>
+          <t>Kosovo, Germany</t>
+        </is>
+      </c>
+      <c r="G507" t="inlineStr"/>
       <c r="H507" t="inlineStr">
         <is>
-          <t>€1.20m</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I507" t="inlineStr">
@@ -25267,7 +25267,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Niklas Niehoff</t>
+          <t>Lasse Rosenboom</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
@@ -25277,15 +25277,15 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D508" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E508" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F508" t="inlineStr">
@@ -25294,11 +25294,11 @@
         </is>
       </c>
       <c r="G508" t="n">
-        <v>450000</v>
+        <v>1200000</v>
       </c>
       <c r="H508" t="inlineStr">
         <is>
-          <t>€450k</t>
+          <t>€1.20m</t>
         </is>
       </c>
       <c r="I508" t="inlineStr">
@@ -25316,38 +25316,38 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Kasper Davidsen</t>
+          <t>Niklas Niehoff</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Defensive Midfield</t>
+          <t>Right-Back</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D509" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E509" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F509" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G509" t="n">
-        <v>1600000</v>
+        <v>450000</v>
       </c>
       <c r="H509" t="inlineStr">
         <is>
-          <t>€1.60m</t>
+          <t>€450k</t>
         </is>
       </c>
       <c r="I509" t="inlineStr">
@@ -25365,38 +25365,38 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Robert Wagner</t>
+          <t>Kasper Davidsen</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>Central Midfield</t>
+          <t>Defensive Midfield</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D510" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E510" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F510" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="G510" t="n">
-        <v>3000000</v>
+        <v>1600000</v>
       </c>
       <c r="H510" t="inlineStr">
         <is>
-          <t>€3.00m</t>
+          <t>€1.60m</t>
         </is>
       </c>
       <c r="I510" t="inlineStr">
@@ -25414,7 +25414,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Magnus Knudsen</t>
+          <t>Robert Wagner</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
@@ -25424,28 +25424,28 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D511" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E511" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F511" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G511" t="n">
-        <v>2500000</v>
+        <v>3000000</v>
       </c>
       <c r="H511" t="inlineStr">
         <is>
-          <t>€2.50m</t>
+          <t>€3.00m</t>
         </is>
       </c>
       <c r="I511" t="inlineStr">
@@ -25463,7 +25463,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Stefan Schwab</t>
+          <t>Magnus Knudsen</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
@@ -25473,28 +25473,28 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D512" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E512" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F512" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="G512" t="n">
-        <v>600000</v>
+        <v>2500000</v>
       </c>
       <c r="H512" t="inlineStr">
         <is>
-          <t>€600k</t>
+          <t>€2.50m</t>
         </is>
       </c>
       <c r="I512" t="inlineStr">
@@ -25512,7 +25512,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Hamza Muqaj</t>
+          <t>Stefan Schwab</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
@@ -25522,28 +25522,28 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D513" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E513" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F513" t="inlineStr">
         <is>
-          <t>Kosovo, Germany</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="G513" t="n">
-        <v>125000</v>
+        <v>600000</v>
       </c>
       <c r="H513" t="inlineStr">
         <is>
-          <t>€125k</t>
+          <t>€600k</t>
         </is>
       </c>
       <c r="I513" t="inlineStr">
@@ -25561,38 +25561,38 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Jonas Therkelsen</t>
+          <t>Hamza Muqaj</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Attacking Midfield</t>
+          <t>Central Midfield</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D514" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E514" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F514" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Kosovo, Germany</t>
         </is>
       </c>
       <c r="G514" t="n">
-        <v>2200000</v>
+        <v>125000</v>
       </c>
       <c r="H514" t="inlineStr">
         <is>
-          <t>€2.20m</t>
+          <t>€125k</t>
         </is>
       </c>
       <c r="I514" t="inlineStr">
@@ -25610,38 +25610,38 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Andu Kelati</t>
+          <t>Jonas Therkelsen</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Left Winger</t>
+          <t>Attacking Midfield</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D515" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E515" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F515" t="inlineStr">
         <is>
-          <t>Germany, Eritrea</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="G515" t="n">
-        <v>800000</v>
+        <v>2200000</v>
       </c>
       <c r="H515" t="inlineStr">
         <is>
-          <t>€800k</t>
+          <t>€2.20m</t>
         </is>
       </c>
       <c r="I515" t="inlineStr">
@@ -25659,7 +25659,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Louis Köster</t>
+          <t>Andu Kelati</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
@@ -25669,28 +25669,28 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D516" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E516" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F516" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Germany, Eritrea</t>
         </is>
       </c>
       <c r="G516" t="n">
-        <v>150000</v>
+        <v>800000</v>
       </c>
       <c r="H516" t="inlineStr">
         <is>
-          <t>€150k</t>
+          <t>€800k</t>
         </is>
       </c>
       <c r="I516" t="inlineStr">
@@ -25708,38 +25708,38 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Alexander Bernhardsson</t>
+          <t>Louis Köster</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Right Winger</t>
+          <t>Left Winger</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D517" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E517" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F517" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G517" t="n">
-        <v>3000000</v>
+        <v>150000</v>
       </c>
       <c r="H517" t="inlineStr">
         <is>
-          <t>€3.00m</t>
+          <t>€150k</t>
         </is>
       </c>
       <c r="I517" t="inlineStr">
@@ -25757,7 +25757,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Adrián Kaprálik</t>
+          <t>Alexander Bernhardsson</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
@@ -25767,28 +25767,28 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D518" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E518" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F518" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="G518" t="n">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="H518" t="inlineStr">
         <is>
-          <t>€1.50m</t>
+          <t>€3.00m</t>
         </is>
       </c>
       <c r="I518" t="inlineStr">
@@ -25806,7 +25806,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Luca Prasse</t>
+          <t>Adrián Kaprálik</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
@@ -25816,28 +25816,28 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D519" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E519" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F519" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="G519" t="n">
-        <v>250000</v>
+        <v>1500000</v>
       </c>
       <c r="H519" t="inlineStr">
         <is>
-          <t>€250k</t>
+          <t>€1.50m</t>
         </is>
       </c>
       <c r="I519" t="inlineStr">
@@ -25855,25 +25855,25 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Phil Harres</t>
+          <t>Luca Prasse</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Centre-Forward</t>
+          <t>Right Winger</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D520" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E520" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F520" t="inlineStr">
@@ -25882,11 +25882,11 @@
         </is>
       </c>
       <c r="G520" t="n">
-        <v>3500000</v>
+        <v>250000</v>
       </c>
       <c r="H520" t="inlineStr">
         <is>
-          <t>€3.50m</t>
+          <t>€250k</t>
         </is>
       </c>
       <c r="I520" t="inlineStr">
@@ -25904,7 +25904,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Steven Skrzybski</t>
+          <t>Phil Harres</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
@@ -25914,15 +25914,15 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D521" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E521" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F521" t="inlineStr">
@@ -25931,11 +25931,11 @@
         </is>
       </c>
       <c r="G521" t="n">
-        <v>1000000</v>
+        <v>3500000</v>
       </c>
       <c r="H521" t="inlineStr">
         <is>
-          <t>€1.00m</t>
+          <t>€3.50m</t>
         </is>
       </c>
       <c r="I521" t="inlineStr">
@@ -25953,7 +25953,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Marcus Müller</t>
+          <t>Steven Skrzybski</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
@@ -25963,15 +25963,15 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D522" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E522" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F522" t="inlineStr">
@@ -25980,11 +25980,11 @@
         </is>
       </c>
       <c r="G522" t="n">
-        <v>500000</v>
+        <v>1000000</v>
       </c>
       <c r="H522" t="inlineStr">
         <is>
-          <t>€500k</t>
+          <t>€1.00m</t>
         </is>
       </c>
       <c r="I522" t="inlineStr">
@@ -26002,43 +26002,43 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Nikola Vasilj</t>
+          <t>Marcus Müller</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Goalkeeper</t>
+          <t>Centre-Forward</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D523" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E523" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F523" t="inlineStr">
         <is>
-          <t>Bosnia-Herzegovina, Croatia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G523" t="n">
-        <v>4500000</v>
+        <v>500000</v>
       </c>
       <c r="H523" t="inlineStr">
         <is>
-          <t>€4.50m</t>
+          <t>€500k</t>
         </is>
       </c>
       <c r="I523" t="inlineStr">
         <is>
-          <t>fc st. pauli</t>
+          <t>holstein kiel</t>
         </is>
       </c>
       <c r="J523" t="inlineStr"/>
@@ -26051,7 +26051,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Ben Voll</t>
+          <t>Nikola Vasilj</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
@@ -26061,28 +26061,28 @@
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D524" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E524" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F524" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Bosnia-Herzegovina, Croatia</t>
         </is>
       </c>
       <c r="G524" t="n">
-        <v>500000</v>
+        <v>4500000</v>
       </c>
       <c r="H524" t="inlineStr">
         <is>
-          <t>€500k</t>
+          <t>€4.50m</t>
         </is>
       </c>
       <c r="I524" t="inlineStr">
@@ -26100,7 +26100,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>Simon Spari</t>
+          <t>Ben Voll</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
@@ -26110,28 +26110,28 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D525" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E525" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F525" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G525" t="n">
-        <v>350000</v>
+        <v>500000</v>
       </c>
       <c r="H525" t="inlineStr">
         <is>
-          <t>€350k</t>
+          <t>€500k</t>
         </is>
       </c>
       <c r="I525" t="inlineStr">
@@ -26149,38 +26149,38 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Eric Smith</t>
+          <t>Simon Spari</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Centre-Back</t>
+          <t>Goalkeeper</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D526" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E526" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F526" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="G526" t="n">
-        <v>6000000</v>
+        <v>350000</v>
       </c>
       <c r="H526" t="inlineStr">
         <is>
-          <t>€6.00m</t>
+          <t>€350k</t>
         </is>
       </c>
       <c r="I526" t="inlineStr">
@@ -26198,7 +26198,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>David Nemeth</t>
+          <t>Eric Smith</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
@@ -26208,28 +26208,28 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D527" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E527" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F527" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="G527" t="n">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="H527" t="inlineStr">
         <is>
-          <t>€4.00m</t>
+          <t>€6.00m</t>
         </is>
       </c>
       <c r="I527" t="inlineStr">
@@ -26247,7 +26247,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>Hauke Wahl</t>
+          <t>David Nemeth</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
@@ -26257,28 +26257,28 @@
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D528" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E528" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F528" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="G528" t="n">
-        <v>1500000</v>
+        <v>4000000</v>
       </c>
       <c r="H528" t="inlineStr">
         <is>
-          <t>€1.50m</t>
+          <t>€4.00m</t>
         </is>
       </c>
       <c r="I528" t="inlineStr">
@@ -26296,7 +26296,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Karol Mets</t>
+          <t>Hauke Wahl</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
@@ -26306,28 +26306,28 @@
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D529" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E529" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F529" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G529" t="n">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H529" t="inlineStr">
         <is>
-          <t>€900k</t>
+          <t>€1.50m</t>
         </is>
       </c>
       <c r="I529" t="inlineStr">
@@ -26345,7 +26345,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>Adam Dzwigala</t>
+          <t>Karol Mets</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
@@ -26355,20 +26355,20 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D530" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E530" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F530" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="G530" t="n">
@@ -26394,7 +26394,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Jannik Robatsch</t>
+          <t>Adam Dzwigala</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
@@ -26404,28 +26404,28 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D531" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E531" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F531" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="G531" t="n">
-        <v>600000</v>
+        <v>900000</v>
       </c>
       <c r="H531" t="inlineStr">
         <is>
-          <t>€600k</t>
+          <t>€900k</t>
         </is>
       </c>
       <c r="I531" t="inlineStr">
@@ -26443,38 +26443,38 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Louis Oppie</t>
+          <t>Jannik Robatsch</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Left-Back</t>
+          <t>Centre-Back</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D532" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E532" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F532" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="G532" t="n">
-        <v>3000000</v>
+        <v>600000</v>
       </c>
       <c r="H532" t="inlineStr">
         <is>
-          <t>€3.00m</t>
+          <t>€600k</t>
         </is>
       </c>
       <c r="I532" t="inlineStr">
@@ -26492,7 +26492,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>Lars Ritzka</t>
+          <t>Louis Oppie</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
@@ -26502,15 +26502,15 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D533" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E533" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F533" t="inlineStr">
@@ -26519,11 +26519,11 @@
         </is>
       </c>
       <c r="G533" t="n">
-        <v>1000000</v>
+        <v>3000000</v>
       </c>
       <c r="H533" t="inlineStr">
         <is>
-          <t>€1.00m</t>
+          <t>€3.00m</t>
         </is>
       </c>
       <c r="I533" t="inlineStr">
@@ -26541,38 +26541,38 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Manolis Saliakas</t>
+          <t>Lars Ritzka</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Right-Back</t>
+          <t>Left-Back</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D534" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E534" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F534" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G534" t="n">
-        <v>3000000</v>
+        <v>1000000</v>
       </c>
       <c r="H534" t="inlineStr">
         <is>
-          <t>€3.00m</t>
+          <t>€1.00m</t>
         </is>
       </c>
       <c r="I534" t="inlineStr">
@@ -26590,7 +26590,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>Arkadiusz Pyrka</t>
+          <t>Manolis Saliakas</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
@@ -26600,28 +26600,28 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D535" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E535" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F535" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="G535" t="n">
-        <v>2000000</v>
+        <v>3000000</v>
       </c>
       <c r="H535" t="inlineStr">
         <is>
-          <t>€2.00m</t>
+          <t>€3.00m</t>
         </is>
       </c>
       <c r="I535" t="inlineStr">
@@ -26639,7 +26639,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Fin Stevens</t>
+          <t>Arkadiusz Pyrka</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
@@ -26649,28 +26649,28 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D536" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E536" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F536" t="inlineStr">
         <is>
-          <t>Wales, England</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="G536" t="n">
-        <v>500000</v>
+        <v>2000000</v>
       </c>
       <c r="H536" t="inlineStr">
         <is>
-          <t>€500k</t>
+          <t>€2.00m</t>
         </is>
       </c>
       <c r="I536" t="inlineStr">
@@ -26688,38 +26688,38 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>James Sands</t>
+          <t>Fin Stevens</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>Defensive Midfield</t>
+          <t>Right-Back</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D537" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E537" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F537" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Wales, England</t>
         </is>
       </c>
       <c r="G537" t="n">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="H537" t="inlineStr">
         <is>
-          <t>€4.00m</t>
+          <t>€500k</t>
         </is>
       </c>
       <c r="I537" t="inlineStr">
@@ -26737,7 +26737,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Marwin Schmitz</t>
+          <t>James Sands</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
@@ -26747,28 +26747,28 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D538" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E538" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F538" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="G538" t="n">
-        <v>200000</v>
+        <v>4000000</v>
       </c>
       <c r="H538" t="inlineStr">
         <is>
-          <t>€200k</t>
+          <t>€4.00m</t>
         </is>
       </c>
       <c r="I538" t="inlineStr">
@@ -26786,38 +26786,38 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Joel Chima Fujita</t>
+          <t>Marwin Schmitz</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>Central Midfield</t>
+          <t>Defensive Midfield</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D539" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E539" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F539" t="inlineStr">
         <is>
-          <t>Japan, Nigeria</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G539" t="n">
-        <v>6000000</v>
+        <v>200000</v>
       </c>
       <c r="H539" t="inlineStr">
         <is>
-          <t>€6.00m</t>
+          <t>€200k</t>
         </is>
       </c>
       <c r="I539" t="inlineStr">
@@ -26835,7 +26835,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>Connor Metcalfe</t>
+          <t>Joel Chima Fujita</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
@@ -26845,28 +26845,28 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D540" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E540" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F540" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Japan, Nigeria</t>
         </is>
       </c>
       <c r="G540" t="n">
-        <v>2500000</v>
+        <v>6000000</v>
       </c>
       <c r="H540" t="inlineStr">
         <is>
-          <t>€2.50m</t>
+          <t>€6.00m</t>
         </is>
       </c>
       <c r="I540" t="inlineStr">
@@ -26884,7 +26884,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Jackson Irvine</t>
+          <t>Connor Metcalfe</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
@@ -26894,28 +26894,28 @@
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D541" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E541" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F541" t="inlineStr">
         <is>
-          <t>Australia, Scotland</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G541" t="n">
-        <v>2000000</v>
+        <v>2500000</v>
       </c>
       <c r="H541" t="inlineStr">
         <is>
-          <t>€2.00m</t>
+          <t>€2.50m</t>
         </is>
       </c>
       <c r="I541" t="inlineStr">
@@ -26933,7 +26933,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>Erik Ahlstrand</t>
+          <t>Jackson Irvine</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
@@ -26943,28 +26943,28 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D542" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E542" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F542" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Australia, Scotland</t>
         </is>
       </c>
       <c r="G542" t="n">
-        <v>500000</v>
+        <v>2000000</v>
       </c>
       <c r="H542" t="inlineStr">
         <is>
-          <t>€500k</t>
+          <t>€2.00m</t>
         </is>
       </c>
       <c r="I542" t="inlineStr">
@@ -26982,7 +26982,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>Nick Schmidt</t>
+          <t>Erik Ahlstrand</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
@@ -26992,28 +26992,28 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D543" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E543" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F543" t="inlineStr">
         <is>
-          <t>Japan, Germany</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="G543" t="n">
-        <v>125000</v>
+        <v>500000</v>
       </c>
       <c r="H543" t="inlineStr">
         <is>
-          <t>€125k</t>
+          <t>€500k</t>
         </is>
       </c>
       <c r="I543" t="inlineStr">
@@ -27031,38 +27031,38 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Danel Sinani</t>
+          <t>Nick Schmidt</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>Attacking Midfield</t>
+          <t>Central Midfield</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D544" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E544" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F544" t="inlineStr">
         <is>
-          <t>Luxembourg, Serbia</t>
+          <t>Japan, Germany</t>
         </is>
       </c>
       <c r="G544" t="n">
-        <v>3000000</v>
+        <v>125000</v>
       </c>
       <c r="H544" t="inlineStr">
         <is>
-          <t>€3.00m</t>
+          <t>€125k</t>
         </is>
       </c>
       <c r="I544" t="inlineStr">
@@ -27080,17 +27080,17 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Mathias Pereira Lage</t>
+          <t>Danel Sinani</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>Left Winger</t>
+          <t>Attacking Midfield</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D545" t="n">
@@ -27103,15 +27103,15 @@
       </c>
       <c r="F545" t="inlineStr">
         <is>
-          <t>Portugal, France</t>
+          <t>Luxembourg, Serbia</t>
         </is>
       </c>
       <c r="G545" t="n">
-        <v>3500000</v>
+        <v>3000000</v>
       </c>
       <c r="H545" t="inlineStr">
         <is>
-          <t>€3.50m</t>
+          <t>€3.00m</t>
         </is>
       </c>
       <c r="I545" t="inlineStr">
@@ -27129,7 +27129,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Romeo Aigbekaen</t>
+          <t>Mathias Pereira Lage</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
@@ -27139,28 +27139,28 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D546" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E546" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F546" t="inlineStr">
         <is>
-          <t>Germany, Nigeria</t>
+          <t>Portugal, France</t>
         </is>
       </c>
       <c r="G546" t="n">
-        <v>100000</v>
+        <v>3500000</v>
       </c>
       <c r="H546" t="inlineStr">
         <is>
-          <t>€100k</t>
+          <t>€3.50m</t>
         </is>
       </c>
       <c r="I546" t="inlineStr">
@@ -27178,38 +27178,38 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Oladapo Afolayan</t>
+          <t>Romeo Aigbekaen</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>Right Winger</t>
+          <t>Left Winger</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D547" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E547" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F547" t="inlineStr">
         <is>
-          <t>England, Nigeria</t>
+          <t>Germany, Nigeria</t>
         </is>
       </c>
       <c r="G547" t="n">
-        <v>3000000</v>
+        <v>100000</v>
       </c>
       <c r="H547" t="inlineStr">
         <is>
-          <t>€3.00m</t>
+          <t>€100k</t>
         </is>
       </c>
       <c r="I547" t="inlineStr">
@@ -27227,38 +27227,38 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>Andréas Hountondji</t>
+          <t>Oladapo Afolayan</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>Centre-Forward</t>
+          <t>Right Winger</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D548" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E548" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F548" t="inlineStr">
         <is>
-          <t>Benin, France</t>
+          <t>England, Nigeria</t>
         </is>
       </c>
       <c r="G548" t="n">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="H548" t="inlineStr">
         <is>
-          <t>€5.00m</t>
+          <t>€3.00m</t>
         </is>
       </c>
       <c r="I548" t="inlineStr">
@@ -27276,7 +27276,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Martijn Kaars</t>
+          <t>Andréas Hountondji</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
@@ -27286,28 +27286,28 @@
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D549" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E549" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F549" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Benin, France</t>
         </is>
       </c>
       <c r="G549" t="n">
-        <v>4000000</v>
+        <v>5000000</v>
       </c>
       <c r="H549" t="inlineStr">
         <is>
-          <t>€4.00m</t>
+          <t>€5.00m</t>
         </is>
       </c>
       <c r="I549" t="inlineStr">
@@ -27325,7 +27325,7 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>Ricky-Jade Jones</t>
+          <t>Martijn Kaars</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
@@ -27335,28 +27335,28 @@
       </c>
       <c r="C550" t="inlineStr">
         <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D550" t="n">
+        <v>26</v>
+      </c>
+      <c r="E550" t="inlineStr">
+        <is>
           <t>26</t>
         </is>
       </c>
-      <c r="D550" t="n">
-        <v>22</v>
-      </c>
-      <c r="E550" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
       <c r="F550" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="G550" t="n">
-        <v>900000</v>
+        <v>4000000</v>
       </c>
       <c r="H550" t="inlineStr">
         <is>
-          <t>€900k</t>
+          <t>€4.00m</t>
         </is>
       </c>
       <c r="I550" t="inlineStr">
@@ -27374,7 +27374,7 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Abdoulie Ceesay</t>
+          <t>Ricky-Jade Jones</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
@@ -27384,28 +27384,28 @@
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D551" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E551" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F551" t="inlineStr">
         <is>
-          <t>The Gambia</t>
+          <t>England</t>
         </is>
       </c>
       <c r="G551" t="n">
-        <v>500000</v>
+        <v>900000</v>
       </c>
       <c r="H551" t="inlineStr">
         <is>
-          <t>€500k</t>
+          <t>€900k</t>
         </is>
       </c>
       <c r="I551" t="inlineStr">
@@ -27423,43 +27423,43 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>Daniel Peretz</t>
+          <t>Abdoulie Ceesay</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>Goalkeeper</t>
+          <t>Centre-Forward</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D552" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E552" t="inlineStr">
         <is>
-          <t>10/07/2000 (25)</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F552" t="inlineStr">
         <is>
-          <t>Israel, Germany</t>
+          <t>The Gambia</t>
         </is>
       </c>
       <c r="G552" t="n">
-        <v>2000000</v>
+        <v>500000</v>
       </c>
       <c r="H552" t="inlineStr">
         <is>
-          <t>€2.00m</t>
+          <t>€500k</t>
         </is>
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t>hamburger sv</t>
+          <t>fc st. pauli</t>
         </is>
       </c>
       <c r="J552" t="inlineStr"/>
@@ -27472,7 +27472,7 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>Daniel Heuer Fernandes</t>
+          <t>Daniel Peretz</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
@@ -27482,28 +27482,28 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D553" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E553" t="inlineStr">
         <is>
-          <t>13/11/1992 (32)</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F553" t="inlineStr">
         <is>
-          <t>Portugal, Germany</t>
+          <t>Israel, Germany</t>
         </is>
       </c>
       <c r="G553" t="n">
-        <v>1200000</v>
+        <v>2000000</v>
       </c>
       <c r="H553" t="inlineStr">
         <is>
-          <t>€1.20m</t>
+          <t>€2.00m</t>
         </is>
       </c>
       <c r="I553" t="inlineStr">
@@ -27521,7 +27521,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Hannes Hermann</t>
+          <t>Daniel Heuer Fernandes</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
@@ -27531,28 +27531,28 @@
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D554" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E554" t="inlineStr">
         <is>
-          <t>23/03/2005 (20)</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F554" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Portugal, Germany</t>
         </is>
       </c>
       <c r="G554" t="n">
-        <v>150000</v>
+        <v>1200000</v>
       </c>
       <c r="H554" t="inlineStr">
         <is>
-          <t>€150k</t>
+          <t>€1.20m</t>
         </is>
       </c>
       <c r="I554" t="inlineStr">
@@ -27570,7 +27570,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>Fernando Dickes</t>
+          <t>Hannes Hermann</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
@@ -27580,15 +27580,15 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D555" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E555" t="inlineStr">
         <is>
-          <t>13/10/2007 (18)</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F555" t="inlineStr">
@@ -27596,10 +27596,12 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="G555" t="inlineStr"/>
+      <c r="G555" t="n">
+        <v>150000</v>
+      </c>
       <c r="H555" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>€150k</t>
         </is>
       </c>
       <c r="I555" t="inlineStr">
@@ -27617,17 +27619,17 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>Luka Vuskovic</t>
+          <t>Fernando Dickes</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>Centre-Back</t>
+          <t>Goalkeeper</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D556" t="n">
@@ -27635,20 +27637,18 @@
       </c>
       <c r="E556" t="inlineStr">
         <is>
-          <t>24/02/2007 (18)</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F556" t="inlineStr">
         <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="G556" t="n">
-        <v>18000000</v>
-      </c>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="G556" t="inlineStr"/>
       <c r="H556" t="inlineStr">
         <is>
-          <t>€18.00m</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I556" t="inlineStr">
@@ -27666,7 +27666,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>Jordan Torunarigha</t>
+          <t>Luka Vuskovic</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
@@ -27676,28 +27676,28 @@
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D557" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E557" t="inlineStr">
         <is>
-          <t>07/08/1997 (28)</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F557" t="inlineStr">
         <is>
-          <t>Nigeria, Germany</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="G557" t="n">
-        <v>4000000</v>
+        <v>18000000</v>
       </c>
       <c r="H557" t="inlineStr">
         <is>
-          <t>€4.00m</t>
+          <t>€18.00m</t>
         </is>
       </c>
       <c r="I557" t="inlineStr">
@@ -27715,7 +27715,7 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>Daniel Elfadli</t>
+          <t>Jordan Torunarigha</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
@@ -27725,7 +27725,7 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D558" t="n">
@@ -27733,20 +27733,20 @@
       </c>
       <c r="E558" t="inlineStr">
         <is>
-          <t>06/04/1997 (28)</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F558" t="inlineStr">
         <is>
-          <t>Libya, Germany</t>
+          <t>Nigeria, Germany</t>
         </is>
       </c>
       <c r="G558" t="n">
-        <v>3500000</v>
+        <v>4000000</v>
       </c>
       <c r="H558" t="inlineStr">
         <is>
-          <t>€3.50m</t>
+          <t>€4.00m</t>
         </is>
       </c>
       <c r="I558" t="inlineStr">
@@ -27764,7 +27764,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Warmed Omari</t>
+          <t>Daniel Elfadli</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
@@ -27774,28 +27774,28 @@
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D559" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E559" t="inlineStr">
         <is>
-          <t>23/04/2000 (25)</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F559" t="inlineStr">
         <is>
-          <t>Comoros, France</t>
+          <t>Libya, Germany</t>
         </is>
       </c>
       <c r="G559" t="n">
-        <v>3000000</v>
+        <v>3500000</v>
       </c>
       <c r="H559" t="inlineStr">
         <is>
-          <t>€3.00m</t>
+          <t>€3.50m</t>
         </is>
       </c>
       <c r="I559" t="inlineStr">
@@ -27813,7 +27813,7 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>Aboubaka Soumahoro</t>
+          <t>Warmed Omari</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
@@ -27823,28 +27823,28 @@
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D560" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E560" t="inlineStr">
         <is>
-          <t>04/02/2005 (20)</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F560" t="inlineStr">
         <is>
-          <t>France, Cote d'Ivoire</t>
+          <t>Comoros, France</t>
         </is>
       </c>
       <c r="G560" t="n">
-        <v>1800000</v>
+        <v>3000000</v>
       </c>
       <c r="H560" t="inlineStr">
         <is>
-          <t>€1.80m</t>
+          <t>€3.00m</t>
         </is>
       </c>
       <c r="I560" t="inlineStr">
@@ -27862,7 +27862,7 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Gui Ramos</t>
+          <t>Aboubaka Soumahoro</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
@@ -27872,28 +27872,28 @@
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D561" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E561" t="inlineStr">
         <is>
-          <t>11/08/1997 (28)</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F561" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>France, Cote d'Ivoire</t>
         </is>
       </c>
       <c r="G561" t="n">
-        <v>700000</v>
+        <v>1800000</v>
       </c>
       <c r="H561" t="inlineStr">
         <is>
-          <t>€700k</t>
+          <t>€1.80m</t>
         </is>
       </c>
       <c r="I561" t="inlineStr">
@@ -27911,38 +27911,38 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Miro Muheim</t>
+          <t>Gui Ramos</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>Left-Back</t>
+          <t>Centre-Back</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
         <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D562" t="n">
+        <v>28</v>
+      </c>
+      <c r="E562" t="inlineStr">
+        <is>
           <t>28</t>
         </is>
       </c>
-      <c r="D562" t="n">
-        <v>27</v>
-      </c>
-      <c r="E562" t="inlineStr">
-        <is>
-          <t>24/03/1998 (27)</t>
-        </is>
-      </c>
       <c r="F562" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="G562" t="n">
-        <v>4000000</v>
+        <v>700000</v>
       </c>
       <c r="H562" t="inlineStr">
         <is>
-          <t>€4.00m</t>
+          <t>€700k</t>
         </is>
       </c>
       <c r="I562" t="inlineStr">
@@ -27960,7 +27960,7 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>Noah Katterbach</t>
+          <t>Miro Muheim</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
@@ -27970,28 +27970,28 @@
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D563" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E563" t="inlineStr">
         <is>
-          <t>13/04/2001 (24)</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F563" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="G563" t="n">
-        <v>600000</v>
+        <v>4000000</v>
       </c>
       <c r="H563" t="inlineStr">
         <is>
-          <t>€600k</t>
+          <t>€4.00m</t>
         </is>
       </c>
       <c r="I563" t="inlineStr">
@@ -28009,17 +28009,17 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Giorgi Gocholeishvili</t>
+          <t>Noah Katterbach</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>Right-Back</t>
+          <t>Left-Back</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D564" t="n">
@@ -28027,20 +28027,20 @@
       </c>
       <c r="E564" t="inlineStr">
         <is>
-          <t>14/02/2001 (24)</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F564" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G564" t="n">
-        <v>3500000</v>
+        <v>600000</v>
       </c>
       <c r="H564" t="inlineStr">
         <is>
-          <t>€3.50m</t>
+          <t>€600k</t>
         </is>
       </c>
       <c r="I564" t="inlineStr">
@@ -28058,7 +28058,7 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>William Mikelbrencis</t>
+          <t>Giorgi Gocholeishvili</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
@@ -28068,28 +28068,28 @@
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D565" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E565" t="inlineStr">
         <is>
-          <t>25/02/2004 (21)</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F565" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="G565" t="n">
-        <v>2000000</v>
+        <v>3500000</v>
       </c>
       <c r="H565" t="inlineStr">
         <is>
-          <t>€2.00m</t>
+          <t>€3.50m</t>
         </is>
       </c>
       <c r="I565" t="inlineStr">
@@ -28107,7 +28107,7 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Silvan Hefti</t>
+          <t>William Mikelbrencis</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
@@ -28117,28 +28117,28 @@
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D566" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E566" t="inlineStr">
         <is>
-          <t>25/10/1997 (28)</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F566" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="G566" t="n">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="H566" t="inlineStr">
         <is>
-          <t>€1.00m</t>
+          <t>€2.00m</t>
         </is>
       </c>
       <c r="I566" t="inlineStr">
@@ -28156,38 +28156,38 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>Nicolai Remberg</t>
+          <t>Silvan Hefti</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>Defensive Midfield</t>
+          <t>Right-Back</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D567" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E567" t="inlineStr">
         <is>
-          <t>19/06/2000 (25)</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F567" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="G567" t="n">
-        <v>4000000</v>
+        <v>1000000</v>
       </c>
       <c r="H567" t="inlineStr">
         <is>
-          <t>€4.00m</t>
+          <t>€1.00m</t>
         </is>
       </c>
       <c r="I567" t="inlineStr">
@@ -28205,7 +28205,7 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>Jonas Meffert</t>
+          <t>Nicolai Remberg</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
@@ -28215,15 +28215,15 @@
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D568" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E568" t="inlineStr">
         <is>
-          <t>04/09/1994 (31)</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F568" t="inlineStr">
@@ -28232,11 +28232,11 @@
         </is>
       </c>
       <c r="G568" t="n">
-        <v>1000000</v>
+        <v>4000000</v>
       </c>
       <c r="H568" t="inlineStr">
         <is>
-          <t>€1.00m</t>
+          <t>€4.00m</t>
         </is>
       </c>
       <c r="I568" t="inlineStr">
@@ -28254,38 +28254,38 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Albert Sambi Lokonga</t>
+          <t>Jonas Meffert</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>Central Midfield</t>
+          <t>Defensive Midfield</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D569" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E569" t="inlineStr">
         <is>
-          <t>22/10/1999 (26)</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F569" t="inlineStr">
         <is>
-          <t>Belgium, DR Congo</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G569" t="n">
-        <v>6000000</v>
+        <v>1000000</v>
       </c>
       <c r="H569" t="inlineStr">
         <is>
-          <t>€6.00m</t>
+          <t>€1.00m</t>
         </is>
       </c>
       <c r="I569" t="inlineStr">
@@ -28303,7 +28303,7 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>Nicolás Capaldo</t>
+          <t>Albert Sambi Lokonga</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
@@ -28313,28 +28313,28 @@
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D570" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E570" t="inlineStr">
         <is>
-          <t>14/09/1998 (27)</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F570" t="inlineStr">
         <is>
-          <t>Argentina, Italy</t>
+          <t>Belgium, DR Congo</t>
         </is>
       </c>
       <c r="G570" t="n">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="H570" t="inlineStr">
         <is>
-          <t>€4.00m</t>
+          <t>€6.00m</t>
         </is>
       </c>
       <c r="I570" t="inlineStr">
@@ -28352,38 +28352,38 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>Fábio Vieira</t>
+          <t>Nicolás Capaldo</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>Attacking Midfield</t>
+          <t>Central Midfield</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D571" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E571" t="inlineStr">
         <is>
-          <t>30/05/2000 (25)</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F571" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Argentina, Italy</t>
         </is>
       </c>
       <c r="G571" t="n">
-        <v>18000000</v>
+        <v>4000000</v>
       </c>
       <c r="H571" t="inlineStr">
         <is>
-          <t>€18.00m</t>
+          <t>€4.00m</t>
         </is>
       </c>
       <c r="I571" t="inlineStr">
@@ -28401,7 +28401,7 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>Immanuel Pherai</t>
+          <t>Fábio Vieira</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
@@ -28411,28 +28411,28 @@
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D572" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E572" t="inlineStr">
         <is>
-          <t>25/04/2001 (24)</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F572" t="inlineStr">
         <is>
-          <t>Suriname, Netherlands</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="G572" t="n">
-        <v>1800000</v>
+        <v>18000000</v>
       </c>
       <c r="H572" t="inlineStr">
         <is>
-          <t>€1.80m</t>
+          <t>€18.00m</t>
         </is>
       </c>
       <c r="I572" t="inlineStr">
@@ -28450,38 +28450,38 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>Jean-Luc Dompé</t>
+          <t>Immanuel Pherai</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>Left Winger</t>
+          <t>Attacking Midfield</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D573" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E573" t="inlineStr">
         <is>
-          <t>12/08/1995 (30)</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F573" t="inlineStr">
         <is>
-          <t>France, Cote d'Ivoire</t>
+          <t>Suriname, Netherlands</t>
         </is>
       </c>
       <c r="G573" t="n">
-        <v>3500000</v>
+        <v>1800000</v>
       </c>
       <c r="H573" t="inlineStr">
         <is>
-          <t>€3.50m</t>
+          <t>€1.80m</t>
         </is>
       </c>
       <c r="I573" t="inlineStr">
@@ -28499,7 +28499,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Alexander Røssing-Lelesiit</t>
+          <t>Jean-Luc Dompé</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
@@ -28509,20 +28509,20 @@
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D574" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E574" t="inlineStr">
         <is>
-          <t>20/01/2007 (18)</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F574" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>France, Cote d'Ivoire</t>
         </is>
       </c>
       <c r="G574" t="n">
@@ -28548,7 +28548,7 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>Fabio Baldé</t>
+          <t>Alexander Røssing-Lelesiit</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
@@ -28558,28 +28558,28 @@
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D575" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E575" t="inlineStr">
         <is>
-          <t>20/07/2005 (20)</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F575" t="inlineStr">
         <is>
-          <t>Portugal, Germany</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="G575" t="n">
-        <v>2000000</v>
+        <v>3500000</v>
       </c>
       <c r="H575" t="inlineStr">
         <is>
-          <t>€2.00m</t>
+          <t>€3.50m</t>
         </is>
       </c>
       <c r="I575" t="inlineStr">
@@ -28597,38 +28597,38 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>Rayan Philippe</t>
+          <t>Fabio Baldé</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>Right Winger</t>
+          <t>Left Winger</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D576" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E576" t="inlineStr">
         <is>
-          <t>23/10/2000 (25)</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F576" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Portugal, Germany</t>
         </is>
       </c>
       <c r="G576" t="n">
-        <v>4000000</v>
+        <v>2000000</v>
       </c>
       <c r="H576" t="inlineStr">
         <is>
-          <t>€4.00m</t>
+          <t>€2.00m</t>
         </is>
       </c>
       <c r="I576" t="inlineStr">
@@ -28646,7 +28646,7 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>Emir Sahiti</t>
+          <t>Rayan Philippe</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
@@ -28656,28 +28656,28 @@
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D577" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E577" t="inlineStr">
         <is>
-          <t>29/11/1998 (26)</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F577" t="inlineStr">
         <is>
-          <t>Kosovo, Albania</t>
+          <t>France</t>
         </is>
       </c>
       <c r="G577" t="n">
-        <v>2000000</v>
+        <v>4000000</v>
       </c>
       <c r="H577" t="inlineStr">
         <is>
-          <t>€2.00m</t>
+          <t>€4.00m</t>
         </is>
       </c>
       <c r="I577" t="inlineStr">
@@ -28695,7 +28695,7 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>Bakery Jatta</t>
+          <t>Emir Sahiti</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
@@ -28705,28 +28705,28 @@
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D578" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E578" t="inlineStr">
         <is>
-          <t>06/06/1998 (27)</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F578" t="inlineStr">
         <is>
-          <t>The Gambia</t>
+          <t>Kosovo, Albania</t>
         </is>
       </c>
       <c r="G578" t="n">
-        <v>700000</v>
+        <v>2000000</v>
       </c>
       <c r="H578" t="inlineStr">
         <is>
-          <t>€700k</t>
+          <t>€2.00m</t>
         </is>
       </c>
       <c r="I578" t="inlineStr">
@@ -28744,38 +28744,38 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Ransford Königsdörffer</t>
+          <t>Bakery Jatta</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>Centre-Forward</t>
+          <t>Right Winger</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D579" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E579" t="inlineStr">
         <is>
-          <t>13/09/2001 (24)</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F579" t="inlineStr">
         <is>
-          <t>Ghana, Germany</t>
+          <t>The Gambia</t>
         </is>
       </c>
       <c r="G579" t="n">
-        <v>6000000</v>
+        <v>700000</v>
       </c>
       <c r="H579" t="inlineStr">
         <is>
-          <t>€6.00m</t>
+          <t>€700k</t>
         </is>
       </c>
       <c r="I579" t="inlineStr">
@@ -28793,7 +28793,7 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>Yussuf Poulsen</t>
+          <t>Ransford Königsdörffer</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
@@ -28803,28 +28803,28 @@
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D580" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E580" t="inlineStr">
         <is>
-          <t>15/06/1994 (31)</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F580" t="inlineStr">
         <is>
-          <t>Denmark, Tanzania</t>
+          <t>Ghana, Germany</t>
         </is>
       </c>
       <c r="G580" t="n">
-        <v>2500000</v>
+        <v>6000000</v>
       </c>
       <c r="H580" t="inlineStr">
         <is>
-          <t>€2.50m</t>
+          <t>€6.00m</t>
         </is>
       </c>
       <c r="I580" t="inlineStr">
@@ -28842,7 +28842,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>Robert Glatzel</t>
+          <t>Yussuf Poulsen</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
@@ -28852,7 +28852,7 @@
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D581" t="n">
@@ -28860,20 +28860,20 @@
       </c>
       <c r="E581" t="inlineStr">
         <is>
-          <t>08/01/1994 (31)</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F581" t="inlineStr">
         <is>
-          <t>Germany, Eritrea</t>
+          <t>Denmark, Tanzania</t>
         </is>
       </c>
       <c r="G581" t="n">
-        <v>2000000</v>
+        <v>2500000</v>
       </c>
       <c r="H581" t="inlineStr">
         <is>
-          <t>€2.00m</t>
+          <t>€2.50m</t>
         </is>
       </c>
       <c r="I581" t="inlineStr">
@@ -28883,6 +28883,55 @@
       </c>
       <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>Robert Glatzel</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>Centre-Forward</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D582" t="n">
+        <v>31</v>
+      </c>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="F582" t="inlineStr">
+        <is>
+          <t>Germany, Eritrea</t>
+        </is>
+      </c>
+      <c r="G582" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="H582" t="inlineStr">
+        <is>
+          <t>€2.00m</t>
+        </is>
+      </c>
+      <c r="I582" t="inlineStr">
+        <is>
+          <t>hamburger sv</t>
+        </is>
+      </c>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr">
         <is>
           <t>2025/2026</t>
         </is>
